--- a/scr/data/20240830_mc_batch3.xlsx
+++ b/scr/data/20240830_mc_batch3.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\scr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4A8258C-E2C5-4B2F-A553-B25991E5319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66083077-9CFA-42E3-942A-AB48A4C9F3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{70DB6F09-95D2-4EAD-B1A1-D40E7D8E475C}"/>
+    <workbookView xWindow="-38520" yWindow="-15" windowWidth="38640" windowHeight="15990" xr2:uid="{70DB6F09-95D2-4EAD-B1A1-D40E7D8E475C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$648</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="872">
   <si>
     <t>inventory_id</t>
   </si>
@@ -2640,6 +2643,18 @@
   </si>
   <si>
     <t>receiving_date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>M:RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>Z:SEMI MCOIL</t>
+  </si>
+  <si>
+    <t>R:REWIND</t>
   </si>
 </sst>
 </file>
@@ -2651,7 +2666,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -2768,7 +2783,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2808,7 +2823,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2820,6 +2835,9 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3146,24 +3164,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851CBE1B-89D3-4DC8-9350-D5962015691B}">
-  <dimension ref="A1:L648"/>
+  <dimension ref="A1:M648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="L125" sqref="L125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3200,8 +3219,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3236,8 +3258,11 @@
         <v>44644</v>
       </c>
       <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3272,8 +3297,11 @@
         <v>44643</v>
       </c>
       <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3308,8 +3336,11 @@
         <v>44643</v>
       </c>
       <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3344,8 +3375,11 @@
         <v>44649</v>
       </c>
       <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3380,8 +3414,11 @@
         <v>44649</v>
       </c>
       <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -3416,8 +3453,11 @@
         <v>45054</v>
       </c>
       <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3452,8 +3492,11 @@
         <v>44644</v>
       </c>
       <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3488,8 +3531,11 @@
         <v>45071</v>
       </c>
       <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3524,8 +3570,11 @@
         <v>44649</v>
       </c>
       <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3560,8 +3609,11 @@
         <v>45119</v>
       </c>
       <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -3596,8 +3648,11 @@
         <v>44643</v>
       </c>
       <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -3632,8 +3687,11 @@
         <v>44644</v>
       </c>
       <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -3668,8 +3726,11 @@
         <v>45204</v>
       </c>
       <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -3704,8 +3765,11 @@
         <v>45205</v>
       </c>
       <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -3740,8 +3804,11 @@
         <v>45237</v>
       </c>
       <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -3776,8 +3843,11 @@
         <v>45237</v>
       </c>
       <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3812,8 +3882,11 @@
         <v>45236</v>
       </c>
       <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -3848,8 +3921,11 @@
         <v>43777</v>
       </c>
       <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3884,8 +3960,11 @@
         <v>45236</v>
       </c>
       <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3920,8 +3999,11 @@
         <v>45274</v>
       </c>
       <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -3956,8 +4038,11 @@
         <v>45274</v>
       </c>
       <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -3992,8 +4077,11 @@
         <v>45295</v>
       </c>
       <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -4028,8 +4116,11 @@
         <v>45177</v>
       </c>
       <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -4064,8 +4155,11 @@
         <v>45205</v>
       </c>
       <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -4100,8 +4194,11 @@
         <v>44643</v>
       </c>
       <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -4136,8 +4233,11 @@
         <v>45441</v>
       </c>
       <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -4172,8 +4272,11 @@
         <v>45455</v>
       </c>
       <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -4208,8 +4311,11 @@
         <v>45446</v>
       </c>
       <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -4244,8 +4350,11 @@
         <v>45447</v>
       </c>
       <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -4280,8 +4389,11 @@
         <v>45447</v>
       </c>
       <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -4316,8 +4428,11 @@
         <v>45452</v>
       </c>
       <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -4352,8 +4467,11 @@
         <v>45460</v>
       </c>
       <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -4388,8 +4506,11 @@
         <v>45460</v>
       </c>
       <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -4424,8 +4545,11 @@
         <v>45460</v>
       </c>
       <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -4460,8 +4584,11 @@
         <v>45460</v>
       </c>
       <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -4496,8 +4623,11 @@
         <v>45460</v>
       </c>
       <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -4532,8 +4662,11 @@
         <v>45366</v>
       </c>
       <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -4568,8 +4701,11 @@
         <v>45474</v>
       </c>
       <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -4604,8 +4740,11 @@
         <v>45475</v>
       </c>
       <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -4640,8 +4779,11 @@
         <v>45474</v>
       </c>
       <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -4676,8 +4818,11 @@
         <v>45456</v>
       </c>
       <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -4712,8 +4857,11 @@
         <v>45474</v>
       </c>
       <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -4748,8 +4896,11 @@
         <v>45475</v>
       </c>
       <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -4784,8 +4935,11 @@
         <v>45475</v>
       </c>
       <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -4820,8 +4974,11 @@
         <v>45474</v>
       </c>
       <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -4856,8 +5013,11 @@
         <v>45475</v>
       </c>
       <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -4892,8 +5052,11 @@
         <v>45474</v>
       </c>
       <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -4928,8 +5091,11 @@
         <v>45475</v>
       </c>
       <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -4964,8 +5130,11 @@
         <v>45476</v>
       </c>
       <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -5000,8 +5169,11 @@
         <v>45475</v>
       </c>
       <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -5036,8 +5208,11 @@
         <v>45476</v>
       </c>
       <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -5072,8 +5247,11 @@
         <v>45477</v>
       </c>
       <c r="L53" s="9"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -5107,8 +5285,11 @@
       <c r="K54" s="15">
         <v>45475</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -5143,8 +5324,11 @@
         <v>45476</v>
       </c>
       <c r="L55" s="9"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -5178,8 +5362,11 @@
       <c r="K56" s="15">
         <v>45477</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -5213,8 +5400,11 @@
       <c r="K57" s="15">
         <v>45476</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -5249,8 +5439,11 @@
         <v>45475</v>
       </c>
       <c r="L58" s="9"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -5285,8 +5478,11 @@
         <v>45476</v>
       </c>
       <c r="L59" s="9"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -5321,8 +5517,11 @@
         <v>45475</v>
       </c>
       <c r="L60" s="9"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -5357,8 +5556,11 @@
         <v>45476</v>
       </c>
       <c r="L61" s="9"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -5393,8 +5595,11 @@
         <v>45475</v>
       </c>
       <c r="L62" s="9"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -5429,8 +5634,11 @@
         <v>45475</v>
       </c>
       <c r="L63" s="9"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -5465,8 +5673,11 @@
         <v>45475</v>
       </c>
       <c r="L64" s="9"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -5501,8 +5712,11 @@
         <v>45475</v>
       </c>
       <c r="L65" s="9"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -5537,8 +5751,11 @@
         <v>45475</v>
       </c>
       <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -5573,8 +5790,11 @@
         <v>45435</v>
       </c>
       <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -5609,8 +5829,11 @@
         <v>45455</v>
       </c>
       <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>148</v>
       </c>
@@ -5645,8 +5868,11 @@
         <v>45205</v>
       </c>
       <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -5681,8 +5907,11 @@
         <v>45460</v>
       </c>
       <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -5717,8 +5946,11 @@
         <v>45482</v>
       </c>
       <c r="L71" s="9"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -5753,8 +5985,11 @@
         <v>45307</v>
       </c>
       <c r="L72" s="9"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -5789,8 +6024,11 @@
         <v>45476</v>
       </c>
       <c r="L73" s="9"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -5825,8 +6063,11 @@
         <v>45138</v>
       </c>
       <c r="L74" s="9"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>160</v>
       </c>
@@ -5861,8 +6102,11 @@
         <v>45498</v>
       </c>
       <c r="L75" s="9"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -5897,8 +6141,11 @@
         <v>45498</v>
       </c>
       <c r="L76" s="9"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -5933,8 +6180,11 @@
         <v>45502</v>
       </c>
       <c r="L77" s="9"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -5969,8 +6219,11 @@
         <v>45502</v>
       </c>
       <c r="L78" s="9"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -6005,8 +6258,11 @@
         <v>45502</v>
       </c>
       <c r="L79" s="9"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -6041,8 +6297,11 @@
         <v>45502</v>
       </c>
       <c r="L80" s="9"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -6077,8 +6336,11 @@
         <v>45502</v>
       </c>
       <c r="L81" s="9"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -6113,8 +6375,11 @@
         <v>45502</v>
       </c>
       <c r="L82" s="9"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>174</v>
       </c>
@@ -6149,8 +6414,11 @@
         <v>45497</v>
       </c>
       <c r="L83" s="9"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>177</v>
       </c>
@@ -6185,8 +6453,11 @@
         <v>45497</v>
       </c>
       <c r="L84" s="9"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>180</v>
       </c>
@@ -6221,8 +6492,11 @@
         <v>45497</v>
       </c>
       <c r="L85" s="9"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>181</v>
       </c>
@@ -6257,8 +6531,11 @@
         <v>45497</v>
       </c>
       <c r="L86" s="9"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -6293,8 +6570,11 @@
         <v>45499</v>
       </c>
       <c r="L87" s="9"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -6329,8 +6609,11 @@
         <v>45500</v>
       </c>
       <c r="L88" s="9"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -6365,8 +6648,11 @@
         <v>45500</v>
       </c>
       <c r="L89" s="9"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>185</v>
       </c>
@@ -6401,8 +6687,11 @@
         <v>45498</v>
       </c>
       <c r="L90" s="9"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -6437,8 +6726,11 @@
         <v>45498</v>
       </c>
       <c r="L91" s="9"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -6473,8 +6765,11 @@
         <v>45500</v>
       </c>
       <c r="L92" s="9"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -6509,8 +6804,11 @@
         <v>45498</v>
       </c>
       <c r="L93" s="9"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -6545,8 +6843,11 @@
         <v>45498</v>
       </c>
       <c r="L94" s="9"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>192</v>
       </c>
@@ -6581,8 +6882,11 @@
         <v>45500</v>
       </c>
       <c r="L95" s="9"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>193</v>
       </c>
@@ -6617,8 +6921,11 @@
         <v>45497</v>
       </c>
       <c r="L96" s="9"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>196</v>
       </c>
@@ -6653,8 +6960,11 @@
         <v>45498</v>
       </c>
       <c r="L97" s="9"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>197</v>
       </c>
@@ -6689,8 +6999,11 @@
         <v>45499</v>
       </c>
       <c r="L98" s="9"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>198</v>
       </c>
@@ -6725,8 +7038,11 @@
         <v>45499</v>
       </c>
       <c r="L99" s="9"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -6761,8 +7077,11 @@
         <v>45497</v>
       </c>
       <c r="L100" s="9"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -6797,8 +7116,11 @@
         <v>45498</v>
       </c>
       <c r="L101" s="9"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -6833,8 +7155,11 @@
         <v>45498</v>
       </c>
       <c r="L102" s="9"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -6869,8 +7194,11 @@
         <v>45498</v>
       </c>
       <c r="L103" s="9"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>203</v>
       </c>
@@ -6905,8 +7233,11 @@
         <v>45497</v>
       </c>
       <c r="L104" s="9"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -6941,8 +7272,11 @@
         <v>45441</v>
       </c>
       <c r="L105" s="9"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>205</v>
       </c>
@@ -6977,8 +7311,11 @@
         <v>45460</v>
       </c>
       <c r="L106" s="9"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -7013,8 +7350,11 @@
         <v>45497</v>
       </c>
       <c r="L107" s="9"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -7049,8 +7389,11 @@
         <v>45497</v>
       </c>
       <c r="L108" s="9"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>208</v>
       </c>
@@ -7085,8 +7428,11 @@
         <v>45446</v>
       </c>
       <c r="L109" s="9"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>209</v>
       </c>
@@ -7121,8 +7467,11 @@
         <v>45503</v>
       </c>
       <c r="L110" s="9"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
         <v>210</v>
       </c>
@@ -7157,8 +7506,11 @@
         <v>45503</v>
       </c>
       <c r="L111" s="9"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
         <v>211</v>
       </c>
@@ -7193,8 +7545,11 @@
         <v>45503</v>
       </c>
       <c r="L112" s="9"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>212</v>
       </c>
@@ -7229,8 +7584,11 @@
         <v>45502</v>
       </c>
       <c r="L113" s="9"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>213</v>
       </c>
@@ -7265,8 +7623,11 @@
         <v>45497</v>
       </c>
       <c r="L114" s="9"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>214</v>
       </c>
@@ -7301,8 +7662,11 @@
         <v>45478</v>
       </c>
       <c r="L115" s="9"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>217</v>
       </c>
@@ -7337,8 +7701,11 @@
         <v>45358</v>
       </c>
       <c r="L116" s="9"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>220</v>
       </c>
@@ -7373,8 +7740,11 @@
         <v>45475</v>
       </c>
       <c r="L117" s="9"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
         <v>221</v>
       </c>
@@ -7409,8 +7779,11 @@
         <v>45457</v>
       </c>
       <c r="L118" s="9"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
         <v>224</v>
       </c>
@@ -7445,8 +7818,11 @@
         <v>45475</v>
       </c>
       <c r="L119" s="9"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>227</v>
       </c>
@@ -7481,8 +7857,11 @@
         <v>45440</v>
       </c>
       <c r="L120" s="9"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>230</v>
       </c>
@@ -7517,8 +7896,11 @@
         <v>45054</v>
       </c>
       <c r="L121" s="9"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
         <v>231</v>
       </c>
@@ -7553,8 +7935,11 @@
         <v>45069</v>
       </c>
       <c r="L122" s="9"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
         <v>234</v>
       </c>
@@ -7589,8 +7974,11 @@
         <v>45499</v>
       </c>
       <c r="L123" s="9"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>235</v>
       </c>
@@ -7625,8 +8013,11 @@
         <v>45509</v>
       </c>
       <c r="L124" s="9"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>236</v>
       </c>
@@ -7661,8 +8052,11 @@
         <v>45506</v>
       </c>
       <c r="L125" s="9"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>237</v>
       </c>
@@ -7697,8 +8091,11 @@
         <v>45506</v>
       </c>
       <c r="L126" s="9"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
         <v>240</v>
       </c>
@@ -7733,8 +8130,11 @@
         <v>45506</v>
       </c>
       <c r="L127" s="9"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>241</v>
       </c>
@@ -7769,8 +8169,11 @@
         <v>45509</v>
       </c>
       <c r="L128" s="9"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>242</v>
       </c>
@@ -7805,8 +8208,11 @@
         <v>45506</v>
       </c>
       <c r="L129" s="9"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>243</v>
       </c>
@@ -7841,8 +8247,11 @@
         <v>45505</v>
       </c>
       <c r="L130" s="9"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>244</v>
       </c>
@@ -7877,8 +8286,11 @@
         <v>45509</v>
       </c>
       <c r="L131" s="9"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>245</v>
       </c>
@@ -7913,8 +8325,11 @@
         <v>45506</v>
       </c>
       <c r="L132" s="9"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>246</v>
       </c>
@@ -7949,8 +8364,11 @@
         <v>45507</v>
       </c>
       <c r="L133" s="9"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>247</v>
       </c>
@@ -7985,8 +8403,11 @@
         <v>45506</v>
       </c>
       <c r="L134" s="9"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>248</v>
       </c>
@@ -8021,8 +8442,11 @@
         <v>45505</v>
       </c>
       <c r="L135" s="9"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>249</v>
       </c>
@@ -8057,8 +8481,11 @@
         <v>45506</v>
       </c>
       <c r="L136" s="9"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>250</v>
       </c>
@@ -8093,8 +8520,11 @@
         <v>45505</v>
       </c>
       <c r="L137" s="9"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>251</v>
       </c>
@@ -8129,8 +8559,11 @@
         <v>45505</v>
       </c>
       <c r="L138" s="9"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>252</v>
       </c>
@@ -8165,8 +8598,11 @@
         <v>45509</v>
       </c>
       <c r="L139" s="9"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>253</v>
       </c>
@@ -8201,8 +8637,11 @@
         <v>45506</v>
       </c>
       <c r="L140" s="9"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>254</v>
       </c>
@@ -8237,8 +8676,11 @@
         <v>45506</v>
       </c>
       <c r="L141" s="9"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>255</v>
       </c>
@@ -8273,8 +8715,11 @@
         <v>45506</v>
       </c>
       <c r="L142" s="9"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
         <v>258</v>
       </c>
@@ -8309,8 +8754,11 @@
         <v>45506</v>
       </c>
       <c r="L143" s="9"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
         <v>259</v>
       </c>
@@ -8345,8 +8793,11 @@
         <v>45507</v>
       </c>
       <c r="L144" s="9"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
         <v>260</v>
       </c>
@@ -8381,8 +8832,11 @@
         <v>45505</v>
       </c>
       <c r="L145" s="9"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>261</v>
       </c>
@@ -8417,8 +8871,11 @@
         <v>45507</v>
       </c>
       <c r="L146" s="9"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>262</v>
       </c>
@@ -8453,8 +8910,11 @@
         <v>45505</v>
       </c>
       <c r="L147" s="9"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
         <v>263</v>
       </c>
@@ -8489,8 +8949,11 @@
         <v>45509</v>
       </c>
       <c r="L148" s="9"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
         <v>264</v>
       </c>
@@ -8525,8 +8988,11 @@
         <v>45506</v>
       </c>
       <c r="L149" s="9"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
         <v>265</v>
       </c>
@@ -8561,8 +9027,11 @@
         <v>45506</v>
       </c>
       <c r="L150" s="9"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
         <v>266</v>
       </c>
@@ -8597,8 +9066,11 @@
         <v>45506</v>
       </c>
       <c r="L151" s="9"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
         <v>267</v>
       </c>
@@ -8633,8 +9105,11 @@
         <v>45506</v>
       </c>
       <c r="L152" s="9"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
         <v>268</v>
       </c>
@@ -8669,8 +9144,11 @@
         <v>45505</v>
       </c>
       <c r="L153" s="9"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
         <v>269</v>
       </c>
@@ -8705,8 +9183,11 @@
         <v>45516</v>
       </c>
       <c r="L154" s="9"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
         <v>272</v>
       </c>
@@ -8741,8 +9222,11 @@
         <v>45514</v>
       </c>
       <c r="L155" s="9"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
         <v>273</v>
       </c>
@@ -8777,8 +9261,11 @@
         <v>45516</v>
       </c>
       <c r="L156" s="9"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
         <v>274</v>
       </c>
@@ -8813,8 +9300,11 @@
         <v>45516</v>
       </c>
       <c r="L157" s="9"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
         <v>275</v>
       </c>
@@ -8849,8 +9339,11 @@
         <v>45516</v>
       </c>
       <c r="L158" s="9"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
         <v>276</v>
       </c>
@@ -8885,8 +9378,11 @@
         <v>45516</v>
       </c>
       <c r="L159" s="9"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
         <v>277</v>
       </c>
@@ -8921,8 +9417,11 @@
         <v>45514</v>
       </c>
       <c r="L160" s="9"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>278</v>
       </c>
@@ -8957,8 +9456,11 @@
         <v>45296</v>
       </c>
       <c r="L161" s="9"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>279</v>
       </c>
@@ -8993,8 +9495,11 @@
         <v>44814</v>
       </c>
       <c r="L162" s="9"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>280</v>
       </c>
@@ -9029,8 +9534,11 @@
         <v>45222</v>
       </c>
       <c r="L163" s="9"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>283</v>
       </c>
@@ -9065,8 +9573,11 @@
         <v>45456</v>
       </c>
       <c r="L164" s="9"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>284</v>
       </c>
@@ -9101,8 +9612,11 @@
         <v>45447</v>
       </c>
       <c r="L165" s="9"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>285</v>
       </c>
@@ -9137,8 +9651,11 @@
         <v>45268</v>
       </c>
       <c r="L166" s="9"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>286</v>
       </c>
@@ -9173,8 +9690,11 @@
         <v>45274</v>
       </c>
       <c r="L167" s="9"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>287</v>
       </c>
@@ -9209,8 +9729,11 @@
         <v>45358</v>
       </c>
       <c r="L168" s="9"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>288</v>
       </c>
@@ -9245,8 +9768,11 @@
         <v>45474</v>
       </c>
       <c r="L169" s="9"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>289</v>
       </c>
@@ -9281,8 +9807,11 @@
         <v>45474</v>
       </c>
       <c r="L170" s="9"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>290</v>
       </c>
@@ -9317,8 +9846,11 @@
         <v>45452</v>
       </c>
       <c r="L171" s="9"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>291</v>
       </c>
@@ -9353,8 +9885,11 @@
         <v>45520</v>
       </c>
       <c r="L172" s="9"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>292</v>
       </c>
@@ -9389,8 +9924,11 @@
         <v>45520</v>
       </c>
       <c r="L173" s="9"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>293</v>
       </c>
@@ -9425,8 +9963,11 @@
         <v>45520</v>
       </c>
       <c r="L174" s="9"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>296</v>
       </c>
@@ -9461,8 +10002,11 @@
         <v>45519</v>
       </c>
       <c r="L175" s="9"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>297</v>
       </c>
@@ -9497,8 +10041,11 @@
         <v>45520</v>
       </c>
       <c r="L176" s="9"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>298</v>
       </c>
@@ -9533,8 +10080,11 @@
         <v>45520</v>
       </c>
       <c r="L177" s="9"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>299</v>
       </c>
@@ -9569,8 +10119,11 @@
         <v>45520</v>
       </c>
       <c r="L178" s="9"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>300</v>
       </c>
@@ -9605,8 +10158,11 @@
         <v>45519</v>
       </c>
       <c r="L179" s="9"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>301</v>
       </c>
@@ -9641,8 +10197,11 @@
         <v>45520</v>
       </c>
       <c r="L180" s="9"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>302</v>
       </c>
@@ -9677,8 +10236,11 @@
         <v>45519</v>
       </c>
       <c r="L181" s="9"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>303</v>
       </c>
@@ -9713,8 +10275,11 @@
         <v>45520</v>
       </c>
       <c r="L182" s="9"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>304</v>
       </c>
@@ -9749,8 +10314,11 @@
         <v>45519</v>
       </c>
       <c r="L183" s="9"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>305</v>
       </c>
@@ -9785,8 +10353,11 @@
         <v>45519</v>
       </c>
       <c r="L184" s="9"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>306</v>
       </c>
@@ -9821,8 +10392,11 @@
         <v>45520</v>
       </c>
       <c r="L185" s="9"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>307</v>
       </c>
@@ -9857,8 +10431,11 @@
         <v>45520</v>
       </c>
       <c r="L186" s="9"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>308</v>
       </c>
@@ -9893,8 +10470,11 @@
         <v>45520</v>
       </c>
       <c r="L187" s="9"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>309</v>
       </c>
@@ -9929,8 +10509,11 @@
         <v>45519</v>
       </c>
       <c r="L188" s="9"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>310</v>
       </c>
@@ -9965,8 +10548,11 @@
         <v>45519</v>
       </c>
       <c r="L189" s="9"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>311</v>
       </c>
@@ -10001,8 +10587,11 @@
         <v>45519</v>
       </c>
       <c r="L190" s="9"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>312</v>
       </c>
@@ -10037,8 +10626,11 @@
         <v>45519</v>
       </c>
       <c r="L191" s="9"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>313</v>
       </c>
@@ -10073,8 +10665,11 @@
         <v>45519</v>
       </c>
       <c r="L192" s="9"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>314</v>
       </c>
@@ -10109,8 +10704,11 @@
         <v>45519</v>
       </c>
       <c r="L193" s="9"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>315</v>
       </c>
@@ -10145,8 +10743,11 @@
         <v>45505</v>
       </c>
       <c r="L194" s="9"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>316</v>
       </c>
@@ -10181,8 +10782,11 @@
         <v>45497</v>
       </c>
       <c r="L195" s="9"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>317</v>
       </c>
@@ -10217,8 +10821,11 @@
         <v>45503</v>
       </c>
       <c r="L196" s="9"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>321</v>
       </c>
@@ -10253,8 +10860,11 @@
         <v>45503</v>
       </c>
       <c r="L197" s="9"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>324</v>
       </c>
@@ -10289,8 +10899,11 @@
         <v>45485</v>
       </c>
       <c r="L198" s="9"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>329</v>
       </c>
@@ -10325,8 +10938,11 @@
         <v>45159</v>
       </c>
       <c r="L199" s="9"/>
-    </row>
-    <row r="200" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M199" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="16" t="s">
         <v>332</v>
       </c>
@@ -10361,8 +10977,11 @@
         <v>44957</v>
       </c>
       <c r="L200" s="9"/>
-    </row>
-    <row r="201" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M200" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="16" t="s">
         <v>333</v>
       </c>
@@ -10397,8 +11016,11 @@
         <v>45183</v>
       </c>
       <c r="L201" s="9"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>336</v>
       </c>
@@ -10433,8 +11055,11 @@
         <v>44957</v>
       </c>
       <c r="L202" s="9"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>337</v>
       </c>
@@ -10469,8 +11094,11 @@
         <v>44957</v>
       </c>
       <c r="L203" s="9"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>338</v>
       </c>
@@ -10505,8 +11133,11 @@
         <v>45197</v>
       </c>
       <c r="L204" s="9"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>341</v>
       </c>
@@ -10541,8 +11172,11 @@
         <v>44957</v>
       </c>
       <c r="L205" s="9"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>342</v>
       </c>
@@ -10577,8 +11211,11 @@
         <v>44957</v>
       </c>
       <c r="L206" s="9"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>343</v>
       </c>
@@ -10613,8 +11250,11 @@
         <v>45350</v>
       </c>
       <c r="L207" s="9"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>344</v>
       </c>
@@ -10649,8 +11289,11 @@
         <v>45349</v>
       </c>
       <c r="L208" s="9"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>345</v>
       </c>
@@ -10685,8 +11328,11 @@
         <v>45483</v>
       </c>
       <c r="L209" s="9"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>349</v>
       </c>
@@ -10721,8 +11367,11 @@
         <v>45349</v>
       </c>
       <c r="L210" s="9"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>350</v>
       </c>
@@ -10757,8 +11406,11 @@
         <v>45350</v>
       </c>
       <c r="L211" s="9"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>351</v>
       </c>
@@ -10793,8 +11445,11 @@
         <v>45159</v>
       </c>
       <c r="L212" s="9"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>354</v>
       </c>
@@ -10829,8 +11484,11 @@
         <v>44970</v>
       </c>
       <c r="L213" s="9"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>355</v>
       </c>
@@ -10865,8 +11523,11 @@
         <v>44970</v>
       </c>
       <c r="L214" s="9"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>356</v>
       </c>
@@ -10901,8 +11562,11 @@
         <v>45367</v>
       </c>
       <c r="L215" s="9"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>359</v>
       </c>
@@ -10937,8 +11601,11 @@
         <v>45366</v>
       </c>
       <c r="L216" s="9"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>360</v>
       </c>
@@ -10973,8 +11640,11 @@
         <v>45502</v>
       </c>
       <c r="L217" s="9"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>363</v>
       </c>
@@ -11009,8 +11679,11 @@
         <v>45370</v>
       </c>
       <c r="L218" s="9"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>364</v>
       </c>
@@ -11045,8 +11718,11 @@
         <v>45481</v>
       </c>
       <c r="L219" s="9"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>365</v>
       </c>
@@ -11081,8 +11757,11 @@
         <v>45371</v>
       </c>
       <c r="L220" s="9"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>366</v>
       </c>
@@ -11117,8 +11796,11 @@
         <v>45371</v>
       </c>
       <c r="L221" s="9"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>367</v>
       </c>
@@ -11153,8 +11835,11 @@
         <v>45371</v>
       </c>
       <c r="L222" s="9"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>368</v>
       </c>
@@ -11189,8 +11874,11 @@
         <v>45502</v>
       </c>
       <c r="L223" s="9"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>371</v>
       </c>
@@ -11225,8 +11913,11 @@
         <v>45372</v>
       </c>
       <c r="L224" s="9"/>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M224" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>372</v>
       </c>
@@ -11261,8 +11952,11 @@
         <v>45370</v>
       </c>
       <c r="L225" s="9"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M225" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>373</v>
       </c>
@@ -11297,8 +11991,11 @@
         <v>45371</v>
       </c>
       <c r="L226" s="9"/>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M226" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>374</v>
       </c>
@@ -11333,8 +12030,11 @@
         <v>45372</v>
       </c>
       <c r="L227" s="9"/>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M227" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>375</v>
       </c>
@@ -11369,8 +12069,11 @@
         <v>45371</v>
       </c>
       <c r="L228" s="9"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M228" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>376</v>
       </c>
@@ -11405,8 +12108,11 @@
         <v>45371</v>
       </c>
       <c r="L229" s="9"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>377</v>
       </c>
@@ -11441,8 +12147,11 @@
         <v>45370</v>
       </c>
       <c r="L230" s="9"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>378</v>
       </c>
@@ -11477,8 +12186,11 @@
         <v>45495</v>
       </c>
       <c r="L231" s="9"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>379</v>
       </c>
@@ -11513,8 +12225,11 @@
         <v>45372</v>
       </c>
       <c r="L232" s="9"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M232" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>380</v>
       </c>
@@ -11549,8 +12264,11 @@
         <v>45372</v>
       </c>
       <c r="L233" s="9"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M233" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>381</v>
       </c>
@@ -11585,8 +12303,11 @@
         <v>45370</v>
       </c>
       <c r="L234" s="9"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M234" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>382</v>
       </c>
@@ -11621,8 +12342,11 @@
         <v>45388</v>
       </c>
       <c r="L235" s="9"/>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M235" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>385</v>
       </c>
@@ -11657,8 +12381,11 @@
         <v>45388</v>
       </c>
       <c r="L236" s="9"/>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M236" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>386</v>
       </c>
@@ -11693,8 +12420,11 @@
         <v>45516</v>
       </c>
       <c r="L237" s="9"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M237" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>389</v>
       </c>
@@ -11729,8 +12459,11 @@
         <v>45406</v>
       </c>
       <c r="L238" s="9"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M238" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>390</v>
       </c>
@@ -11765,8 +12498,11 @@
         <v>45414</v>
       </c>
       <c r="L239" s="9"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M239" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>391</v>
       </c>
@@ -11801,8 +12537,11 @@
         <v>45414</v>
       </c>
       <c r="L240" s="9"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M240" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>392</v>
       </c>
@@ -11837,8 +12576,11 @@
         <v>45414</v>
       </c>
       <c r="L241" s="9"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M241" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>393</v>
       </c>
@@ -11873,8 +12615,11 @@
         <v>45406</v>
       </c>
       <c r="L242" s="9"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M242" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>394</v>
       </c>
@@ -11909,8 +12654,11 @@
         <v>45406</v>
       </c>
       <c r="L243" s="9"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M243" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>395</v>
       </c>
@@ -11945,8 +12693,11 @@
         <v>45414</v>
       </c>
       <c r="L244" s="9"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M244" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>396</v>
       </c>
@@ -11981,8 +12732,11 @@
         <v>45414</v>
       </c>
       <c r="L245" s="9"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M245" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>397</v>
       </c>
@@ -12017,8 +12771,11 @@
         <v>45406</v>
       </c>
       <c r="L246" s="9"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>398</v>
       </c>
@@ -12053,8 +12810,11 @@
         <v>45518</v>
       </c>
       <c r="L247" s="9"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M247" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>401</v>
       </c>
@@ -12089,8 +12849,11 @@
         <v>45520</v>
       </c>
       <c r="L248" s="9"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M248" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>402</v>
       </c>
@@ -12125,8 +12888,11 @@
         <v>45433</v>
       </c>
       <c r="L249" s="9"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M249" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>403</v>
       </c>
@@ -12161,8 +12927,11 @@
         <v>45437</v>
       </c>
       <c r="L250" s="9"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M250" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>404</v>
       </c>
@@ -12197,8 +12966,11 @@
         <v>45437</v>
       </c>
       <c r="L251" s="9"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M251" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>405</v>
       </c>
@@ -12233,8 +13005,11 @@
         <v>45440</v>
       </c>
       <c r="L252" s="9"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M252" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>406</v>
       </c>
@@ -12269,8 +13044,11 @@
         <v>45440</v>
       </c>
       <c r="L253" s="9"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M253" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>407</v>
       </c>
@@ -12305,8 +13083,11 @@
         <v>45441</v>
       </c>
       <c r="L254" s="9"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M254" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>408</v>
       </c>
@@ -12341,8 +13122,11 @@
         <v>45451</v>
       </c>
       <c r="L255" s="9"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M255" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>411</v>
       </c>
@@ -12377,8 +13161,11 @@
         <v>45451</v>
       </c>
       <c r="L256" s="9"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M256" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>412</v>
       </c>
@@ -12413,8 +13200,11 @@
         <v>45455</v>
       </c>
       <c r="L257" s="9"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M257" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>415</v>
       </c>
@@ -12449,8 +13239,11 @@
         <v>45455</v>
       </c>
       <c r="L258" s="9"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M258" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>416</v>
       </c>
@@ -12485,8 +13278,11 @@
         <v>45509</v>
       </c>
       <c r="L259" s="9"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M259" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>417</v>
       </c>
@@ -12521,8 +13317,11 @@
         <v>45503</v>
       </c>
       <c r="L260" s="9"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M260" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>418</v>
       </c>
@@ -12557,8 +13356,11 @@
         <v>45509</v>
       </c>
       <c r="L261" s="9"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M261" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>421</v>
       </c>
@@ -12593,8 +13395,11 @@
         <v>45458</v>
       </c>
       <c r="L262" s="9"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M262" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>425</v>
       </c>
@@ -12629,8 +13434,11 @@
         <v>45458</v>
       </c>
       <c r="L263" s="9"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M263" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>426</v>
       </c>
@@ -12665,8 +13473,11 @@
         <v>45458</v>
       </c>
       <c r="L264" s="9"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M264" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>427</v>
       </c>
@@ -12701,8 +13512,11 @@
         <v>45458</v>
       </c>
       <c r="L265" s="9"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M265" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>428</v>
       </c>
@@ -12737,8 +13551,11 @@
         <v>45458</v>
       </c>
       <c r="L266" s="9"/>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M266" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>429</v>
       </c>
@@ -12773,8 +13590,11 @@
         <v>45458</v>
       </c>
       <c r="L267" s="9"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M267" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>430</v>
       </c>
@@ -12809,8 +13629,11 @@
         <v>45457</v>
       </c>
       <c r="L268" s="9"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M268" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>431</v>
       </c>
@@ -12845,8 +13668,11 @@
         <v>45457</v>
       </c>
       <c r="L269" s="9"/>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M269" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>432</v>
       </c>
@@ -12881,8 +13707,11 @@
         <v>45458</v>
       </c>
       <c r="L270" s="9"/>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M270" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>433</v>
       </c>
@@ -12917,8 +13746,11 @@
         <v>45458</v>
       </c>
       <c r="L271" s="9"/>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M271" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>434</v>
       </c>
@@ -12953,8 +13785,11 @@
         <v>45476</v>
       </c>
       <c r="L272" s="9"/>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M272" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>437</v>
       </c>
@@ -12989,8 +13824,11 @@
         <v>45512</v>
       </c>
       <c r="L273" s="9"/>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M273" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>441</v>
       </c>
@@ -13025,8 +13863,11 @@
         <v>45476</v>
       </c>
       <c r="L274" s="9"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M274" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>442</v>
       </c>
@@ -13061,8 +13902,11 @@
         <v>45499</v>
       </c>
       <c r="L275" s="9"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M275" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>445</v>
       </c>
@@ -13097,8 +13941,11 @@
         <v>45476</v>
       </c>
       <c r="L276" s="9"/>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M276" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>446</v>
       </c>
@@ -13133,8 +13980,11 @@
         <v>45476</v>
       </c>
       <c r="L277" s="9"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M277" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>447</v>
       </c>
@@ -13169,8 +14019,11 @@
         <v>45512</v>
       </c>
       <c r="L278" s="9"/>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>450</v>
       </c>
@@ -13205,8 +14058,11 @@
         <v>45478</v>
       </c>
       <c r="L279" s="9"/>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M279" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>451</v>
       </c>
@@ -13241,8 +14097,11 @@
         <v>45482</v>
       </c>
       <c r="L280" s="9"/>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M280" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>452</v>
       </c>
@@ -13277,8 +14136,11 @@
         <v>45482</v>
       </c>
       <c r="L281" s="9"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M281" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>453</v>
       </c>
@@ -13313,8 +14175,11 @@
         <v>45482</v>
       </c>
       <c r="L282" s="9"/>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M282" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>454</v>
       </c>
@@ -13349,8 +14214,11 @@
         <v>45482</v>
       </c>
       <c r="L283" s="9"/>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M283" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>455</v>
       </c>
@@ -13385,8 +14253,11 @@
         <v>45482</v>
       </c>
       <c r="L284" s="9"/>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M284" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>456</v>
       </c>
@@ -13421,8 +14292,11 @@
         <v>45483</v>
       </c>
       <c r="L285" s="9"/>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>457</v>
       </c>
@@ -13457,8 +14331,11 @@
         <v>45483</v>
       </c>
       <c r="L286" s="9"/>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M286" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>458</v>
       </c>
@@ -13493,8 +14370,11 @@
         <v>45498</v>
       </c>
       <c r="L287" s="9"/>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M287" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>459</v>
       </c>
@@ -13529,8 +14409,11 @@
         <v>45499</v>
       </c>
       <c r="L288" s="9"/>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M288" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>460</v>
       </c>
@@ -13565,8 +14448,11 @@
         <v>45500</v>
       </c>
       <c r="L289" s="9"/>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M289" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>461</v>
       </c>
@@ -13601,8 +14487,11 @@
         <v>45499</v>
       </c>
       <c r="L290" s="9"/>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M290" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>462</v>
       </c>
@@ -13637,8 +14526,11 @@
         <v>45499</v>
       </c>
       <c r="L291" s="9"/>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M291" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>463</v>
       </c>
@@ -13673,8 +14565,11 @@
         <v>45505</v>
       </c>
       <c r="L292" s="9"/>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M292" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>464</v>
       </c>
@@ -13709,8 +14604,11 @@
         <v>45499</v>
       </c>
       <c r="L293" s="9"/>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M293" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>465</v>
       </c>
@@ -13745,8 +14643,11 @@
         <v>45497</v>
       </c>
       <c r="L294" s="9"/>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M294" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>466</v>
       </c>
@@ -13781,8 +14682,11 @@
         <v>45497</v>
       </c>
       <c r="L295" s="9"/>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M295" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>469</v>
       </c>
@@ -13817,8 +14721,11 @@
         <v>45499</v>
       </c>
       <c r="L296" s="9"/>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M296" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>470</v>
       </c>
@@ -13853,8 +14760,11 @@
         <v>45499</v>
       </c>
       <c r="L297" s="9"/>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M297" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>471</v>
       </c>
@@ -13889,8 +14799,11 @@
         <v>45497</v>
       </c>
       <c r="L298" s="9"/>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M298" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>472</v>
       </c>
@@ -13925,8 +14838,11 @@
         <v>45499</v>
       </c>
       <c r="L299" s="9"/>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M299" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>473</v>
       </c>
@@ -13961,8 +14877,11 @@
         <v>45498</v>
       </c>
       <c r="L300" s="9"/>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M300" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>474</v>
       </c>
@@ -13997,8 +14916,11 @@
         <v>45499</v>
       </c>
       <c r="L301" s="9"/>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M301" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>475</v>
       </c>
@@ -14033,8 +14955,11 @@
         <v>45497</v>
       </c>
       <c r="L302" s="9"/>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M302" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>476</v>
       </c>
@@ -14069,8 +14994,11 @@
         <v>45498</v>
       </c>
       <c r="L303" s="9"/>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M303" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>477</v>
       </c>
@@ -14105,8 +15033,11 @@
         <v>45497</v>
       </c>
       <c r="L304" s="9"/>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M304" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>478</v>
       </c>
@@ -14141,8 +15072,11 @@
         <v>45495</v>
       </c>
       <c r="L305" s="9"/>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M305" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>479</v>
       </c>
@@ -14177,8 +15111,11 @@
         <v>45497</v>
       </c>
       <c r="L306" s="9"/>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M306" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>480</v>
       </c>
@@ -14213,8 +15150,11 @@
         <v>45499</v>
       </c>
       <c r="L307" s="9"/>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M307" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>481</v>
       </c>
@@ -14249,8 +15189,11 @@
         <v>45498</v>
       </c>
       <c r="L308" s="9"/>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M308" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>482</v>
       </c>
@@ -14285,8 +15228,11 @@
         <v>45499</v>
       </c>
       <c r="L309" s="9"/>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M309" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>483</v>
       </c>
@@ -14321,8 +15267,11 @@
         <v>45498</v>
       </c>
       <c r="L310" s="9"/>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M310" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>484</v>
       </c>
@@ -14357,8 +15306,11 @@
         <v>45521</v>
       </c>
       <c r="L311" s="9"/>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M311" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>485</v>
       </c>
@@ -14393,8 +15345,11 @@
         <v>45497</v>
       </c>
       <c r="L312" s="9"/>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M312" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>486</v>
       </c>
@@ -14429,8 +15384,11 @@
         <v>45497</v>
       </c>
       <c r="L313" s="9"/>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M313" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>487</v>
       </c>
@@ -14465,8 +15423,11 @@
         <v>45498</v>
       </c>
       <c r="L314" s="9"/>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M314" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>488</v>
       </c>
@@ -14501,8 +15462,11 @@
         <v>45497</v>
       </c>
       <c r="L315" s="9"/>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M315" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>489</v>
       </c>
@@ -14537,8 +15501,11 @@
         <v>45497</v>
       </c>
       <c r="L316" s="9"/>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M316" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>490</v>
       </c>
@@ -14573,8 +15540,11 @@
         <v>45495</v>
       </c>
       <c r="L317" s="9"/>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M317" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>491</v>
       </c>
@@ -14609,8 +15579,11 @@
         <v>45495</v>
       </c>
       <c r="L318" s="9"/>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M318" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>492</v>
       </c>
@@ -14645,8 +15618,11 @@
         <v>45497</v>
       </c>
       <c r="L319" s="9"/>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M319" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>493</v>
       </c>
@@ -14681,8 +15657,11 @@
         <v>45495</v>
       </c>
       <c r="L320" s="9"/>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M320" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>494</v>
       </c>
@@ -14717,8 +15696,11 @@
         <v>45499</v>
       </c>
       <c r="L321" s="9"/>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M321" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>495</v>
       </c>
@@ -14753,8 +15735,11 @@
         <v>45505</v>
       </c>
       <c r="L322" s="9"/>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M322" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>496</v>
       </c>
@@ -14789,8 +15774,11 @@
         <v>45505</v>
       </c>
       <c r="L323" s="9"/>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M323" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>497</v>
       </c>
@@ -14825,8 +15813,11 @@
         <v>45500</v>
       </c>
       <c r="L324" s="9"/>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M324" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>498</v>
       </c>
@@ -14861,8 +15852,11 @@
         <v>45499</v>
       </c>
       <c r="L325" s="9"/>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M325" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>499</v>
       </c>
@@ -14897,8 +15891,11 @@
         <v>45499</v>
       </c>
       <c r="L326" s="9"/>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M326" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>500</v>
       </c>
@@ -14933,8 +15930,11 @@
         <v>45498</v>
       </c>
       <c r="L327" s="9"/>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M327" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>501</v>
       </c>
@@ -14969,8 +15969,11 @@
         <v>45497</v>
       </c>
       <c r="L328" s="9"/>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M328" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>502</v>
       </c>
@@ -15005,8 +16008,11 @@
         <v>45495</v>
       </c>
       <c r="L329" s="9"/>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M329" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>503</v>
       </c>
@@ -15041,8 +16047,11 @@
         <v>45495</v>
       </c>
       <c r="L330" s="9"/>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M330" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>504</v>
       </c>
@@ -15077,8 +16086,11 @@
         <v>45500</v>
       </c>
       <c r="L331" s="9"/>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M331" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>505</v>
       </c>
@@ -15113,8 +16125,11 @@
         <v>45495</v>
       </c>
       <c r="L332" s="9"/>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M332" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>506</v>
       </c>
@@ -15149,8 +16164,11 @@
         <v>45495</v>
       </c>
       <c r="L333" s="9"/>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M333" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>507</v>
       </c>
@@ -15185,8 +16203,11 @@
         <v>45495</v>
       </c>
       <c r="L334" s="9"/>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M334" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>508</v>
       </c>
@@ -15221,8 +16242,11 @@
         <v>45495</v>
       </c>
       <c r="L335" s="9"/>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M335" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>509</v>
       </c>
@@ -15257,8 +16281,11 @@
         <v>45495</v>
       </c>
       <c r="L336" s="9"/>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M336" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>510</v>
       </c>
@@ -15293,8 +16320,11 @@
         <v>45495</v>
       </c>
       <c r="L337" s="9"/>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M337" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>511</v>
       </c>
@@ -15329,8 +16359,11 @@
         <v>45500</v>
       </c>
       <c r="L338" s="9"/>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M338" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>512</v>
       </c>
@@ -15365,8 +16398,11 @@
         <v>45495</v>
       </c>
       <c r="L339" s="9"/>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M339" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>513</v>
       </c>
@@ -15401,8 +16437,11 @@
         <v>45499</v>
       </c>
       <c r="L340" s="9"/>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M340" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>514</v>
       </c>
@@ -15437,8 +16476,11 @@
         <v>45497</v>
       </c>
       <c r="L341" s="9"/>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M341" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>515</v>
       </c>
@@ -15473,8 +16515,11 @@
         <v>45497</v>
       </c>
       <c r="L342" s="9"/>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M342" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>516</v>
       </c>
@@ -15509,8 +16554,11 @@
         <v>45497</v>
       </c>
       <c r="L343" s="9"/>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M343" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>517</v>
       </c>
@@ -15545,8 +16593,11 @@
         <v>45495</v>
       </c>
       <c r="L344" s="9"/>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M344" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>518</v>
       </c>
@@ -15581,8 +16632,11 @@
         <v>45495</v>
       </c>
       <c r="L345" s="9"/>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M345" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>519</v>
       </c>
@@ -15617,8 +16671,11 @@
         <v>45499</v>
       </c>
       <c r="L346" s="9"/>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M346" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>520</v>
       </c>
@@ -15653,8 +16710,11 @@
         <v>45496</v>
       </c>
       <c r="L347" s="9"/>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M347" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>521</v>
       </c>
@@ -15689,8 +16749,11 @@
         <v>45499</v>
       </c>
       <c r="L348" s="9"/>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M348" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>522</v>
       </c>
@@ -15725,8 +16788,11 @@
         <v>45497</v>
       </c>
       <c r="L349" s="9"/>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M349" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>523</v>
       </c>
@@ -15761,8 +16827,11 @@
         <v>45497</v>
       </c>
       <c r="L350" s="9"/>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M350" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>524</v>
       </c>
@@ -15797,8 +16866,11 @@
         <v>45497</v>
       </c>
       <c r="L351" s="9"/>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M351" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>525</v>
       </c>
@@ -15833,8 +16905,11 @@
         <v>45495</v>
       </c>
       <c r="L352" s="9"/>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M352" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>526</v>
       </c>
@@ -15869,8 +16944,11 @@
         <v>45497</v>
       </c>
       <c r="L353" s="9"/>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M353" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>527</v>
       </c>
@@ -15905,8 +16983,11 @@
         <v>45499</v>
       </c>
       <c r="L354" s="9"/>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M354" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>528</v>
       </c>
@@ -15941,8 +17022,11 @@
         <v>45497</v>
       </c>
       <c r="L355" s="9"/>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M355" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>529</v>
       </c>
@@ -15977,8 +17061,11 @@
         <v>45497</v>
       </c>
       <c r="L356" s="9"/>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M356" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>530</v>
       </c>
@@ -16013,8 +17100,11 @@
         <v>45498</v>
       </c>
       <c r="L357" s="9"/>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M357" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>531</v>
       </c>
@@ -16049,8 +17139,11 @@
         <v>45495</v>
       </c>
       <c r="L358" s="9"/>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M358" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>532</v>
       </c>
@@ -16085,8 +17178,11 @@
         <v>45495</v>
       </c>
       <c r="L359" s="9"/>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M359" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>533</v>
       </c>
@@ -16121,8 +17217,11 @@
         <v>45497</v>
       </c>
       <c r="L360" s="9"/>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M360" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>536</v>
       </c>
@@ -16157,8 +17256,11 @@
         <v>45499</v>
       </c>
       <c r="L361" s="9"/>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M361" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>537</v>
       </c>
@@ -16193,8 +17295,11 @@
         <v>45499</v>
       </c>
       <c r="L362" s="9"/>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M362" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>538</v>
       </c>
@@ -16229,8 +17334,11 @@
         <v>45499</v>
       </c>
       <c r="L363" s="9"/>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M363" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>539</v>
       </c>
@@ -16265,8 +17373,11 @@
         <v>45499</v>
       </c>
       <c r="L364" s="9"/>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M364" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>540</v>
       </c>
@@ -16301,8 +17412,11 @@
         <v>45499</v>
       </c>
       <c r="L365" s="9"/>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M365" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>541</v>
       </c>
@@ -16337,8 +17451,11 @@
         <v>45499</v>
       </c>
       <c r="L366" s="9"/>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M366" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>542</v>
       </c>
@@ -16373,8 +17490,11 @@
         <v>45499</v>
       </c>
       <c r="L367" s="9"/>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M367" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>543</v>
       </c>
@@ -16409,8 +17529,11 @@
         <v>45499</v>
       </c>
       <c r="L368" s="9"/>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M368" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>544</v>
       </c>
@@ -16445,8 +17568,11 @@
         <v>45500</v>
       </c>
       <c r="L369" s="9"/>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M369" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>545</v>
       </c>
@@ -16481,8 +17607,11 @@
         <v>45498</v>
       </c>
       <c r="L370" s="9"/>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M370" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>546</v>
       </c>
@@ -16517,8 +17646,11 @@
         <v>45497</v>
       </c>
       <c r="L371" s="9"/>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M371" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>547</v>
       </c>
@@ -16553,8 +17685,11 @@
         <v>45497</v>
       </c>
       <c r="L372" s="9"/>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M372" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>548</v>
       </c>
@@ -16589,8 +17724,11 @@
         <v>45499</v>
       </c>
       <c r="L373" s="9"/>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M373" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>549</v>
       </c>
@@ -16625,8 +17763,11 @@
         <v>45498</v>
       </c>
       <c r="L374" s="9"/>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M374" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>550</v>
       </c>
@@ -16661,8 +17802,11 @@
         <v>45499</v>
       </c>
       <c r="L375" s="9"/>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M375" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>551</v>
       </c>
@@ -16697,8 +17841,11 @@
         <v>45499</v>
       </c>
       <c r="L376" s="9"/>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M376" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>552</v>
       </c>
@@ -16733,8 +17880,11 @@
         <v>45499</v>
       </c>
       <c r="L377" s="9"/>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M377" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>553</v>
       </c>
@@ -16769,8 +17919,11 @@
         <v>45499</v>
       </c>
       <c r="L378" s="9"/>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M378" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>554</v>
       </c>
@@ -16805,8 +17958,11 @@
         <v>45497</v>
       </c>
       <c r="L379" s="9"/>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M379" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>557</v>
       </c>
@@ -16841,8 +17997,11 @@
         <v>45495</v>
       </c>
       <c r="L380" s="9"/>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M380" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>558</v>
       </c>
@@ -16877,8 +18036,11 @@
         <v>45497</v>
       </c>
       <c r="L381" s="9"/>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M381" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>559</v>
       </c>
@@ -16913,8 +18075,11 @@
         <v>45495</v>
       </c>
       <c r="L382" s="9"/>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M382" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>560</v>
       </c>
@@ -16949,8 +18114,11 @@
         <v>45495</v>
       </c>
       <c r="L383" s="9"/>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M383" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>561</v>
       </c>
@@ -16985,8 +18153,11 @@
         <v>45497</v>
       </c>
       <c r="L384" s="9"/>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M384" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>562</v>
       </c>
@@ -17021,8 +18192,11 @@
         <v>45497</v>
       </c>
       <c r="L385" s="9"/>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M385" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>563</v>
       </c>
@@ -17057,8 +18231,11 @@
         <v>45495</v>
       </c>
       <c r="L386" s="9"/>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M386" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>564</v>
       </c>
@@ -17093,8 +18270,11 @@
         <v>45495</v>
       </c>
       <c r="L387" s="9"/>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M387" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>565</v>
       </c>
@@ -17129,8 +18309,11 @@
         <v>45500</v>
       </c>
       <c r="L388" s="9"/>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M388" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>566</v>
       </c>
@@ -17165,8 +18348,11 @@
         <v>45495</v>
       </c>
       <c r="L389" s="9"/>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M389" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>567</v>
       </c>
@@ -17201,8 +18387,11 @@
         <v>45497</v>
       </c>
       <c r="L390" s="9"/>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M390" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>568</v>
       </c>
@@ -17237,8 +18426,11 @@
         <v>45495</v>
       </c>
       <c r="L391" s="9"/>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M391" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>569</v>
       </c>
@@ -17273,8 +18465,11 @@
         <v>45499</v>
       </c>
       <c r="L392" s="9"/>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M392" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>570</v>
       </c>
@@ -17309,8 +18504,11 @@
         <v>45495</v>
       </c>
       <c r="L393" s="9"/>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M393" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>571</v>
       </c>
@@ -17345,8 +18543,11 @@
         <v>45499</v>
       </c>
       <c r="L394" s="9"/>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M394" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>572</v>
       </c>
@@ -17381,8 +18582,11 @@
         <v>45495</v>
       </c>
       <c r="L395" s="9"/>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M395" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>573</v>
       </c>
@@ -17417,8 +18621,11 @@
         <v>45497</v>
       </c>
       <c r="L396" s="9"/>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M396" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>574</v>
       </c>
@@ -17453,8 +18660,11 @@
         <v>45495</v>
       </c>
       <c r="L397" s="9"/>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M397" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>575</v>
       </c>
@@ -17489,8 +18699,11 @@
         <v>45500</v>
       </c>
       <c r="L398" s="9"/>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M398" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>576</v>
       </c>
@@ -17525,8 +18738,11 @@
         <v>45497</v>
       </c>
       <c r="L399" s="9"/>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M399" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>577</v>
       </c>
@@ -17561,8 +18777,11 @@
         <v>45499</v>
       </c>
       <c r="L400" s="9"/>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M400" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>578</v>
       </c>
@@ -17597,8 +18816,11 @@
         <v>45495</v>
       </c>
       <c r="L401" s="9"/>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M401" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>579</v>
       </c>
@@ -17633,8 +18855,11 @@
         <v>45497</v>
       </c>
       <c r="L402" s="9"/>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M402" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>580</v>
       </c>
@@ -17669,8 +18894,11 @@
         <v>45498</v>
       </c>
       <c r="L403" s="9"/>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M403" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>581</v>
       </c>
@@ -17705,8 +18933,11 @@
         <v>45497</v>
       </c>
       <c r="L404" s="9"/>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M404" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>582</v>
       </c>
@@ -17741,8 +18972,11 @@
         <v>45497</v>
       </c>
       <c r="L405" s="9"/>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M405" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>583</v>
       </c>
@@ -17777,8 +19011,11 @@
         <v>45499</v>
       </c>
       <c r="L406" s="9"/>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M406" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>584</v>
       </c>
@@ -17813,8 +19050,11 @@
         <v>45499</v>
       </c>
       <c r="L407" s="9"/>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M407" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>585</v>
       </c>
@@ -17849,8 +19089,11 @@
         <v>45500</v>
       </c>
       <c r="L408" s="9"/>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M408" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>586</v>
       </c>
@@ -17885,8 +19128,11 @@
         <v>45495</v>
       </c>
       <c r="L409" s="9"/>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M409" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>587</v>
       </c>
@@ -17921,8 +19167,11 @@
         <v>45497</v>
       </c>
       <c r="L410" s="9"/>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M410" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>588</v>
       </c>
@@ -17957,8 +19206,11 @@
         <v>45497</v>
       </c>
       <c r="L411" s="9"/>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M411" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>589</v>
       </c>
@@ -17993,8 +19245,11 @@
         <v>45499</v>
       </c>
       <c r="L412" s="9"/>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M412" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>590</v>
       </c>
@@ -18029,8 +19284,11 @@
         <v>45495</v>
       </c>
       <c r="L413" s="9"/>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M413" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>591</v>
       </c>
@@ -18065,8 +19323,11 @@
         <v>45497</v>
       </c>
       <c r="L414" s="9"/>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M414" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>592</v>
       </c>
@@ -18101,8 +19362,11 @@
         <v>45495</v>
       </c>
       <c r="L415" s="9"/>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M415" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>596</v>
       </c>
@@ -18137,8 +19401,11 @@
         <v>45495</v>
       </c>
       <c r="L416" s="9"/>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M416" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>597</v>
       </c>
@@ -18173,8 +19440,11 @@
         <v>45495</v>
       </c>
       <c r="L417" s="9"/>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M417" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>598</v>
       </c>
@@ -18209,8 +19479,11 @@
         <v>45497</v>
       </c>
       <c r="L418" s="9"/>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M418" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>602</v>
       </c>
@@ -18245,8 +19518,11 @@
         <v>45497</v>
       </c>
       <c r="L419" s="9"/>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M419" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>603</v>
       </c>
@@ -18281,8 +19557,11 @@
         <v>45499</v>
       </c>
       <c r="L420" s="9"/>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M420" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>606</v>
       </c>
@@ -18317,8 +19596,11 @@
         <v>45499</v>
       </c>
       <c r="L421" s="9"/>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M421" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>607</v>
       </c>
@@ -18353,8 +19635,11 @@
         <v>45499</v>
       </c>
       <c r="L422" s="9"/>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M422" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>608</v>
       </c>
@@ -18389,8 +19674,11 @@
         <v>45499</v>
       </c>
       <c r="L423" s="9"/>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M423" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>609</v>
       </c>
@@ -18425,8 +19713,11 @@
         <v>45499</v>
       </c>
       <c r="L424" s="9"/>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M424" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>610</v>
       </c>
@@ -18461,8 +19752,11 @@
         <v>45497</v>
       </c>
       <c r="L425" s="9"/>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M425" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>611</v>
       </c>
@@ -18497,8 +19791,11 @@
         <v>45497</v>
       </c>
       <c r="L426" s="9"/>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M426" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>612</v>
       </c>
@@ -18533,8 +19830,11 @@
         <v>45497</v>
       </c>
       <c r="L427" s="9"/>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M427" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>613</v>
       </c>
@@ -18569,8 +19869,11 @@
         <v>45519</v>
       </c>
       <c r="L428" s="9"/>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M428" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>614</v>
       </c>
@@ -18605,8 +19908,11 @@
         <v>45500</v>
       </c>
       <c r="L429" s="9"/>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M429" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>615</v>
       </c>
@@ -18641,8 +19947,11 @@
         <v>45502</v>
       </c>
       <c r="L430" s="9"/>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M430" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>616</v>
       </c>
@@ -18677,8 +19986,11 @@
         <v>45516</v>
       </c>
       <c r="L431" s="9"/>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M431" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>617</v>
       </c>
@@ -18713,8 +20025,11 @@
         <v>45500</v>
       </c>
       <c r="L432" s="9"/>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M432" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>618</v>
       </c>
@@ -18749,8 +20064,11 @@
         <v>45518</v>
       </c>
       <c r="L433" s="9"/>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M433" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>619</v>
       </c>
@@ -18785,8 +20103,11 @@
         <v>45500</v>
       </c>
       <c r="L434" s="9"/>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M434" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>620</v>
       </c>
@@ -18821,8 +20142,11 @@
         <v>45499</v>
       </c>
       <c r="L435" s="9"/>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M435" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>621</v>
       </c>
@@ -18857,8 +20181,11 @@
         <v>45502</v>
       </c>
       <c r="L436" s="9"/>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M436" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>622</v>
       </c>
@@ -18893,8 +20220,11 @@
         <v>45506</v>
       </c>
       <c r="L437" s="9"/>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M437" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>623</v>
       </c>
@@ -18929,8 +20259,11 @@
         <v>45500</v>
       </c>
       <c r="L438" s="9"/>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M438" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>624</v>
       </c>
@@ -18965,8 +20298,11 @@
         <v>45500</v>
       </c>
       <c r="L439" s="9"/>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M439" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>625</v>
       </c>
@@ -19001,8 +20337,11 @@
         <v>45500</v>
       </c>
       <c r="L440" s="9"/>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M440" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>628</v>
       </c>
@@ -19037,8 +20376,11 @@
         <v>45499</v>
       </c>
       <c r="L441" s="9"/>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M441" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>629</v>
       </c>
@@ -19073,8 +20415,11 @@
         <v>45516</v>
       </c>
       <c r="L442" s="9"/>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M442" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>633</v>
       </c>
@@ -19109,8 +20454,11 @@
         <v>45505</v>
       </c>
       <c r="L443" s="9"/>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M443" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>636</v>
       </c>
@@ -19145,8 +20493,11 @@
         <v>45502</v>
       </c>
       <c r="L444" s="9"/>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M444" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>637</v>
       </c>
@@ -19181,8 +20532,11 @@
         <v>45502</v>
       </c>
       <c r="L445" s="9"/>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M445" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>638</v>
       </c>
@@ -19217,8 +20571,11 @@
         <v>45502</v>
       </c>
       <c r="L446" s="9"/>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M446" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>639</v>
       </c>
@@ -19253,8 +20610,11 @@
         <v>45502</v>
       </c>
       <c r="L447" s="9"/>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M447" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>640</v>
       </c>
@@ -19289,8 +20649,11 @@
         <v>45502</v>
       </c>
       <c r="L448" s="9"/>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M448" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>641</v>
       </c>
@@ -19325,8 +20688,11 @@
         <v>45502</v>
       </c>
       <c r="L449" s="9"/>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M449" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>642</v>
       </c>
@@ -19361,8 +20727,11 @@
         <v>45514</v>
       </c>
       <c r="L450" s="9"/>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M450" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>643</v>
       </c>
@@ -19397,8 +20766,11 @@
         <v>45500</v>
       </c>
       <c r="L451" s="9"/>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M451" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>644</v>
       </c>
@@ -19433,8 +20805,11 @@
         <v>45500</v>
       </c>
       <c r="L452" s="9"/>
-    </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M452" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>645</v>
       </c>
@@ -19469,8 +20844,11 @@
         <v>45502</v>
       </c>
       <c r="L453" s="9"/>
-    </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M453" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>646</v>
       </c>
@@ -19505,8 +20883,11 @@
         <v>45500</v>
       </c>
       <c r="L454" s="9"/>
-    </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M454" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>647</v>
       </c>
@@ -19541,8 +20922,11 @@
         <v>45507</v>
       </c>
       <c r="L455" s="9"/>
-    </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M455" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>648</v>
       </c>
@@ -19577,8 +20961,11 @@
         <v>45502</v>
       </c>
       <c r="L456" s="9"/>
-    </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M456" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>649</v>
       </c>
@@ -19613,8 +21000,11 @@
         <v>45502</v>
       </c>
       <c r="L457" s="9"/>
-    </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M457" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>650</v>
       </c>
@@ -19649,8 +21039,11 @@
         <v>45502</v>
       </c>
       <c r="L458" s="9"/>
-    </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M458" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>651</v>
       </c>
@@ -19685,8 +21078,11 @@
         <v>45502</v>
       </c>
       <c r="L459" s="9"/>
-    </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M459" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>652</v>
       </c>
@@ -19721,8 +21117,11 @@
         <v>45502</v>
       </c>
       <c r="L460" s="9"/>
-    </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M460" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>653</v>
       </c>
@@ -19757,8 +21156,11 @@
         <v>45503</v>
       </c>
       <c r="L461" s="9"/>
-    </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M461" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>654</v>
       </c>
@@ -19793,8 +21195,11 @@
         <v>45503</v>
       </c>
       <c r="L462" s="9"/>
-    </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M462" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>655</v>
       </c>
@@ -19829,8 +21234,11 @@
         <v>45503</v>
       </c>
       <c r="L463" s="9"/>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M463" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>656</v>
       </c>
@@ -19865,8 +21273,11 @@
         <v>45503</v>
       </c>
       <c r="L464" s="9"/>
-    </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M464" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>657</v>
       </c>
@@ -19901,8 +21312,11 @@
         <v>45502</v>
       </c>
       <c r="L465" s="9"/>
-    </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M465" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>658</v>
       </c>
@@ -19937,8 +21351,11 @@
         <v>45502</v>
       </c>
       <c r="L466" s="9"/>
-    </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M466" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>659</v>
       </c>
@@ -19973,8 +21390,11 @@
         <v>45502</v>
       </c>
       <c r="L467" s="9"/>
-    </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M467" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>660</v>
       </c>
@@ -20009,8 +21429,11 @@
         <v>45502</v>
       </c>
       <c r="L468" s="9"/>
-    </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M468" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>661</v>
       </c>
@@ -20045,8 +21468,11 @@
         <v>45502</v>
       </c>
       <c r="L469" s="9"/>
-    </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M469" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>662</v>
       </c>
@@ -20081,8 +21507,11 @@
         <v>45502</v>
       </c>
       <c r="L470" s="9"/>
-    </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M470" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>663</v>
       </c>
@@ -20117,8 +21546,11 @@
         <v>45502</v>
       </c>
       <c r="L471" s="9"/>
-    </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M471" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>664</v>
       </c>
@@ -20153,8 +21585,11 @@
         <v>45520</v>
       </c>
       <c r="L472" s="9"/>
-    </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M472" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>665</v>
       </c>
@@ -20189,8 +21624,11 @@
         <v>45502</v>
       </c>
       <c r="L473" s="9"/>
-    </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M473" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>666</v>
       </c>
@@ -20225,8 +21663,11 @@
         <v>45502</v>
       </c>
       <c r="L474" s="9"/>
-    </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M474" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>667</v>
       </c>
@@ -20261,8 +21702,11 @@
         <v>45502</v>
       </c>
       <c r="L475" s="9"/>
-    </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M475" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>668</v>
       </c>
@@ -20297,8 +21741,11 @@
         <v>45503</v>
       </c>
       <c r="L476" s="9"/>
-    </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M476" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>669</v>
       </c>
@@ -20333,8 +21780,11 @@
         <v>45502</v>
       </c>
       <c r="L477" s="9"/>
-    </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M477" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>670</v>
       </c>
@@ -20369,8 +21819,11 @@
         <v>45502</v>
       </c>
       <c r="L478" s="9"/>
-    </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M478" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>671</v>
       </c>
@@ -20405,8 +21858,11 @@
         <v>45502</v>
       </c>
       <c r="L479" s="9"/>
-    </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M479" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>672</v>
       </c>
@@ -20441,8 +21897,11 @@
         <v>45502</v>
       </c>
       <c r="L480" s="9"/>
-    </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M480" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>673</v>
       </c>
@@ -20477,8 +21936,11 @@
         <v>45502</v>
       </c>
       <c r="L481" s="9"/>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M481" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>674</v>
       </c>
@@ -20513,8 +21975,11 @@
         <v>45502</v>
       </c>
       <c r="L482" s="9"/>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M482" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>675</v>
       </c>
@@ -20549,8 +22014,11 @@
         <v>45502</v>
       </c>
       <c r="L483" s="9"/>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M483" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>676</v>
       </c>
@@ -20585,8 +22053,11 @@
         <v>45502</v>
       </c>
       <c r="L484" s="9"/>
-    </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M484" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>677</v>
       </c>
@@ -20621,8 +22092,11 @@
         <v>45502</v>
       </c>
       <c r="L485" s="9"/>
-    </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M485" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>678</v>
       </c>
@@ -20657,8 +22131,11 @@
         <v>45502</v>
       </c>
       <c r="L486" s="9"/>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M486" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>679</v>
       </c>
@@ -20693,8 +22170,11 @@
         <v>45503</v>
       </c>
       <c r="L487" s="9"/>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M487" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>680</v>
       </c>
@@ -20729,8 +22209,11 @@
         <v>45502</v>
       </c>
       <c r="L488" s="9"/>
-    </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M488" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>681</v>
       </c>
@@ -20765,8 +22248,11 @@
         <v>45502</v>
       </c>
       <c r="L489" s="9"/>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M489" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>682</v>
       </c>
@@ -20801,8 +22287,11 @@
         <v>45502</v>
       </c>
       <c r="L490" s="9"/>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M490" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>683</v>
       </c>
@@ -20837,8 +22326,11 @@
         <v>45502</v>
       </c>
       <c r="L491" s="9"/>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M491" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>684</v>
       </c>
@@ -20873,8 +22365,11 @@
         <v>45503</v>
       </c>
       <c r="L492" s="9"/>
-    </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M492" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>685</v>
       </c>
@@ -20909,8 +22404,11 @@
         <v>45502</v>
       </c>
       <c r="L493" s="9"/>
-    </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M493" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>686</v>
       </c>
@@ -20945,8 +22443,11 @@
         <v>45502</v>
       </c>
       <c r="L494" s="9"/>
-    </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M494" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>687</v>
       </c>
@@ -20981,8 +22482,11 @@
         <v>45502</v>
       </c>
       <c r="L495" s="9"/>
-    </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M495" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>688</v>
       </c>
@@ -21017,8 +22521,11 @@
         <v>45502</v>
       </c>
       <c r="L496" s="9"/>
-    </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M496" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>689</v>
       </c>
@@ -21053,8 +22560,11 @@
         <v>45502</v>
       </c>
       <c r="L497" s="9"/>
-    </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M497" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>690</v>
       </c>
@@ -21089,8 +22599,11 @@
         <v>45502</v>
       </c>
       <c r="L498" s="9"/>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M498" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>691</v>
       </c>
@@ -21125,8 +22638,11 @@
         <v>45502</v>
       </c>
       <c r="L499" s="9"/>
-    </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M499" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>692</v>
       </c>
@@ -21161,8 +22677,11 @@
         <v>45502</v>
       </c>
       <c r="L500" s="9"/>
-    </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M500" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>693</v>
       </c>
@@ -21197,8 +22716,11 @@
         <v>45502</v>
       </c>
       <c r="L501" s="9"/>
-    </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M501" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>694</v>
       </c>
@@ -21233,8 +22755,11 @@
         <v>45502</v>
       </c>
       <c r="L502" s="9"/>
-    </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M502" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>695</v>
       </c>
@@ -21269,8 +22794,11 @@
         <v>45502</v>
       </c>
       <c r="L503" s="9"/>
-    </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M503" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>696</v>
       </c>
@@ -21305,8 +22833,11 @@
         <v>45502</v>
       </c>
       <c r="L504" s="9"/>
-    </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M504" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>697</v>
       </c>
@@ -21341,8 +22872,11 @@
         <v>45502</v>
       </c>
       <c r="L505" s="9"/>
-    </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M505" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>698</v>
       </c>
@@ -21377,8 +22911,11 @@
         <v>45502</v>
       </c>
       <c r="L506" s="9"/>
-    </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M506" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>699</v>
       </c>
@@ -21413,8 +22950,11 @@
         <v>45502</v>
       </c>
       <c r="L507" s="9"/>
-    </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M507" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>700</v>
       </c>
@@ -21449,8 +22989,11 @@
         <v>45502</v>
       </c>
       <c r="L508" s="9"/>
-    </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M508" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>701</v>
       </c>
@@ -21485,8 +23028,11 @@
         <v>45502</v>
       </c>
       <c r="L509" s="9"/>
-    </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M509" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>702</v>
       </c>
@@ -21521,8 +23067,11 @@
         <v>45503</v>
       </c>
       <c r="L510" s="9"/>
-    </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M510" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>703</v>
       </c>
@@ -21557,8 +23106,11 @@
         <v>45502</v>
       </c>
       <c r="L511" s="9"/>
-    </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M511" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>704</v>
       </c>
@@ -21593,8 +23145,11 @@
         <v>45502</v>
       </c>
       <c r="L512" s="9"/>
-    </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M512" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>705</v>
       </c>
@@ -21629,8 +23184,11 @@
         <v>45502</v>
       </c>
       <c r="L513" s="9"/>
-    </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M513" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>706</v>
       </c>
@@ -21665,8 +23223,11 @@
         <v>45502</v>
       </c>
       <c r="L514" s="9"/>
-    </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M514" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>707</v>
       </c>
@@ -21701,8 +23262,11 @@
         <v>45502</v>
       </c>
       <c r="L515" s="9"/>
-    </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M515" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>708</v>
       </c>
@@ -21737,8 +23301,11 @@
         <v>45502</v>
       </c>
       <c r="L516" s="9"/>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M516" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>709</v>
       </c>
@@ -21773,8 +23340,11 @@
         <v>45503</v>
       </c>
       <c r="L517" s="9"/>
-    </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M517" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>710</v>
       </c>
@@ -21809,8 +23379,11 @@
         <v>45503</v>
       </c>
       <c r="L518" s="9"/>
-    </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M518" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>711</v>
       </c>
@@ -21845,8 +23418,11 @@
         <v>45503</v>
       </c>
       <c r="L519" s="9"/>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M519" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>712</v>
       </c>
@@ -21881,8 +23457,11 @@
         <v>45502</v>
       </c>
       <c r="L520" s="9"/>
-    </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M520" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>713</v>
       </c>
@@ -21917,8 +23496,11 @@
         <v>45502</v>
       </c>
       <c r="L521" s="9"/>
-    </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M521" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>714</v>
       </c>
@@ -21953,8 +23535,11 @@
         <v>45502</v>
       </c>
       <c r="L522" s="9"/>
-    </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M522" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>715</v>
       </c>
@@ -21989,8 +23574,11 @@
         <v>45502</v>
       </c>
       <c r="L523" s="9"/>
-    </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M523" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>716</v>
       </c>
@@ -22025,8 +23613,11 @@
         <v>45502</v>
       </c>
       <c r="L524" s="9"/>
-    </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M524" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>717</v>
       </c>
@@ -22061,8 +23652,11 @@
         <v>45502</v>
       </c>
       <c r="L525" s="9"/>
-    </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M525" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>718</v>
       </c>
@@ -22097,8 +23691,11 @@
         <v>45502</v>
       </c>
       <c r="L526" s="9"/>
-    </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M526" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>719</v>
       </c>
@@ -22133,8 +23730,11 @@
         <v>45502</v>
       </c>
       <c r="L527" s="9"/>
-    </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M527" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>720</v>
       </c>
@@ -22169,8 +23769,11 @@
         <v>45502</v>
       </c>
       <c r="L528" s="9"/>
-    </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M528" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>721</v>
       </c>
@@ -22205,8 +23808,11 @@
         <v>45502</v>
       </c>
       <c r="L529" s="9"/>
-    </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M529" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>722</v>
       </c>
@@ -22241,8 +23847,11 @@
         <v>45502</v>
       </c>
       <c r="L530" s="9"/>
-    </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M530" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>723</v>
       </c>
@@ -22277,8 +23886,11 @@
         <v>45502</v>
       </c>
       <c r="L531" s="9"/>
-    </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M531" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>724</v>
       </c>
@@ -22313,8 +23925,11 @@
         <v>45502</v>
       </c>
       <c r="L532" s="9"/>
-    </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M532" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>725</v>
       </c>
@@ -22349,8 +23964,11 @@
         <v>45502</v>
       </c>
       <c r="L533" s="9"/>
-    </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M533" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>726</v>
       </c>
@@ -22385,8 +24003,11 @@
         <v>45502</v>
       </c>
       <c r="L534" s="9"/>
-    </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M534" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>727</v>
       </c>
@@ -22421,8 +24042,11 @@
         <v>45503</v>
       </c>
       <c r="L535" s="9"/>
-    </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M535" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>728</v>
       </c>
@@ -22457,8 +24081,11 @@
         <v>45503</v>
       </c>
       <c r="L536" s="9"/>
-    </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M536" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>729</v>
       </c>
@@ -22493,8 +24120,11 @@
         <v>45504</v>
       </c>
       <c r="L537" s="9"/>
-    </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M537" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>730</v>
       </c>
@@ -22529,8 +24159,11 @@
         <v>45504</v>
       </c>
       <c r="L538" s="9"/>
-    </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M538" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>733</v>
       </c>
@@ -22565,8 +24198,11 @@
         <v>45518</v>
       </c>
       <c r="L539" s="9"/>
-    </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M539" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>736</v>
       </c>
@@ -22601,8 +24237,11 @@
         <v>45506</v>
       </c>
       <c r="L540" s="9"/>
-    </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M540" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>739</v>
       </c>
@@ -22637,8 +24276,11 @@
         <v>45504</v>
       </c>
       <c r="L541" s="9"/>
-    </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M541" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>740</v>
       </c>
@@ -22673,8 +24315,11 @@
         <v>45504</v>
       </c>
       <c r="L542" s="9"/>
-    </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M542" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>741</v>
       </c>
@@ -22709,8 +24354,11 @@
         <v>45504</v>
       </c>
       <c r="L543" s="9"/>
-    </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M543" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>742</v>
       </c>
@@ -22745,8 +24393,11 @@
         <v>45504</v>
       </c>
       <c r="L544" s="9"/>
-    </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M544" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>743</v>
       </c>
@@ -22781,8 +24432,11 @@
         <v>45504</v>
       </c>
       <c r="L545" s="9"/>
-    </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M545" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>744</v>
       </c>
@@ -22817,8 +24471,11 @@
         <v>45504</v>
       </c>
       <c r="L546" s="9"/>
-    </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M546" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>745</v>
       </c>
@@ -22853,8 +24510,11 @@
         <v>45504</v>
       </c>
       <c r="L547" s="9"/>
-    </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M547" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>746</v>
       </c>
@@ -22889,8 +24549,11 @@
         <v>45506</v>
       </c>
       <c r="L548" s="9"/>
-    </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M548" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>747</v>
       </c>
@@ -22925,8 +24588,11 @@
         <v>45506</v>
       </c>
       <c r="L549" s="9"/>
-    </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M549" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>748</v>
       </c>
@@ -22961,8 +24627,11 @@
         <v>45506</v>
       </c>
       <c r="L550" s="9"/>
-    </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M550" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>749</v>
       </c>
@@ -22997,8 +24666,11 @@
         <v>45506</v>
       </c>
       <c r="L551" s="9"/>
-    </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M551" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>750</v>
       </c>
@@ -23033,8 +24705,11 @@
         <v>45506</v>
       </c>
       <c r="L552" s="9"/>
-    </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M552" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>753</v>
       </c>
@@ -23069,8 +24744,11 @@
         <v>45506</v>
       </c>
       <c r="L553" s="9"/>
-    </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M553" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>754</v>
       </c>
@@ -23105,8 +24783,11 @@
         <v>45511</v>
       </c>
       <c r="L554" s="9"/>
-    </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M554" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>755</v>
       </c>
@@ -23141,8 +24822,11 @@
         <v>45511</v>
       </c>
       <c r="L555" s="9"/>
-    </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M555" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>756</v>
       </c>
@@ -23177,8 +24861,11 @@
         <v>45511</v>
       </c>
       <c r="L556" s="9"/>
-    </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M556" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>757</v>
       </c>
@@ -23213,8 +24900,11 @@
         <v>45511</v>
       </c>
       <c r="L557" s="9"/>
-    </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M557" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>758</v>
       </c>
@@ -23249,8 +24939,11 @@
         <v>45511</v>
       </c>
       <c r="L558" s="9"/>
-    </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M558" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>759</v>
       </c>
@@ -23285,8 +24978,11 @@
         <v>45511</v>
       </c>
       <c r="L559" s="9"/>
-    </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M559" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>760</v>
       </c>
@@ -23321,8 +25017,11 @@
         <v>45511</v>
       </c>
       <c r="L560" s="9"/>
-    </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M560" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>761</v>
       </c>
@@ -23357,8 +25056,11 @@
         <v>45511</v>
       </c>
       <c r="L561" s="9"/>
-    </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M561" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>762</v>
       </c>
@@ -23393,8 +25095,11 @@
         <v>45511</v>
       </c>
       <c r="L562" s="9"/>
-    </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M562" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>763</v>
       </c>
@@ -23429,8 +25134,11 @@
         <v>45511</v>
       </c>
       <c r="L563" s="9"/>
-    </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M563" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>764</v>
       </c>
@@ -23465,8 +25173,11 @@
         <v>45513</v>
       </c>
       <c r="L564" s="9"/>
-    </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M564" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>767</v>
       </c>
@@ -23501,8 +25212,11 @@
         <v>45520</v>
       </c>
       <c r="L565" s="9"/>
-    </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M565" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>770</v>
       </c>
@@ -23537,8 +25251,11 @@
         <v>45516</v>
       </c>
       <c r="L566" s="9"/>
-    </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M566" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>771</v>
       </c>
@@ -23573,8 +25290,11 @@
         <v>45514</v>
       </c>
       <c r="L567" s="9"/>
-    </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M567" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>772</v>
       </c>
@@ -23609,8 +25329,11 @@
         <v>45514</v>
       </c>
       <c r="L568" s="9"/>
-    </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M568" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>773</v>
       </c>
@@ -23645,8 +25368,11 @@
         <v>45514</v>
       </c>
       <c r="L569" s="9"/>
-    </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M569" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>774</v>
       </c>
@@ -23681,8 +25407,11 @@
         <v>45514</v>
       </c>
       <c r="L570" s="9"/>
-    </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M570" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>775</v>
       </c>
@@ -23717,8 +25446,11 @@
         <v>45514</v>
       </c>
       <c r="L571" s="9"/>
-    </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M571" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>776</v>
       </c>
@@ -23753,8 +25485,11 @@
         <v>45516</v>
       </c>
       <c r="L572" s="9"/>
-    </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M572" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>777</v>
       </c>
@@ -23789,8 +25524,11 @@
         <v>45516</v>
       </c>
       <c r="L573" s="9"/>
-    </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M573" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>778</v>
       </c>
@@ -23825,8 +25563,11 @@
         <v>45516</v>
       </c>
       <c r="L574" s="9"/>
-    </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M574" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>779</v>
       </c>
@@ -23861,8 +25602,11 @@
         <v>45516</v>
       </c>
       <c r="L575" s="9"/>
-    </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M575" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>780</v>
       </c>
@@ -23897,8 +25641,11 @@
         <v>45516</v>
       </c>
       <c r="L576" s="9"/>
-    </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M576" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>781</v>
       </c>
@@ -23933,8 +25680,11 @@
         <v>45516</v>
       </c>
       <c r="L577" s="9"/>
-    </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M577" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>782</v>
       </c>
@@ -23969,8 +25719,11 @@
         <v>45520</v>
       </c>
       <c r="L578" s="9"/>
-    </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M578" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>783</v>
       </c>
@@ -24005,8 +25758,11 @@
         <v>45519</v>
       </c>
       <c r="L579" s="9"/>
-    </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M579" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>784</v>
       </c>
@@ -24041,8 +25797,11 @@
         <v>45520</v>
       </c>
       <c r="L580" s="9"/>
-    </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M580" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>787</v>
       </c>
@@ -24077,8 +25836,11 @@
         <v>45519</v>
       </c>
       <c r="L581" s="9"/>
-    </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M581" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>788</v>
       </c>
@@ -24113,8 +25875,11 @@
         <v>45519</v>
       </c>
       <c r="L582" s="9"/>
-    </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M582" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>789</v>
       </c>
@@ -24149,8 +25914,11 @@
         <v>45520</v>
       </c>
       <c r="L583" s="9"/>
-    </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M583" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>790</v>
       </c>
@@ -24185,8 +25953,11 @@
         <v>45520</v>
       </c>
       <c r="L584" s="9"/>
-    </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M584" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>791</v>
       </c>
@@ -24221,8 +25992,11 @@
         <v>45520</v>
       </c>
       <c r="L585" s="9"/>
-    </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M585" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>794</v>
       </c>
@@ -24257,8 +26031,11 @@
         <v>45520</v>
       </c>
       <c r="L586" s="9"/>
-    </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M586" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>795</v>
       </c>
@@ -24293,8 +26070,11 @@
         <v>45520</v>
       </c>
       <c r="L587" s="9"/>
-    </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M587" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>796</v>
       </c>
@@ -24329,8 +26109,11 @@
         <v>45520</v>
       </c>
       <c r="L588" s="9"/>
-    </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M588" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>797</v>
       </c>
@@ -24365,8 +26148,11 @@
         <v>45520</v>
       </c>
       <c r="L589" s="9"/>
-    </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M589" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>798</v>
       </c>
@@ -24401,8 +26187,11 @@
         <v>45519</v>
       </c>
       <c r="L590" s="9"/>
-    </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M590" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>799</v>
       </c>
@@ -24437,8 +26226,11 @@
         <v>45519</v>
       </c>
       <c r="L591" s="9"/>
-    </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M591" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>800</v>
       </c>
@@ -24473,8 +26265,11 @@
         <v>45520</v>
       </c>
       <c r="L592" s="9"/>
-    </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M592" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>801</v>
       </c>
@@ -24509,8 +26304,11 @@
         <v>45520</v>
       </c>
       <c r="L593" s="9"/>
-    </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M593" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>802</v>
       </c>
@@ -24545,8 +26343,11 @@
         <v>45520</v>
       </c>
       <c r="L594" s="9"/>
-    </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M594" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>803</v>
       </c>
@@ -24581,8 +26382,11 @@
         <v>45519</v>
       </c>
       <c r="L595" s="9"/>
-    </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M595" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>804</v>
       </c>
@@ -24617,8 +26421,11 @@
         <v>45519</v>
       </c>
       <c r="L596" s="9"/>
-    </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M596" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>805</v>
       </c>
@@ -24653,8 +26460,11 @@
         <v>45519</v>
       </c>
       <c r="L597" s="9"/>
-    </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M597" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>806</v>
       </c>
@@ -24689,8 +26499,11 @@
         <v>45520</v>
       </c>
       <c r="L598" s="9"/>
-    </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M598" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>807</v>
       </c>
@@ -24725,8 +26538,11 @@
         <v>45181</v>
       </c>
       <c r="L599" s="9"/>
-    </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M599" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>810</v>
       </c>
@@ -24761,8 +26577,11 @@
         <v>45504</v>
       </c>
       <c r="L600" s="9"/>
-    </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M600" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>811</v>
       </c>
@@ -24797,8 +26616,11 @@
         <v>45253</v>
       </c>
       <c r="L601" s="9"/>
-    </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M601" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>812</v>
       </c>
@@ -24833,8 +26655,11 @@
         <v>45491</v>
       </c>
       <c r="L602" s="9"/>
-    </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M602" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>813</v>
       </c>
@@ -24869,8 +26694,11 @@
         <v>45366</v>
       </c>
       <c r="L603" s="9"/>
-    </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M603" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>814</v>
       </c>
@@ -24905,8 +26733,11 @@
         <v>45505</v>
       </c>
       <c r="L604" s="9"/>
-    </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M604" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>817</v>
       </c>
@@ -24941,8 +26772,11 @@
         <v>45512</v>
       </c>
       <c r="L605" s="9"/>
-    </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M605" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>818</v>
       </c>
@@ -24977,8 +26811,11 @@
         <v>45518</v>
       </c>
       <c r="L606" s="9"/>
-    </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M606" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>819</v>
       </c>
@@ -25013,8 +26850,11 @@
         <v>45367</v>
       </c>
       <c r="L607" s="9"/>
-    </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M607" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>820</v>
       </c>
@@ -25049,8 +26889,11 @@
         <v>45496</v>
       </c>
       <c r="L608" s="9"/>
-    </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M608" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>821</v>
       </c>
@@ -25085,8 +26928,11 @@
         <v>45518</v>
       </c>
       <c r="L609" s="9"/>
-    </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M609" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>822</v>
       </c>
@@ -25121,8 +26967,11 @@
         <v>45439</v>
       </c>
       <c r="L610" s="9"/>
-    </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M610" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>823</v>
       </c>
@@ -25157,8 +27006,11 @@
         <v>45514</v>
       </c>
       <c r="L611" s="9"/>
-    </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M611" s="20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>824</v>
       </c>
@@ -25193,8 +27045,11 @@
         <v>45519</v>
       </c>
       <c r="L612" s="9"/>
-    </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M612" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>825</v>
       </c>
@@ -25229,8 +27084,11 @@
         <v>45133</v>
       </c>
       <c r="L613" s="9"/>
-    </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M613" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>829</v>
       </c>
@@ -25265,8 +27123,11 @@
         <v>45133</v>
       </c>
       <c r="L614" s="9"/>
-    </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M614" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>830</v>
       </c>
@@ -25301,8 +27162,11 @@
         <v>45134</v>
       </c>
       <c r="L615" s="9"/>
-    </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M615" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>833</v>
       </c>
@@ -25337,8 +27201,11 @@
         <v>45134</v>
       </c>
       <c r="L616" s="9"/>
-    </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M616" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>834</v>
       </c>
@@ -25371,8 +27238,11 @@
         <v>45533</v>
       </c>
       <c r="L617" s="9"/>
-    </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M617" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>836</v>
       </c>
@@ -25405,8 +27275,11 @@
         <v>45533</v>
       </c>
       <c r="L618" s="9"/>
-    </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M618" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>837</v>
       </c>
@@ -25439,8 +27312,11 @@
         <v>45533</v>
       </c>
       <c r="L619" s="9"/>
-    </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M619" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>838</v>
       </c>
@@ -25473,8 +27349,11 @@
         <v>45533</v>
       </c>
       <c r="L620" s="9"/>
-    </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M620" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>839</v>
       </c>
@@ -25507,8 +27386,11 @@
         <v>45533</v>
       </c>
       <c r="L621" s="9"/>
-    </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M621" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>840</v>
       </c>
@@ -25541,8 +27423,11 @@
         <v>45533</v>
       </c>
       <c r="L622" s="9"/>
-    </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M622" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>841</v>
       </c>
@@ -25575,8 +27460,11 @@
         <v>45533</v>
       </c>
       <c r="L623" s="9"/>
-    </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M623" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>842</v>
       </c>
@@ -25609,8 +27497,11 @@
         <v>45533</v>
       </c>
       <c r="L624" s="9"/>
-    </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M624" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>843</v>
       </c>
@@ -25643,8 +27534,11 @@
         <v>45533</v>
       </c>
       <c r="L625" s="9"/>
-    </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M625" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>844</v>
       </c>
@@ -25677,8 +27571,11 @@
         <v>45533</v>
       </c>
       <c r="L626" s="9"/>
-    </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M626" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>845</v>
       </c>
@@ -25711,8 +27608,11 @@
         <v>45533</v>
       </c>
       <c r="L627" s="9"/>
-    </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M627" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>846</v>
       </c>
@@ -25745,8 +27645,11 @@
         <v>45533</v>
       </c>
       <c r="L628" s="9"/>
-    </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M628" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>847</v>
       </c>
@@ -25779,8 +27682,11 @@
         <v>45533</v>
       </c>
       <c r="L629" s="9"/>
-    </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M629" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>848</v>
       </c>
@@ -25813,8 +27719,11 @@
         <v>45533</v>
       </c>
       <c r="L630" s="9"/>
-    </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M630" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>849</v>
       </c>
@@ -25847,8 +27756,11 @@
         <v>45533</v>
       </c>
       <c r="L631" s="9"/>
-    </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M631" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>850</v>
       </c>
@@ -25881,8 +27793,11 @@
         <v>45533</v>
       </c>
       <c r="L632" s="9"/>
-    </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M632" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>851</v>
       </c>
@@ -25915,8 +27830,11 @@
         <v>45533</v>
       </c>
       <c r="L633" s="9"/>
-    </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M633" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>852</v>
       </c>
@@ -25949,8 +27867,11 @@
         <v>45533</v>
       </c>
       <c r="L634" s="9"/>
-    </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M634" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>853</v>
       </c>
@@ -25983,8 +27904,11 @@
         <v>45533</v>
       </c>
       <c r="L635" s="9"/>
-    </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M635" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>854</v>
       </c>
@@ -26017,8 +27941,11 @@
         <v>45533</v>
       </c>
       <c r="L636" s="9"/>
-    </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M636" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>855</v>
       </c>
@@ -26051,8 +27978,11 @@
         <v>45533</v>
       </c>
       <c r="L637" s="9"/>
-    </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M637" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>856</v>
       </c>
@@ -26085,8 +28015,11 @@
         <v>45533</v>
       </c>
       <c r="L638" s="9"/>
-    </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M638" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>857</v>
       </c>
@@ -26119,8 +28052,11 @@
         <v>45533</v>
       </c>
       <c r="L639" s="9"/>
-    </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M639" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>858</v>
       </c>
@@ -26153,8 +28089,11 @@
         <v>45533</v>
       </c>
       <c r="L640" s="9"/>
-    </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M640" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>859</v>
       </c>
@@ -26187,8 +28126,11 @@
         <v>45533</v>
       </c>
       <c r="L641" s="9"/>
-    </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M641" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A642" s="14" t="s">
         <v>860</v>
       </c>
@@ -26223,8 +28165,11 @@
         <v>45514</v>
       </c>
       <c r="L642" s="9"/>
-    </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M642" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A643" s="14" t="s">
         <v>861</v>
       </c>
@@ -26259,8 +28204,11 @@
         <v>45514</v>
       </c>
       <c r="L643" s="9"/>
-    </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M643" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>862</v>
       </c>
@@ -26295,8 +28243,11 @@
         <v>45511</v>
       </c>
       <c r="L644" s="9"/>
-    </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M644" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>863</v>
       </c>
@@ -26331,8 +28282,11 @@
         <v>45511</v>
       </c>
       <c r="L645" s="9"/>
-    </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M645" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>864</v>
       </c>
@@ -26367,8 +28321,11 @@
         <v>45511</v>
       </c>
       <c r="L646" s="9"/>
-    </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M646" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>865</v>
       </c>
@@ -26403,8 +28360,11 @@
         <v>45511</v>
       </c>
       <c r="L647" s="9"/>
-    </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M647" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>866</v>
       </c>
@@ -26439,8 +28399,12 @@
         <v>45511</v>
       </c>
       <c r="L648" s="9"/>
+      <c r="M648" t="s">
+        <v>869</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M648" xr:uid="{851CBE1B-89D3-4DC8-9350-D5962015691B}"/>
   <conditionalFormatting sqref="A1:A648">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/scr/data/20240830_mc_batch3.xlsx
+++ b/scr/data/20240830_mc_batch3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\scr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66083077-9CFA-42E3-942A-AB48A4C9F3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922B464E-FDDA-4056-A9FF-878A02002C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-15" windowWidth="38640" windowHeight="15990" xr2:uid="{70DB6F09-95D2-4EAD-B1A1-D40E7D8E475C}"/>
   </bookViews>
@@ -2661,12 +2661,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -2783,7 +2782,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2823,9 +2822,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2839,6 +2835,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3167,7 +3170,7 @@
   <dimension ref="A1:M648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M107" sqref="M107"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3178,7 +3181,8 @@
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" customWidth="1"/>
     <col min="13" max="13" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3213,7 +3217,7 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="20" t="s">
         <v>867</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -3254,7 +3258,7 @@
       <c r="J2" s="8">
         <v>8060</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="21">
         <v>44644</v>
       </c>
       <c r="L2" s="9"/>
@@ -3293,7 +3297,7 @@
       <c r="J3" s="8">
         <v>5185</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="21">
         <v>44643</v>
       </c>
       <c r="L3" s="9"/>
@@ -3332,7 +3336,7 @@
       <c r="J4" s="8">
         <v>9785</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="21">
         <v>44643</v>
       </c>
       <c r="L4" s="9"/>
@@ -3371,7 +3375,7 @@
       <c r="J5" s="8">
         <v>6830</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="21">
         <v>44649</v>
       </c>
       <c r="L5" s="9"/>
@@ -3410,7 +3414,7 @@
       <c r="J6" s="8">
         <v>5826</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="21">
         <v>44649</v>
       </c>
       <c r="L6" s="9"/>
@@ -3449,7 +3453,7 @@
       <c r="J7" s="8">
         <v>8050</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="21">
         <v>45054</v>
       </c>
       <c r="L7" s="9"/>
@@ -3488,7 +3492,7 @@
       <c r="J8" s="8">
         <v>8024</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="21">
         <v>44644</v>
       </c>
       <c r="L8" s="9"/>
@@ -3527,7 +3531,7 @@
       <c r="J9" s="10">
         <v>8515</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="21">
         <v>45071</v>
       </c>
       <c r="L9" s="9"/>
@@ -3566,7 +3570,7 @@
       <c r="J10" s="10">
         <v>5784</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="21">
         <v>44649</v>
       </c>
       <c r="L10" s="9"/>
@@ -3605,7 +3609,7 @@
       <c r="J11" s="10">
         <v>3490</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="21">
         <v>45119</v>
       </c>
       <c r="L11" s="9"/>
@@ -3644,7 +3648,7 @@
       <c r="J12" s="10">
         <v>8378</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="21">
         <v>44643</v>
       </c>
       <c r="L12" s="9"/>
@@ -3683,7 +3687,7 @@
       <c r="J13" s="10">
         <v>3150</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="21">
         <v>44644</v>
       </c>
       <c r="L13" s="9"/>
@@ -3722,7 +3726,7 @@
       <c r="J14" s="10">
         <v>9160</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="21">
         <v>45204</v>
       </c>
       <c r="L14" s="9"/>
@@ -3761,7 +3765,7 @@
       <c r="J15" s="10">
         <v>9260</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="21">
         <v>45205</v>
       </c>
       <c r="L15" s="9"/>
@@ -3800,7 +3804,7 @@
       <c r="J16" s="10">
         <v>6620</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="21">
         <v>45237</v>
       </c>
       <c r="L16" s="9"/>
@@ -3839,7 +3843,7 @@
       <c r="J17" s="10">
         <v>6770</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="21">
         <v>45237</v>
       </c>
       <c r="L17" s="9"/>
@@ -3878,7 +3882,7 @@
       <c r="J18" s="10">
         <v>4372</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="21">
         <v>45236</v>
       </c>
       <c r="L18" s="9"/>
@@ -3917,7 +3921,7 @@
       <c r="J19" s="10">
         <v>2522</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="21">
         <v>43777</v>
       </c>
       <c r="L19" s="9"/>
@@ -3956,11 +3960,11 @@
       <c r="J20" s="10">
         <v>1200</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="21">
         <v>45236</v>
       </c>
       <c r="L20" s="9"/>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -3995,7 +3999,7 @@
       <c r="J21" s="10">
         <v>7430</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="21">
         <v>45274</v>
       </c>
       <c r="L21" s="9"/>
@@ -4034,7 +4038,7 @@
       <c r="J22" s="10">
         <v>7100</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="21">
         <v>45274</v>
       </c>
       <c r="L22" s="9"/>
@@ -4073,7 +4077,7 @@
       <c r="J23" s="10">
         <v>9890</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="21">
         <v>45295</v>
       </c>
       <c r="L23" s="9"/>
@@ -4112,7 +4116,7 @@
       <c r="J24" s="10">
         <v>5624</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="21">
         <v>45177</v>
       </c>
       <c r="L24" s="9"/>
@@ -4151,11 +4155,11 @@
       <c r="J25" s="10">
         <v>4520</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="21">
         <v>45205</v>
       </c>
       <c r="L25" s="9"/>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -4190,7 +4194,7 @@
       <c r="J26" s="10">
         <v>8574</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="21">
         <v>44643</v>
       </c>
       <c r="L26" s="9"/>
@@ -4229,7 +4233,7 @@
       <c r="J27" s="10">
         <v>7470</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="21">
         <v>45441</v>
       </c>
       <c r="L27" s="9"/>
@@ -4268,7 +4272,7 @@
       <c r="J28" s="10">
         <v>10700</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="21">
         <v>45455</v>
       </c>
       <c r="L28" s="9"/>
@@ -4307,7 +4311,7 @@
       <c r="J29" s="10">
         <v>7260</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="21">
         <v>45446</v>
       </c>
       <c r="L29" s="9"/>
@@ -4346,7 +4350,7 @@
       <c r="J30" s="10">
         <v>8160</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="21">
         <v>45447</v>
       </c>
       <c r="L30" s="9"/>
@@ -4385,7 +4389,7 @@
       <c r="J31" s="10">
         <v>8160</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="21">
         <v>45447</v>
       </c>
       <c r="L31" s="9"/>
@@ -4424,11 +4428,11 @@
       <c r="J32" s="10">
         <v>5820</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="21">
         <v>45452</v>
       </c>
       <c r="L32" s="9"/>
-      <c r="M32" s="20" t="s">
+      <c r="M32" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -4463,7 +4467,7 @@
       <c r="J33" s="10">
         <v>6595</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="21">
         <v>45460</v>
       </c>
       <c r="L33" s="9"/>
@@ -4502,7 +4506,7 @@
       <c r="J34" s="10">
         <v>7900</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="21">
         <v>45460</v>
       </c>
       <c r="L34" s="9"/>
@@ -4541,7 +4545,7 @@
       <c r="J35" s="10">
         <v>7980</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="21">
         <v>45460</v>
       </c>
       <c r="L35" s="9"/>
@@ -4580,7 +4584,7 @@
       <c r="J36" s="10">
         <v>7590</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="21">
         <v>45460</v>
       </c>
       <c r="L36" s="9"/>
@@ -4619,7 +4623,7 @@
       <c r="J37" s="10">
         <v>7740</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37" s="21">
         <v>45460</v>
       </c>
       <c r="L37" s="9"/>
@@ -4658,11 +4662,11 @@
       <c r="J38" s="10">
         <v>6098</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="21">
         <v>45366</v>
       </c>
       <c r="L38" s="9"/>
-      <c r="M38" s="20" t="s">
+      <c r="M38" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -4697,7 +4701,7 @@
       <c r="J39" s="10">
         <v>9610</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="21">
         <v>45474</v>
       </c>
       <c r="L39" s="9"/>
@@ -4736,7 +4740,7 @@
       <c r="J40" s="10">
         <v>9430</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="21">
         <v>45475</v>
       </c>
       <c r="L40" s="9"/>
@@ -4775,7 +4779,7 @@
       <c r="J41" s="10">
         <v>9575</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="21">
         <v>45474</v>
       </c>
       <c r="L41" s="9"/>
@@ -4814,7 +4818,7 @@
       <c r="J42" s="10">
         <v>8121</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="21">
         <v>45456</v>
       </c>
       <c r="L42" s="9"/>
@@ -4853,7 +4857,7 @@
       <c r="J43" s="10">
         <v>6560</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K43" s="21">
         <v>45474</v>
       </c>
       <c r="L43" s="9"/>
@@ -4892,7 +4896,7 @@
       <c r="J44" s="10">
         <v>7040</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="21">
         <v>45475</v>
       </c>
       <c r="L44" s="9"/>
@@ -4931,7 +4935,7 @@
       <c r="J45" s="10">
         <v>7030</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="21">
         <v>45475</v>
       </c>
       <c r="L45" s="9"/>
@@ -4970,7 +4974,7 @@
       <c r="J46" s="10">
         <v>6300</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K46" s="21">
         <v>45474</v>
       </c>
       <c r="L46" s="9"/>
@@ -5009,7 +5013,7 @@
       <c r="J47" s="10">
         <v>6830</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="21">
         <v>45475</v>
       </c>
       <c r="L47" s="9"/>
@@ -5048,7 +5052,7 @@
       <c r="J48" s="10">
         <v>6830</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K48" s="21">
         <v>45474</v>
       </c>
       <c r="L48" s="9"/>
@@ -5087,7 +5091,7 @@
       <c r="J49" s="10">
         <v>6880</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K49" s="21">
         <v>45475</v>
       </c>
       <c r="L49" s="9"/>
@@ -5126,7 +5130,7 @@
       <c r="J50" s="10">
         <v>6590</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K50" s="21">
         <v>45476</v>
       </c>
       <c r="L50" s="9"/>
@@ -5165,7 +5169,7 @@
       <c r="J51" s="10">
         <v>6590</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="21">
         <v>45475</v>
       </c>
       <c r="L51" s="9"/>
@@ -5204,7 +5208,7 @@
       <c r="J52" s="10">
         <v>6350</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="21">
         <v>45476</v>
       </c>
       <c r="L52" s="9"/>
@@ -5243,7 +5247,7 @@
       <c r="J53" s="10">
         <v>7130</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K53" s="21">
         <v>45477</v>
       </c>
       <c r="L53" s="9"/>
@@ -5282,7 +5286,7 @@
       <c r="J54" s="12">
         <v>6970</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K54" s="21">
         <v>45475</v>
       </c>
       <c r="M54" t="s">
@@ -5320,7 +5324,7 @@
       <c r="J55" s="10">
         <v>6350</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K55" s="21">
         <v>45476</v>
       </c>
       <c r="L55" s="9"/>
@@ -5359,7 +5363,7 @@
       <c r="J56" s="12">
         <v>6830</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K56" s="21">
         <v>45477</v>
       </c>
       <c r="M56" t="s">
@@ -5397,7 +5401,7 @@
       <c r="J57" s="12">
         <v>6850</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K57" s="21">
         <v>45476</v>
       </c>
       <c r="M57" t="s">
@@ -5435,7 +5439,7 @@
       <c r="J58" s="10">
         <v>6380</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K58" s="21">
         <v>45475</v>
       </c>
       <c r="L58" s="9"/>
@@ -5474,7 +5478,7 @@
       <c r="J59" s="10">
         <v>9210</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K59" s="21">
         <v>45476</v>
       </c>
       <c r="L59" s="9"/>
@@ -5513,7 +5517,7 @@
       <c r="J60" s="10">
         <v>6340</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K60" s="21">
         <v>45475</v>
       </c>
       <c r="L60" s="9"/>
@@ -5552,7 +5556,7 @@
       <c r="J61" s="10">
         <v>6780</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K61" s="21">
         <v>45476</v>
       </c>
       <c r="L61" s="9"/>
@@ -5591,7 +5595,7 @@
       <c r="J62" s="10">
         <v>6770</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K62" s="21">
         <v>45475</v>
       </c>
       <c r="L62" s="9"/>
@@ -5630,7 +5634,7 @@
       <c r="J63" s="10">
         <v>6730</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K63" s="21">
         <v>45475</v>
       </c>
       <c r="L63" s="9"/>
@@ -5669,7 +5673,7 @@
       <c r="J64" s="10">
         <v>6410</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K64" s="21">
         <v>45475</v>
       </c>
       <c r="L64" s="9"/>
@@ -5708,7 +5712,7 @@
       <c r="J65" s="10">
         <v>6660</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K65" s="21">
         <v>45475</v>
       </c>
       <c r="L65" s="9"/>
@@ -5747,7 +5751,7 @@
       <c r="J66" s="10">
         <v>6530</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="21">
         <v>45475</v>
       </c>
       <c r="L66" s="9"/>
@@ -5786,7 +5790,7 @@
       <c r="J67" s="10">
         <v>5288</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K67" s="21">
         <v>45435</v>
       </c>
       <c r="L67" s="9"/>
@@ -5825,7 +5829,7 @@
       <c r="J68" s="10">
         <v>3508</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K68" s="21">
         <v>45455</v>
       </c>
       <c r="L68" s="9"/>
@@ -5864,7 +5868,7 @@
       <c r="J69" s="10">
         <v>3040</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K69" s="21">
         <v>45205</v>
       </c>
       <c r="L69" s="9"/>
@@ -5903,7 +5907,7 @@
       <c r="J70" s="10">
         <v>5282</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K70" s="21">
         <v>45460</v>
       </c>
       <c r="L70" s="9"/>
@@ -5942,7 +5946,7 @@
       <c r="J71" s="10">
         <v>4020</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K71" s="21">
         <v>45482</v>
       </c>
       <c r="L71" s="9"/>
@@ -5981,7 +5985,7 @@
       <c r="J72" s="10">
         <v>3236</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K72" s="21">
         <v>45307</v>
       </c>
       <c r="L72" s="9"/>
@@ -6020,11 +6024,11 @@
       <c r="J73" s="10">
         <v>2880</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K73" s="21">
         <v>45476</v>
       </c>
       <c r="L73" s="9"/>
-      <c r="M73" s="20" t="s">
+      <c r="M73" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -6059,11 +6063,11 @@
       <c r="J74" s="10">
         <v>5334</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K74" s="21">
         <v>45138</v>
       </c>
       <c r="L74" s="9"/>
-      <c r="M74" s="20" t="s">
+      <c r="M74" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -6098,7 +6102,7 @@
       <c r="J75" s="10">
         <v>11245</v>
       </c>
-      <c r="K75" s="15">
+      <c r="K75" s="21">
         <v>45498</v>
       </c>
       <c r="L75" s="9"/>
@@ -6137,7 +6141,7 @@
       <c r="J76" s="10">
         <v>10630</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K76" s="21">
         <v>45498</v>
       </c>
       <c r="L76" s="9"/>
@@ -6176,7 +6180,7 @@
       <c r="J77" s="10">
         <v>11210</v>
       </c>
-      <c r="K77" s="15">
+      <c r="K77" s="21">
         <v>45502</v>
       </c>
       <c r="L77" s="9"/>
@@ -6215,7 +6219,7 @@
       <c r="J78" s="10">
         <v>11045</v>
       </c>
-      <c r="K78" s="15">
+      <c r="K78" s="21">
         <v>45502</v>
       </c>
       <c r="L78" s="9"/>
@@ -6254,7 +6258,7 @@
       <c r="J79" s="10">
         <v>11245</v>
       </c>
-      <c r="K79" s="15">
+      <c r="K79" s="21">
         <v>45502</v>
       </c>
       <c r="L79" s="9"/>
@@ -6293,7 +6297,7 @@
       <c r="J80" s="10">
         <v>11010</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K80" s="21">
         <v>45502</v>
       </c>
       <c r="L80" s="9"/>
@@ -6332,7 +6336,7 @@
       <c r="J81" s="10">
         <v>11700</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K81" s="21">
         <v>45502</v>
       </c>
       <c r="L81" s="9"/>
@@ -6371,7 +6375,7 @@
       <c r="J82" s="10">
         <v>11165</v>
       </c>
-      <c r="K82" s="15">
+      <c r="K82" s="21">
         <v>45502</v>
       </c>
       <c r="L82" s="9"/>
@@ -6410,7 +6414,7 @@
       <c r="J83" s="10">
         <v>9810</v>
       </c>
-      <c r="K83" s="15">
+      <c r="K83" s="21">
         <v>45497</v>
       </c>
       <c r="L83" s="9"/>
@@ -6449,7 +6453,7 @@
       <c r="J84" s="13">
         <v>7130</v>
       </c>
-      <c r="K84" s="15">
+      <c r="K84" s="21">
         <v>45497</v>
       </c>
       <c r="L84" s="9"/>
@@ -6488,7 +6492,7 @@
       <c r="J85" s="10">
         <v>7215</v>
       </c>
-      <c r="K85" s="15">
+      <c r="K85" s="21">
         <v>45497</v>
       </c>
       <c r="L85" s="9"/>
@@ -6527,7 +6531,7 @@
       <c r="J86" s="13">
         <v>7400</v>
       </c>
-      <c r="K86" s="15">
+      <c r="K86" s="21">
         <v>45497</v>
       </c>
       <c r="L86" s="9"/>
@@ -6566,7 +6570,7 @@
       <c r="J87" s="13">
         <v>6960</v>
       </c>
-      <c r="K87" s="15">
+      <c r="K87" s="21">
         <v>45499</v>
       </c>
       <c r="L87" s="9"/>
@@ -6605,7 +6609,7 @@
       <c r="J88" s="13">
         <v>7210</v>
       </c>
-      <c r="K88" s="15">
+      <c r="K88" s="21">
         <v>45500</v>
       </c>
       <c r="L88" s="9"/>
@@ -6644,7 +6648,7 @@
       <c r="J89" s="10">
         <v>6920</v>
       </c>
-      <c r="K89" s="15">
+      <c r="K89" s="21">
         <v>45500</v>
       </c>
       <c r="L89" s="9"/>
@@ -6683,7 +6687,7 @@
       <c r="J90" s="10">
         <v>7530</v>
       </c>
-      <c r="K90" s="15">
+      <c r="K90" s="21">
         <v>45498</v>
       </c>
       <c r="L90" s="9"/>
@@ -6722,7 +6726,7 @@
       <c r="J91" s="10">
         <v>6620</v>
       </c>
-      <c r="K91" s="15">
+      <c r="K91" s="21">
         <v>45498</v>
       </c>
       <c r="L91" s="9"/>
@@ -6761,7 +6765,7 @@
       <c r="J92" s="10">
         <v>7510</v>
       </c>
-      <c r="K92" s="15">
+      <c r="K92" s="21">
         <v>45500</v>
       </c>
       <c r="L92" s="9"/>
@@ -6800,7 +6804,7 @@
       <c r="J93" s="10">
         <v>9050</v>
       </c>
-      <c r="K93" s="15">
+      <c r="K93" s="21">
         <v>45498</v>
       </c>
       <c r="L93" s="9"/>
@@ -6839,7 +6843,7 @@
       <c r="J94" s="10">
         <v>9540</v>
       </c>
-      <c r="K94" s="15">
+      <c r="K94" s="21">
         <v>45498</v>
       </c>
       <c r="L94" s="9"/>
@@ -6878,7 +6882,7 @@
       <c r="J95" s="13">
         <v>9440</v>
       </c>
-      <c r="K95" s="15">
+      <c r="K95" s="21">
         <v>45500</v>
       </c>
       <c r="L95" s="9"/>
@@ -6917,7 +6921,7 @@
       <c r="J96" s="13">
         <v>9940</v>
       </c>
-      <c r="K96" s="15">
+      <c r="K96" s="21">
         <v>45497</v>
       </c>
       <c r="L96" s="9"/>
@@ -6956,7 +6960,7 @@
       <c r="J97" s="10">
         <v>7690</v>
       </c>
-      <c r="K97" s="15">
+      <c r="K97" s="21">
         <v>45498</v>
       </c>
       <c r="L97" s="9"/>
@@ -6995,7 +6999,7 @@
       <c r="J98" s="10">
         <v>7610</v>
       </c>
-      <c r="K98" s="15">
+      <c r="K98" s="21">
         <v>45499</v>
       </c>
       <c r="L98" s="9"/>
@@ -7034,7 +7038,7 @@
       <c r="J99" s="10">
         <v>7140</v>
       </c>
-      <c r="K99" s="15">
+      <c r="K99" s="21">
         <v>45499</v>
       </c>
       <c r="L99" s="9"/>
@@ -7073,7 +7077,7 @@
       <c r="J100" s="10">
         <v>7240</v>
       </c>
-      <c r="K100" s="15">
+      <c r="K100" s="21">
         <v>45497</v>
       </c>
       <c r="L100" s="9"/>
@@ -7112,7 +7116,7 @@
       <c r="J101" s="10">
         <v>7740</v>
       </c>
-      <c r="K101" s="15">
+      <c r="K101" s="21">
         <v>45498</v>
       </c>
       <c r="L101" s="9"/>
@@ -7151,7 +7155,7 @@
       <c r="J102" s="10">
         <v>7740</v>
       </c>
-      <c r="K102" s="15">
+      <c r="K102" s="21">
         <v>45498</v>
       </c>
       <c r="L102" s="9"/>
@@ -7190,7 +7194,7 @@
       <c r="J103" s="10">
         <v>7150</v>
       </c>
-      <c r="K103" s="15">
+      <c r="K103" s="21">
         <v>45498</v>
       </c>
       <c r="L103" s="9"/>
@@ -7229,7 +7233,7 @@
       <c r="J104" s="10">
         <v>7690</v>
       </c>
-      <c r="K104" s="15">
+      <c r="K104" s="21">
         <v>45497</v>
       </c>
       <c r="L104" s="9"/>
@@ -7268,7 +7272,7 @@
       <c r="J105" s="10">
         <v>2552</v>
       </c>
-      <c r="K105" s="15">
+      <c r="K105" s="21">
         <v>45441</v>
       </c>
       <c r="L105" s="9"/>
@@ -7307,11 +7311,11 @@
       <c r="J106" s="10">
         <v>1201</v>
       </c>
-      <c r="K106" s="15">
+      <c r="K106" s="21">
         <v>45460</v>
       </c>
       <c r="L106" s="9"/>
-      <c r="M106" s="20" t="s">
+      <c r="M106" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -7346,7 +7350,7 @@
       <c r="J107" s="10">
         <v>2330</v>
       </c>
-      <c r="K107" s="15">
+      <c r="K107" s="21">
         <v>45497</v>
       </c>
       <c r="L107" s="9"/>
@@ -7385,7 +7389,7 @@
       <c r="J108" s="10">
         <v>7670</v>
       </c>
-      <c r="K108" s="15">
+      <c r="K108" s="21">
         <v>45497</v>
       </c>
       <c r="L108" s="9"/>
@@ -7424,11 +7428,11 @@
       <c r="J109" s="10">
         <v>935</v>
       </c>
-      <c r="K109" s="15">
+      <c r="K109" s="21">
         <v>45446</v>
       </c>
       <c r="L109" s="9"/>
-      <c r="M109" s="20" t="s">
+      <c r="M109" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -7463,7 +7467,7 @@
       <c r="J110" s="10">
         <v>9390</v>
       </c>
-      <c r="K110" s="15">
+      <c r="K110" s="21">
         <v>45503</v>
       </c>
       <c r="L110" s="9"/>
@@ -7502,7 +7506,7 @@
       <c r="J111" s="10">
         <v>8820</v>
       </c>
-      <c r="K111" s="15">
+      <c r="K111" s="21">
         <v>45503</v>
       </c>
       <c r="L111" s="9"/>
@@ -7541,7 +7545,7 @@
       <c r="J112" s="10">
         <v>10340</v>
       </c>
-      <c r="K112" s="15">
+      <c r="K112" s="21">
         <v>45503</v>
       </c>
       <c r="L112" s="9"/>
@@ -7580,7 +7584,7 @@
       <c r="J113" s="10">
         <v>10110</v>
       </c>
-      <c r="K113" s="15">
+      <c r="K113" s="21">
         <v>45502</v>
       </c>
       <c r="L113" s="9"/>
@@ -7619,7 +7623,7 @@
       <c r="J114" s="10">
         <v>6268</v>
       </c>
-      <c r="K114" s="15">
+      <c r="K114" s="21">
         <v>45497</v>
       </c>
       <c r="L114" s="9"/>
@@ -7658,11 +7662,11 @@
       <c r="J115" s="10">
         <v>2200</v>
       </c>
-      <c r="K115" s="15">
+      <c r="K115" s="21">
         <v>45478</v>
       </c>
       <c r="L115" s="9"/>
-      <c r="M115" s="20" t="s">
+      <c r="M115" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -7697,7 +7701,7 @@
       <c r="J116" s="10">
         <v>6778</v>
       </c>
-      <c r="K116" s="15">
+      <c r="K116" s="21">
         <v>45358</v>
       </c>
       <c r="L116" s="9"/>
@@ -7736,7 +7740,7 @@
       <c r="J117" s="10">
         <v>1444</v>
       </c>
-      <c r="K117" s="15">
+      <c r="K117" s="21">
         <v>45475</v>
       </c>
       <c r="L117" s="9"/>
@@ -7775,7 +7779,7 @@
       <c r="J118" s="10">
         <v>5010</v>
       </c>
-      <c r="K118" s="15">
+      <c r="K118" s="21">
         <v>45457</v>
       </c>
       <c r="L118" s="9"/>
@@ -7814,11 +7818,11 @@
       <c r="J119" s="10">
         <v>1535</v>
       </c>
-      <c r="K119" s="15">
+      <c r="K119" s="21">
         <v>45475</v>
       </c>
       <c r="L119" s="9"/>
-      <c r="M119" s="20" t="s">
+      <c r="M119" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -7853,11 +7857,11 @@
       <c r="J120" s="10">
         <v>4765</v>
       </c>
-      <c r="K120" s="15">
+      <c r="K120" s="21">
         <v>45440</v>
       </c>
       <c r="L120" s="9"/>
-      <c r="M120" s="20" t="s">
+      <c r="M120" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -7892,11 +7896,11 @@
       <c r="J121" s="10">
         <v>2294</v>
       </c>
-      <c r="K121" s="15">
+      <c r="K121" s="21">
         <v>45054</v>
       </c>
       <c r="L121" s="9"/>
-      <c r="M121" s="20" t="s">
+      <c r="M121" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -7931,11 +7935,11 @@
       <c r="J122" s="10">
         <v>2355</v>
       </c>
-      <c r="K122" s="15">
+      <c r="K122" s="21">
         <v>45069</v>
       </c>
       <c r="L122" s="9"/>
-      <c r="M122" s="20" t="s">
+      <c r="M122" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -7970,7 +7974,7 @@
       <c r="J123" s="10">
         <v>4609</v>
       </c>
-      <c r="K123" s="15">
+      <c r="K123" s="21">
         <v>45499</v>
       </c>
       <c r="L123" s="9"/>
@@ -8009,7 +8013,7 @@
       <c r="J124" s="10">
         <v>9050</v>
       </c>
-      <c r="K124" s="15">
+      <c r="K124" s="21">
         <v>45509</v>
       </c>
       <c r="L124" s="9"/>
@@ -8048,7 +8052,7 @@
       <c r="J125" s="10">
         <v>9130</v>
       </c>
-      <c r="K125" s="15">
+      <c r="K125" s="21">
         <v>45506</v>
       </c>
       <c r="L125" s="9"/>
@@ -8087,7 +8091,7 @@
       <c r="J126" s="10">
         <v>6590</v>
       </c>
-      <c r="K126" s="15">
+      <c r="K126" s="21">
         <v>45506</v>
       </c>
       <c r="L126" s="9"/>
@@ -8126,7 +8130,7 @@
       <c r="J127" s="10">
         <v>6820</v>
       </c>
-      <c r="K127" s="15">
+      <c r="K127" s="21">
         <v>45506</v>
       </c>
       <c r="L127" s="9"/>
@@ -8165,7 +8169,7 @@
       <c r="J128" s="10">
         <v>6610</v>
       </c>
-      <c r="K128" s="15">
+      <c r="K128" s="21">
         <v>45509</v>
       </c>
       <c r="L128" s="9"/>
@@ -8204,7 +8208,7 @@
       <c r="J129" s="10">
         <v>6600</v>
       </c>
-      <c r="K129" s="15">
+      <c r="K129" s="21">
         <v>45506</v>
       </c>
       <c r="L129" s="9"/>
@@ -8243,7 +8247,7 @@
       <c r="J130" s="10">
         <v>6350</v>
       </c>
-      <c r="K130" s="15">
+      <c r="K130" s="21">
         <v>45505</v>
       </c>
       <c r="L130" s="9"/>
@@ -8282,11 +8286,11 @@
       <c r="J131" s="10">
         <v>4410</v>
       </c>
-      <c r="K131" s="15">
+      <c r="K131" s="21">
         <v>45509</v>
       </c>
       <c r="L131" s="9"/>
-      <c r="M131" s="20" t="s">
+      <c r="M131" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -8321,11 +8325,11 @@
       <c r="J132" s="10">
         <v>3820</v>
       </c>
-      <c r="K132" s="15">
+      <c r="K132" s="21">
         <v>45506</v>
       </c>
       <c r="L132" s="9"/>
-      <c r="M132" s="20" t="s">
+      <c r="M132" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -8360,11 +8364,11 @@
       <c r="J133" s="10">
         <v>3820</v>
       </c>
-      <c r="K133" s="15">
+      <c r="K133" s="21">
         <v>45507</v>
       </c>
       <c r="L133" s="9"/>
-      <c r="M133" s="20" t="s">
+      <c r="M133" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -8399,11 +8403,11 @@
       <c r="J134" s="10">
         <v>3820</v>
       </c>
-      <c r="K134" s="15">
+      <c r="K134" s="21">
         <v>45506</v>
       </c>
       <c r="L134" s="9"/>
-      <c r="M134" s="20" t="s">
+      <c r="M134" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -8438,7 +8442,7 @@
       <c r="J135" s="10">
         <v>6800</v>
       </c>
-      <c r="K135" s="15">
+      <c r="K135" s="21">
         <v>45505</v>
       </c>
       <c r="L135" s="9"/>
@@ -8477,7 +8481,7 @@
       <c r="J136" s="10">
         <v>6800</v>
       </c>
-      <c r="K136" s="15">
+      <c r="K136" s="21">
         <v>45506</v>
       </c>
       <c r="L136" s="9"/>
@@ -8516,7 +8520,7 @@
       <c r="J137" s="10">
         <v>6830</v>
       </c>
-      <c r="K137" s="15">
+      <c r="K137" s="21">
         <v>45505</v>
       </c>
       <c r="L137" s="9"/>
@@ -8555,7 +8559,7 @@
       <c r="J138" s="10">
         <v>6830</v>
       </c>
-      <c r="K138" s="15">
+      <c r="K138" s="21">
         <v>45505</v>
       </c>
       <c r="L138" s="9"/>
@@ -8594,7 +8598,7 @@
       <c r="J139" s="10">
         <v>9060</v>
       </c>
-      <c r="K139" s="15">
+      <c r="K139" s="21">
         <v>45509</v>
       </c>
       <c r="L139" s="9"/>
@@ -8633,7 +8637,7 @@
       <c r="J140" s="10">
         <v>9050</v>
       </c>
-      <c r="K140" s="15">
+      <c r="K140" s="21">
         <v>45506</v>
       </c>
       <c r="L140" s="9"/>
@@ -8672,7 +8676,7 @@
       <c r="J141" s="10">
         <v>6920</v>
       </c>
-      <c r="K141" s="15">
+      <c r="K141" s="21">
         <v>45506</v>
       </c>
       <c r="L141" s="9"/>
@@ -8711,7 +8715,7 @@
       <c r="J142" s="10">
         <v>6360</v>
       </c>
-      <c r="K142" s="15">
+      <c r="K142" s="21">
         <v>45506</v>
       </c>
       <c r="L142" s="9"/>
@@ -8750,7 +8754,7 @@
       <c r="J143" s="10">
         <v>7400</v>
       </c>
-      <c r="K143" s="15">
+      <c r="K143" s="21">
         <v>45506</v>
       </c>
       <c r="L143" s="9"/>
@@ -8789,7 +8793,7 @@
       <c r="J144" s="10">
         <v>7150</v>
       </c>
-      <c r="K144" s="15">
+      <c r="K144" s="21">
         <v>45507</v>
       </c>
       <c r="L144" s="9"/>
@@ -8828,7 +8832,7 @@
       <c r="J145" s="10">
         <v>7180</v>
       </c>
-      <c r="K145" s="15">
+      <c r="K145" s="21">
         <v>45505</v>
       </c>
       <c r="L145" s="9"/>
@@ -8867,7 +8871,7 @@
       <c r="J146" s="10">
         <v>7150</v>
       </c>
-      <c r="K146" s="15">
+      <c r="K146" s="21">
         <v>45507</v>
       </c>
       <c r="L146" s="9"/>
@@ -8906,7 +8910,7 @@
       <c r="J147" s="10">
         <v>7160</v>
       </c>
-      <c r="K147" s="15">
+      <c r="K147" s="21">
         <v>45505</v>
       </c>
       <c r="L147" s="9"/>
@@ -8945,7 +8949,7 @@
       <c r="J148" s="10">
         <v>6980</v>
       </c>
-      <c r="K148" s="15">
+      <c r="K148" s="21">
         <v>45509</v>
       </c>
       <c r="L148" s="9"/>
@@ -8984,7 +8988,7 @@
       <c r="J149" s="10">
         <v>6560</v>
       </c>
-      <c r="K149" s="15">
+      <c r="K149" s="21">
         <v>45506</v>
       </c>
       <c r="L149" s="9"/>
@@ -9023,7 +9027,7 @@
       <c r="J150" s="10">
         <v>7020</v>
       </c>
-      <c r="K150" s="15">
+      <c r="K150" s="21">
         <v>45506</v>
       </c>
       <c r="L150" s="9"/>
@@ -9062,7 +9066,7 @@
       <c r="J151" s="10">
         <v>6970</v>
       </c>
-      <c r="K151" s="15">
+      <c r="K151" s="21">
         <v>45506</v>
       </c>
       <c r="L151" s="9"/>
@@ -9101,7 +9105,7 @@
       <c r="J152" s="10">
         <v>6970</v>
       </c>
-      <c r="K152" s="15">
+      <c r="K152" s="21">
         <v>45506</v>
       </c>
       <c r="L152" s="9"/>
@@ -9140,7 +9144,7 @@
       <c r="J153" s="10">
         <v>6980</v>
       </c>
-      <c r="K153" s="15">
+      <c r="K153" s="21">
         <v>45505</v>
       </c>
       <c r="L153" s="9"/>
@@ -9179,7 +9183,7 @@
       <c r="J154" s="10">
         <v>9530</v>
       </c>
-      <c r="K154" s="15">
+      <c r="K154" s="21">
         <v>45516</v>
       </c>
       <c r="L154" s="9"/>
@@ -9218,7 +9222,7 @@
       <c r="J155" s="10">
         <v>10030</v>
       </c>
-      <c r="K155" s="15">
+      <c r="K155" s="21">
         <v>45514</v>
       </c>
       <c r="L155" s="9"/>
@@ -9257,7 +9261,7 @@
       <c r="J156" s="10">
         <v>8000</v>
       </c>
-      <c r="K156" s="15">
+      <c r="K156" s="21">
         <v>45516</v>
       </c>
       <c r="L156" s="9"/>
@@ -9296,7 +9300,7 @@
       <c r="J157" s="10">
         <v>10780</v>
       </c>
-      <c r="K157" s="15">
+      <c r="K157" s="21">
         <v>45516</v>
       </c>
       <c r="L157" s="9"/>
@@ -9335,7 +9339,7 @@
       <c r="J158" s="10">
         <v>11340</v>
       </c>
-      <c r="K158" s="15">
+      <c r="K158" s="21">
         <v>45516</v>
       </c>
       <c r="L158" s="9"/>
@@ -9374,7 +9378,7 @@
       <c r="J159" s="10">
         <v>9490</v>
       </c>
-      <c r="K159" s="15">
+      <c r="K159" s="21">
         <v>45516</v>
       </c>
       <c r="L159" s="9"/>
@@ -9413,7 +9417,7 @@
       <c r="J160" s="10">
         <v>9455</v>
       </c>
-      <c r="K160" s="15">
+      <c r="K160" s="21">
         <v>45514</v>
       </c>
       <c r="L160" s="9"/>
@@ -9452,11 +9456,11 @@
       <c r="J161" s="10">
         <v>1058</v>
       </c>
-      <c r="K161" s="15">
+      <c r="K161" s="21">
         <v>45296</v>
       </c>
       <c r="L161" s="9"/>
-      <c r="M161" s="20" t="s">
+      <c r="M161" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -9491,11 +9495,11 @@
       <c r="J162" s="10">
         <v>1361</v>
       </c>
-      <c r="K162" s="15">
+      <c r="K162" s="21">
         <v>44814</v>
       </c>
       <c r="L162" s="9"/>
-      <c r="M162" s="20" t="s">
+      <c r="M162" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -9530,7 +9534,7 @@
       <c r="J163" s="10">
         <v>6719</v>
       </c>
-      <c r="K163" s="15">
+      <c r="K163" s="21">
         <v>45222</v>
       </c>
       <c r="L163" s="9"/>
@@ -9569,11 +9573,11 @@
       <c r="J164" s="10">
         <v>2700</v>
       </c>
-      <c r="K164" s="15">
+      <c r="K164" s="21">
         <v>45456</v>
       </c>
       <c r="L164" s="9"/>
-      <c r="M164" s="20" t="s">
+      <c r="M164" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -9608,7 +9612,7 @@
       <c r="J165" s="10">
         <v>4302</v>
       </c>
-      <c r="K165" s="15">
+      <c r="K165" s="21">
         <v>45447</v>
       </c>
       <c r="L165" s="9"/>
@@ -9647,7 +9651,7 @@
       <c r="J166" s="10">
         <v>1226</v>
       </c>
-      <c r="K166" s="15">
+      <c r="K166" s="21">
         <v>45268</v>
       </c>
       <c r="L166" s="9"/>
@@ -9686,7 +9690,7 @@
       <c r="J167" s="10">
         <v>4582</v>
       </c>
-      <c r="K167" s="15">
+      <c r="K167" s="21">
         <v>45274</v>
       </c>
       <c r="L167" s="9"/>
@@ -9725,11 +9729,11 @@
       <c r="J168" s="10">
         <v>2325</v>
       </c>
-      <c r="K168" s="15">
+      <c r="K168" s="21">
         <v>45358</v>
       </c>
       <c r="L168" s="9"/>
-      <c r="M168" s="20" t="s">
+      <c r="M168" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -9764,11 +9768,11 @@
       <c r="J169" s="10">
         <v>3103</v>
       </c>
-      <c r="K169" s="15">
+      <c r="K169" s="21">
         <v>45474</v>
       </c>
       <c r="L169" s="9"/>
-      <c r="M169" s="20" t="s">
+      <c r="M169" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -9803,11 +9807,11 @@
       <c r="J170" s="10">
         <v>4724</v>
       </c>
-      <c r="K170" s="15">
+      <c r="K170" s="21">
         <v>45474</v>
       </c>
       <c r="L170" s="9"/>
-      <c r="M170" s="20" t="s">
+      <c r="M170" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -9842,11 +9846,11 @@
       <c r="J171" s="10">
         <v>2178</v>
       </c>
-      <c r="K171" s="15">
+      <c r="K171" s="21">
         <v>45452</v>
       </c>
       <c r="L171" s="9"/>
-      <c r="M171" s="20" t="s">
+      <c r="M171" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -9881,7 +9885,7 @@
       <c r="J172" s="10">
         <v>9150</v>
       </c>
-      <c r="K172" s="15">
+      <c r="K172" s="21">
         <v>45520</v>
       </c>
       <c r="L172" s="9"/>
@@ -9920,7 +9924,7 @@
       <c r="J173" s="10">
         <v>8930</v>
       </c>
-      <c r="K173" s="15">
+      <c r="K173" s="21">
         <v>45520</v>
       </c>
       <c r="L173" s="9"/>
@@ -9959,7 +9963,7 @@
       <c r="J174" s="10">
         <v>8170</v>
       </c>
-      <c r="K174" s="15">
+      <c r="K174" s="21">
         <v>45520</v>
       </c>
       <c r="L174" s="9"/>
@@ -9998,7 +10002,7 @@
       <c r="J175" s="10">
         <v>8000</v>
       </c>
-      <c r="K175" s="15">
+      <c r="K175" s="21">
         <v>45519</v>
       </c>
       <c r="L175" s="9"/>
@@ -10037,7 +10041,7 @@
       <c r="J176" s="10">
         <v>9255</v>
       </c>
-      <c r="K176" s="15">
+      <c r="K176" s="21">
         <v>45520</v>
       </c>
       <c r="L176" s="9"/>
@@ -10076,7 +10080,7 @@
       <c r="J177" s="10">
         <v>8930</v>
       </c>
-      <c r="K177" s="15">
+      <c r="K177" s="21">
         <v>45520</v>
       </c>
       <c r="L177" s="9"/>
@@ -10115,7 +10119,7 @@
       <c r="J178" s="10">
         <v>8720</v>
       </c>
-      <c r="K178" s="15">
+      <c r="K178" s="21">
         <v>45520</v>
       </c>
       <c r="L178" s="9"/>
@@ -10154,7 +10158,7 @@
       <c r="J179" s="10">
         <v>8410</v>
       </c>
-      <c r="K179" s="15">
+      <c r="K179" s="21">
         <v>45519</v>
       </c>
       <c r="L179" s="9"/>
@@ -10193,7 +10197,7 @@
       <c r="J180" s="10">
         <v>6655</v>
       </c>
-      <c r="K180" s="15">
+      <c r="K180" s="21">
         <v>45520</v>
       </c>
       <c r="L180" s="9"/>
@@ -10232,7 +10236,7 @@
       <c r="J181" s="10">
         <v>9160</v>
       </c>
-      <c r="K181" s="15">
+      <c r="K181" s="21">
         <v>45519</v>
       </c>
       <c r="L181" s="9"/>
@@ -10271,7 +10275,7 @@
       <c r="J182" s="10">
         <v>8685</v>
       </c>
-      <c r="K182" s="15">
+      <c r="K182" s="21">
         <v>45520</v>
       </c>
       <c r="L182" s="9"/>
@@ -10310,7 +10314,7 @@
       <c r="J183" s="10">
         <v>6410</v>
       </c>
-      <c r="K183" s="15">
+      <c r="K183" s="21">
         <v>45519</v>
       </c>
       <c r="L183" s="9"/>
@@ -10349,7 +10353,7 @@
       <c r="J184" s="10">
         <v>6100</v>
       </c>
-      <c r="K184" s="15">
+      <c r="K184" s="21">
         <v>45519</v>
       </c>
       <c r="L184" s="9"/>
@@ -10388,7 +10392,7 @@
       <c r="J185" s="10">
         <v>6820</v>
       </c>
-      <c r="K185" s="15">
+      <c r="K185" s="21">
         <v>45520</v>
       </c>
       <c r="L185" s="9"/>
@@ -10427,7 +10431,7 @@
       <c r="J186" s="10">
         <v>6810</v>
       </c>
-      <c r="K186" s="15">
+      <c r="K186" s="21">
         <v>45520</v>
       </c>
       <c r="L186" s="9"/>
@@ -10466,7 +10470,7 @@
       <c r="J187" s="10">
         <v>6455</v>
       </c>
-      <c r="K187" s="15">
+      <c r="K187" s="21">
         <v>45520</v>
       </c>
       <c r="L187" s="9"/>
@@ -10505,7 +10509,7 @@
       <c r="J188" s="10">
         <v>7015</v>
       </c>
-      <c r="K188" s="15">
+      <c r="K188" s="21">
         <v>45519</v>
       </c>
       <c r="L188" s="9"/>
@@ -10544,7 +10548,7 @@
       <c r="J189" s="10">
         <v>7020</v>
       </c>
-      <c r="K189" s="15">
+      <c r="K189" s="21">
         <v>45519</v>
       </c>
       <c r="L189" s="9"/>
@@ -10583,7 +10587,7 @@
       <c r="J190" s="10">
         <v>6690</v>
       </c>
-      <c r="K190" s="15">
+      <c r="K190" s="21">
         <v>45519</v>
       </c>
       <c r="L190" s="9"/>
@@ -10622,7 +10626,7 @@
       <c r="J191" s="10">
         <v>7170</v>
       </c>
-      <c r="K191" s="15">
+      <c r="K191" s="21">
         <v>45519</v>
       </c>
       <c r="L191" s="9"/>
@@ -10661,7 +10665,7 @@
       <c r="J192" s="10">
         <v>7165</v>
       </c>
-      <c r="K192" s="15">
+      <c r="K192" s="21">
         <v>45519</v>
       </c>
       <c r="L192" s="9"/>
@@ -10700,7 +10704,7 @@
       <c r="J193" s="10">
         <v>7995</v>
       </c>
-      <c r="K193" s="15">
+      <c r="K193" s="21">
         <v>45519</v>
       </c>
       <c r="L193" s="9"/>
@@ -10739,7 +10743,7 @@
       <c r="J194" s="10">
         <v>5478</v>
       </c>
-      <c r="K194" s="15">
+      <c r="K194" s="21">
         <v>45505</v>
       </c>
       <c r="L194" s="9"/>
@@ -10778,7 +10782,7 @@
       <c r="J195" s="10">
         <v>6460</v>
       </c>
-      <c r="K195" s="15">
+      <c r="K195" s="21">
         <v>45497</v>
       </c>
       <c r="L195" s="9"/>
@@ -10817,7 +10821,7 @@
       <c r="J196" s="10">
         <v>4977</v>
       </c>
-      <c r="K196" s="15">
+      <c r="K196" s="21">
         <v>45503</v>
       </c>
       <c r="L196" s="9"/>
@@ -10856,7 +10860,7 @@
       <c r="J197" s="10">
         <v>2081</v>
       </c>
-      <c r="K197" s="15">
+      <c r="K197" s="21">
         <v>45503</v>
       </c>
       <c r="L197" s="9"/>
@@ -10895,7 +10899,7 @@
       <c r="J198" s="10">
         <v>2326</v>
       </c>
-      <c r="K198" s="15">
+      <c r="K198" s="21">
         <v>45485</v>
       </c>
       <c r="L198" s="9"/>
@@ -10934,7 +10938,7 @@
       <c r="J199" s="10">
         <v>9119</v>
       </c>
-      <c r="K199" s="15">
+      <c r="K199" s="21">
         <v>45159</v>
       </c>
       <c r="L199" s="9"/>
@@ -10942,38 +10946,38 @@
         <v>869</v>
       </c>
     </row>
-    <row r="200" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="16" t="s">
+    <row r="200" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B200" s="16" t="s">
+      <c r="B200" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C200" s="16" t="s">
+      <c r="C200" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="D200" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="E200" s="18" t="s">
+      <c r="D200" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="E200" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="F200" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G200" s="19">
+      <c r="F200" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G200" s="18">
         <v>1.8</v>
       </c>
       <c r="H200" s="7">
         <v>1219</v>
       </c>
-      <c r="I200" s="19">
+      <c r="I200" s="18">
         <v>0</v>
       </c>
       <c r="J200" s="10">
         <v>9500</v>
       </c>
-      <c r="K200" s="15">
+      <c r="K200" s="21">
         <v>44957</v>
       </c>
       <c r="L200" s="9"/>
@@ -10981,38 +10985,38 @@
         <v>869</v>
       </c>
     </row>
-    <row r="201" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="16" t="s">
+    <row r="201" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B201" s="16" t="s">
+      <c r="B201" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C201" s="16" t="s">
+      <c r="C201" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="D201" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="E201" s="18" t="s">
+      <c r="D201" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="E201" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="F201" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G201" s="19">
+      <c r="F201" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G201" s="18">
         <v>2</v>
       </c>
       <c r="H201" s="7">
         <v>1219</v>
       </c>
-      <c r="I201" s="19">
+      <c r="I201" s="18">
         <v>0</v>
       </c>
       <c r="J201" s="10">
         <v>6016</v>
       </c>
-      <c r="K201" s="15">
+      <c r="K201" s="21">
         <v>45183</v>
       </c>
       <c r="L201" s="9"/>
@@ -11051,7 +11055,7 @@
       <c r="J202" s="10">
         <v>7350</v>
       </c>
-      <c r="K202" s="15">
+      <c r="K202" s="21">
         <v>44957</v>
       </c>
       <c r="L202" s="9"/>
@@ -11090,7 +11094,7 @@
       <c r="J203" s="10">
         <v>7300</v>
       </c>
-      <c r="K203" s="15">
+      <c r="K203" s="21">
         <v>44957</v>
       </c>
       <c r="L203" s="9"/>
@@ -11129,7 +11133,7 @@
       <c r="J204" s="10">
         <v>8365</v>
       </c>
-      <c r="K204" s="15">
+      <c r="K204" s="21">
         <v>45197</v>
       </c>
       <c r="L204" s="9"/>
@@ -11168,7 +11172,7 @@
       <c r="J205" s="10">
         <v>8350</v>
       </c>
-      <c r="K205" s="15">
+      <c r="K205" s="21">
         <v>44957</v>
       </c>
       <c r="L205" s="9"/>
@@ -11207,7 +11211,7 @@
       <c r="J206" s="10">
         <v>9110</v>
       </c>
-      <c r="K206" s="15">
+      <c r="K206" s="21">
         <v>44957</v>
       </c>
       <c r="L206" s="9"/>
@@ -11246,7 +11250,7 @@
       <c r="J207" s="10">
         <v>9310</v>
       </c>
-      <c r="K207" s="15">
+      <c r="K207" s="21">
         <v>45350</v>
       </c>
       <c r="L207" s="9"/>
@@ -11285,7 +11289,7 @@
       <c r="J208" s="10">
         <v>8670</v>
       </c>
-      <c r="K208" s="15">
+      <c r="K208" s="21">
         <v>45349</v>
       </c>
       <c r="L208" s="9"/>
@@ -11324,7 +11328,7 @@
       <c r="J209" s="10">
         <v>7092</v>
       </c>
-      <c r="K209" s="15">
+      <c r="K209" s="21">
         <v>45483</v>
       </c>
       <c r="L209" s="9"/>
@@ -11363,7 +11367,7 @@
       <c r="J210" s="10">
         <v>9200</v>
       </c>
-      <c r="K210" s="15">
+      <c r="K210" s="21">
         <v>45349</v>
       </c>
       <c r="L210" s="9"/>
@@ -11402,7 +11406,7 @@
       <c r="J211" s="10">
         <v>9200</v>
       </c>
-      <c r="K211" s="15">
+      <c r="K211" s="21">
         <v>45350</v>
       </c>
       <c r="L211" s="9"/>
@@ -11441,7 +11445,7 @@
       <c r="J212" s="10">
         <v>7187</v>
       </c>
-      <c r="K212" s="15">
+      <c r="K212" s="21">
         <v>45159</v>
       </c>
       <c r="L212" s="9"/>
@@ -11480,7 +11484,7 @@
       <c r="J213" s="10">
         <v>7720</v>
       </c>
-      <c r="K213" s="15">
+      <c r="K213" s="21">
         <v>44970</v>
       </c>
       <c r="L213" s="9"/>
@@ -11519,7 +11523,7 @@
       <c r="J214" s="10">
         <v>7540</v>
       </c>
-      <c r="K214" s="15">
+      <c r="K214" s="21">
         <v>44970</v>
       </c>
       <c r="L214" s="9"/>
@@ -11558,7 +11562,7 @@
       <c r="J215" s="10">
         <v>5941</v>
       </c>
-      <c r="K215" s="15">
+      <c r="K215" s="21">
         <v>45367</v>
       </c>
       <c r="L215" s="9"/>
@@ -11597,7 +11601,7 @@
       <c r="J216" s="10">
         <v>7570</v>
       </c>
-      <c r="K216" s="15">
+      <c r="K216" s="21">
         <v>45366</v>
       </c>
       <c r="L216" s="9"/>
@@ -11636,7 +11640,7 @@
       <c r="J217" s="10">
         <v>4730</v>
       </c>
-      <c r="K217" s="15">
+      <c r="K217" s="21">
         <v>45502</v>
       </c>
       <c r="L217" s="9"/>
@@ -11675,7 +11679,7 @@
       <c r="J218" s="10">
         <v>9180</v>
       </c>
-      <c r="K218" s="15">
+      <c r="K218" s="21">
         <v>45370</v>
       </c>
       <c r="L218" s="9"/>
@@ -11714,7 +11718,7 @@
       <c r="J219" s="10">
         <v>5510</v>
       </c>
-      <c r="K219" s="15">
+      <c r="K219" s="21">
         <v>45481</v>
       </c>
       <c r="L219" s="9"/>
@@ -11753,7 +11757,7 @@
       <c r="J220" s="10">
         <v>7800</v>
       </c>
-      <c r="K220" s="15">
+      <c r="K220" s="21">
         <v>45371</v>
       </c>
       <c r="L220" s="9"/>
@@ -11792,7 +11796,7 @@
       <c r="J221" s="10">
         <v>7800</v>
       </c>
-      <c r="K221" s="15">
+      <c r="K221" s="21">
         <v>45371</v>
       </c>
       <c r="L221" s="9"/>
@@ -11831,7 +11835,7 @@
       <c r="J222" s="10">
         <v>9120</v>
       </c>
-      <c r="K222" s="15">
+      <c r="K222" s="21">
         <v>45371</v>
       </c>
       <c r="L222" s="9"/>
@@ -11870,7 +11874,7 @@
       <c r="J223" s="10">
         <v>3970</v>
       </c>
-      <c r="K223" s="15">
+      <c r="K223" s="21">
         <v>45502</v>
       </c>
       <c r="L223" s="9"/>
@@ -11909,7 +11913,7 @@
       <c r="J224" s="10">
         <v>9390</v>
       </c>
-      <c r="K224" s="15">
+      <c r="K224" s="21">
         <v>45372</v>
       </c>
       <c r="L224" s="9"/>
@@ -11948,7 +11952,7 @@
       <c r="J225" s="10">
         <v>9430</v>
       </c>
-      <c r="K225" s="15">
+      <c r="K225" s="21">
         <v>45370</v>
       </c>
       <c r="L225" s="9"/>
@@ -11987,7 +11991,7 @@
       <c r="J226" s="10">
         <v>9510</v>
       </c>
-      <c r="K226" s="15">
+      <c r="K226" s="21">
         <v>45371</v>
       </c>
       <c r="L226" s="9"/>
@@ -12026,7 +12030,7 @@
       <c r="J227" s="10">
         <v>9870</v>
       </c>
-      <c r="K227" s="15">
+      <c r="K227" s="21">
         <v>45372</v>
       </c>
       <c r="L227" s="9"/>
@@ -12065,7 +12069,7 @@
       <c r="J228" s="10">
         <v>9530</v>
       </c>
-      <c r="K228" s="15">
+      <c r="K228" s="21">
         <v>45371</v>
       </c>
       <c r="L228" s="9"/>
@@ -12104,7 +12108,7 @@
       <c r="J229" s="10">
         <v>8930</v>
       </c>
-      <c r="K229" s="15">
+      <c r="K229" s="21">
         <v>45371</v>
       </c>
       <c r="L229" s="9"/>
@@ -12143,7 +12147,7 @@
       <c r="J230" s="10">
         <v>8650</v>
       </c>
-      <c r="K230" s="15">
+      <c r="K230" s="21">
         <v>45370</v>
       </c>
       <c r="L230" s="9"/>
@@ -12182,7 +12186,7 @@
       <c r="J231" s="10">
         <v>4488</v>
       </c>
-      <c r="K231" s="15">
+      <c r="K231" s="21">
         <v>45495</v>
       </c>
       <c r="L231" s="9"/>
@@ -12221,7 +12225,7 @@
       <c r="J232" s="10">
         <v>9570</v>
       </c>
-      <c r="K232" s="15">
+      <c r="K232" s="21">
         <v>45372</v>
       </c>
       <c r="L232" s="9"/>
@@ -12260,7 +12264,7 @@
       <c r="J233" s="10">
         <v>9650</v>
       </c>
-      <c r="K233" s="15">
+      <c r="K233" s="21">
         <v>45372</v>
       </c>
       <c r="L233" s="9"/>
@@ -12299,7 +12303,7 @@
       <c r="J234" s="10">
         <v>8300</v>
       </c>
-      <c r="K234" s="15">
+      <c r="K234" s="21">
         <v>45370</v>
       </c>
       <c r="L234" s="9"/>
@@ -12338,7 +12342,7 @@
       <c r="J235" s="10">
         <v>6020</v>
       </c>
-      <c r="K235" s="15">
+      <c r="K235" s="21">
         <v>45388</v>
       </c>
       <c r="L235" s="9"/>
@@ -12377,7 +12381,7 @@
       <c r="J236" s="10">
         <v>6850</v>
       </c>
-      <c r="K236" s="15">
+      <c r="K236" s="21">
         <v>45388</v>
       </c>
       <c r="L236" s="9"/>
@@ -12416,7 +12420,7 @@
       <c r="J237" s="10">
         <v>7002</v>
       </c>
-      <c r="K237" s="15">
+      <c r="K237" s="21">
         <v>45516</v>
       </c>
       <c r="L237" s="9"/>
@@ -12455,7 +12459,7 @@
       <c r="J238" s="10">
         <v>7790</v>
       </c>
-      <c r="K238" s="15">
+      <c r="K238" s="21">
         <v>45406</v>
       </c>
       <c r="L238" s="9"/>
@@ -12494,7 +12498,7 @@
       <c r="J239" s="10">
         <v>8670</v>
       </c>
-      <c r="K239" s="15">
+      <c r="K239" s="21">
         <v>45414</v>
       </c>
       <c r="L239" s="9"/>
@@ -12533,7 +12537,7 @@
       <c r="J240" s="10">
         <v>8550</v>
       </c>
-      <c r="K240" s="15">
+      <c r="K240" s="21">
         <v>45414</v>
       </c>
       <c r="L240" s="9"/>
@@ -12572,7 +12576,7 @@
       <c r="J241" s="10">
         <v>8740</v>
       </c>
-      <c r="K241" s="15">
+      <c r="K241" s="21">
         <v>45414</v>
       </c>
       <c r="L241" s="9"/>
@@ -12611,7 +12615,7 @@
       <c r="J242" s="10">
         <v>8440</v>
       </c>
-      <c r="K242" s="15">
+      <c r="K242" s="21">
         <v>45406</v>
       </c>
       <c r="L242" s="9"/>
@@ -12650,7 +12654,7 @@
       <c r="J243" s="10">
         <v>7200</v>
       </c>
-      <c r="K243" s="15">
+      <c r="K243" s="21">
         <v>45406</v>
       </c>
       <c r="L243" s="9"/>
@@ -12689,7 +12693,7 @@
       <c r="J244" s="10">
         <v>7210</v>
       </c>
-      <c r="K244" s="15">
+      <c r="K244" s="21">
         <v>45414</v>
       </c>
       <c r="L244" s="9"/>
@@ -12728,7 +12732,7 @@
       <c r="J245" s="10">
         <v>7200</v>
       </c>
-      <c r="K245" s="15">
+      <c r="K245" s="21">
         <v>45414</v>
       </c>
       <c r="L245" s="9"/>
@@ -12767,7 +12771,7 @@
       <c r="J246" s="10">
         <v>7210</v>
       </c>
-      <c r="K246" s="15">
+      <c r="K246" s="21">
         <v>45406</v>
       </c>
       <c r="L246" s="9"/>
@@ -12806,7 +12810,7 @@
       <c r="J247" s="10">
         <v>3308</v>
       </c>
-      <c r="K247" s="15">
+      <c r="K247" s="21">
         <v>45518</v>
       </c>
       <c r="L247" s="9"/>
@@ -12845,7 +12849,7 @@
       <c r="J248" s="10">
         <v>5327</v>
       </c>
-      <c r="K248" s="15">
+      <c r="K248" s="21">
         <v>45520</v>
       </c>
       <c r="L248" s="9"/>
@@ -12884,7 +12888,7 @@
       <c r="J249" s="10">
         <v>8600</v>
       </c>
-      <c r="K249" s="15">
+      <c r="K249" s="21">
         <v>45433</v>
       </c>
       <c r="L249" s="9"/>
@@ -12923,7 +12927,7 @@
       <c r="J250" s="10">
         <v>7260</v>
       </c>
-      <c r="K250" s="15">
+      <c r="K250" s="21">
         <v>45437</v>
       </c>
       <c r="L250" s="9"/>
@@ -12962,7 +12966,7 @@
       <c r="J251" s="10">
         <v>6890</v>
       </c>
-      <c r="K251" s="15">
+      <c r="K251" s="21">
         <v>45437</v>
       </c>
       <c r="L251" s="9"/>
@@ -13001,7 +13005,7 @@
       <c r="J252" s="10">
         <v>6425</v>
       </c>
-      <c r="K252" s="15">
+      <c r="K252" s="21">
         <v>45440</v>
       </c>
       <c r="L252" s="9"/>
@@ -13040,7 +13044,7 @@
       <c r="J253" s="10">
         <v>6835</v>
       </c>
-      <c r="K253" s="15">
+      <c r="K253" s="21">
         <v>45440</v>
       </c>
       <c r="L253" s="9"/>
@@ -13079,7 +13083,7 @@
       <c r="J254" s="10">
         <v>6195</v>
       </c>
-      <c r="K254" s="15">
+      <c r="K254" s="21">
         <v>45441</v>
       </c>
       <c r="L254" s="9"/>
@@ -13118,7 +13122,7 @@
       <c r="J255" s="10">
         <v>7000</v>
       </c>
-      <c r="K255" s="15">
+      <c r="K255" s="21">
         <v>45451</v>
       </c>
       <c r="L255" s="9"/>
@@ -13157,7 +13161,7 @@
       <c r="J256" s="10">
         <v>7250</v>
       </c>
-      <c r="K256" s="15">
+      <c r="K256" s="21">
         <v>45451</v>
       </c>
       <c r="L256" s="9"/>
@@ -13196,7 +13200,7 @@
       <c r="J257" s="10">
         <v>11085</v>
       </c>
-      <c r="K257" s="15">
+      <c r="K257" s="21">
         <v>45455</v>
       </c>
       <c r="L257" s="9"/>
@@ -13235,7 +13239,7 @@
       <c r="J258" s="10">
         <v>11015</v>
       </c>
-      <c r="K258" s="15">
+      <c r="K258" s="21">
         <v>45455</v>
       </c>
       <c r="L258" s="9"/>
@@ -13274,7 +13278,7 @@
       <c r="J259" s="10">
         <v>4014</v>
       </c>
-      <c r="K259" s="15">
+      <c r="K259" s="21">
         <v>45509</v>
       </c>
       <c r="L259" s="9"/>
@@ -13313,7 +13317,7 @@
       <c r="J260" s="10">
         <v>5340</v>
       </c>
-      <c r="K260" s="15">
+      <c r="K260" s="21">
         <v>45503</v>
       </c>
       <c r="L260" s="9"/>
@@ -13352,7 +13356,7 @@
       <c r="J261" s="10">
         <v>7349</v>
       </c>
-      <c r="K261" s="15">
+      <c r="K261" s="21">
         <v>45509</v>
       </c>
       <c r="L261" s="9"/>
@@ -13391,7 +13395,7 @@
       <c r="J262" s="10">
         <v>7010</v>
       </c>
-      <c r="K262" s="15">
+      <c r="K262" s="21">
         <v>45458</v>
       </c>
       <c r="L262" s="9"/>
@@ -13430,7 +13434,7 @@
       <c r="J263" s="10">
         <v>7930</v>
       </c>
-      <c r="K263" s="15">
+      <c r="K263" s="21">
         <v>45458</v>
       </c>
       <c r="L263" s="9"/>
@@ -13469,7 +13473,7 @@
       <c r="J264" s="10">
         <v>9190</v>
       </c>
-      <c r="K264" s="15">
+      <c r="K264" s="21">
         <v>45458</v>
       </c>
       <c r="L264" s="9"/>
@@ -13508,7 +13512,7 @@
       <c r="J265" s="10">
         <v>9980</v>
       </c>
-      <c r="K265" s="15">
+      <c r="K265" s="21">
         <v>45458</v>
       </c>
       <c r="L265" s="9"/>
@@ -13547,7 +13551,7 @@
       <c r="J266" s="10">
         <v>9980</v>
       </c>
-      <c r="K266" s="15">
+      <c r="K266" s="21">
         <v>45458</v>
       </c>
       <c r="L266" s="9"/>
@@ -13586,7 +13590,7 @@
       <c r="J267" s="10">
         <v>8260</v>
       </c>
-      <c r="K267" s="15">
+      <c r="K267" s="21">
         <v>45458</v>
       </c>
       <c r="L267" s="9"/>
@@ -13625,7 +13629,7 @@
       <c r="J268" s="10">
         <v>8220</v>
       </c>
-      <c r="K268" s="15">
+      <c r="K268" s="21">
         <v>45457</v>
       </c>
       <c r="L268" s="9"/>
@@ -13664,7 +13668,7 @@
       <c r="J269" s="10">
         <v>8420</v>
       </c>
-      <c r="K269" s="15">
+      <c r="K269" s="21">
         <v>45457</v>
       </c>
       <c r="L269" s="9"/>
@@ -13703,7 +13707,7 @@
       <c r="J270" s="10">
         <v>7540</v>
       </c>
-      <c r="K270" s="15">
+      <c r="K270" s="21">
         <v>45458</v>
       </c>
       <c r="L270" s="9"/>
@@ -13742,7 +13746,7 @@
       <c r="J271" s="10">
         <v>7730</v>
       </c>
-      <c r="K271" s="15">
+      <c r="K271" s="21">
         <v>45458</v>
       </c>
       <c r="L271" s="9"/>
@@ -13781,7 +13785,7 @@
       <c r="J272" s="10">
         <v>9760</v>
       </c>
-      <c r="K272" s="15">
+      <c r="K272" s="21">
         <v>45476</v>
       </c>
       <c r="L272" s="9"/>
@@ -13820,7 +13824,7 @@
       <c r="J273" s="10">
         <v>4525</v>
       </c>
-      <c r="K273" s="15">
+      <c r="K273" s="21">
         <v>45512</v>
       </c>
       <c r="L273" s="9"/>
@@ -13859,7 +13863,7 @@
       <c r="J274" s="10">
         <v>10120</v>
       </c>
-      <c r="K274" s="15">
+      <c r="K274" s="21">
         <v>45476</v>
       </c>
       <c r="L274" s="9"/>
@@ -13898,7 +13902,7 @@
       <c r="J275" s="10">
         <v>1422</v>
       </c>
-      <c r="K275" s="15">
+      <c r="K275" s="21">
         <v>45499</v>
       </c>
       <c r="L275" s="9"/>
@@ -13937,7 +13941,7 @@
       <c r="J276" s="10">
         <v>11535</v>
       </c>
-      <c r="K276" s="15">
+      <c r="K276" s="21">
         <v>45476</v>
       </c>
       <c r="L276" s="9"/>
@@ -13976,7 +13980,7 @@
       <c r="J277" s="10">
         <v>12975</v>
       </c>
-      <c r="K277" s="15">
+      <c r="K277" s="21">
         <v>45476</v>
       </c>
       <c r="L277" s="9"/>
@@ -14015,7 +14019,7 @@
       <c r="J278" s="10">
         <v>7471</v>
       </c>
-      <c r="K278" s="15">
+      <c r="K278" s="21">
         <v>45512</v>
       </c>
       <c r="L278" s="9"/>
@@ -14054,7 +14058,7 @@
       <c r="J279" s="10">
         <v>11060</v>
       </c>
-      <c r="K279" s="15">
+      <c r="K279" s="21">
         <v>45478</v>
       </c>
       <c r="L279" s="9"/>
@@ -14093,7 +14097,7 @@
       <c r="J280" s="10">
         <v>5330</v>
       </c>
-      <c r="K280" s="15">
+      <c r="K280" s="21">
         <v>45482</v>
       </c>
       <c r="L280" s="9"/>
@@ -14132,7 +14136,7 @@
       <c r="J281" s="10">
         <v>8250</v>
       </c>
-      <c r="K281" s="15">
+      <c r="K281" s="21">
         <v>45482</v>
       </c>
       <c r="L281" s="9"/>
@@ -14171,7 +14175,7 @@
       <c r="J282" s="10">
         <v>6840</v>
       </c>
-      <c r="K282" s="15">
+      <c r="K282" s="21">
         <v>45482</v>
       </c>
       <c r="L282" s="9"/>
@@ -14210,7 +14214,7 @@
       <c r="J283" s="10">
         <v>6560</v>
       </c>
-      <c r="K283" s="15">
+      <c r="K283" s="21">
         <v>45482</v>
       </c>
       <c r="L283" s="9"/>
@@ -14249,7 +14253,7 @@
       <c r="J284" s="10">
         <v>6480</v>
       </c>
-      <c r="K284" s="15">
+      <c r="K284" s="21">
         <v>45482</v>
       </c>
       <c r="L284" s="9"/>
@@ -14288,7 +14292,7 @@
       <c r="J285" s="10">
         <v>6270</v>
       </c>
-      <c r="K285" s="15">
+      <c r="K285" s="21">
         <v>45483</v>
       </c>
       <c r="L285" s="9"/>
@@ -14327,7 +14331,7 @@
       <c r="J286" s="10">
         <v>8020</v>
       </c>
-      <c r="K286" s="15">
+      <c r="K286" s="21">
         <v>45483</v>
       </c>
       <c r="L286" s="9"/>
@@ -14366,7 +14370,7 @@
       <c r="J287" s="10">
         <v>9480</v>
       </c>
-      <c r="K287" s="15">
+      <c r="K287" s="21">
         <v>45498</v>
       </c>
       <c r="L287" s="9"/>
@@ -14405,7 +14409,7 @@
       <c r="J288" s="10">
         <v>9260</v>
       </c>
-      <c r="K288" s="15">
+      <c r="K288" s="21">
         <v>45499</v>
       </c>
       <c r="L288" s="9"/>
@@ -14444,7 +14448,7 @@
       <c r="J289" s="10">
         <v>7890</v>
       </c>
-      <c r="K289" s="15">
+      <c r="K289" s="21">
         <v>45500</v>
       </c>
       <c r="L289" s="9"/>
@@ -14483,7 +14487,7 @@
       <c r="J290" s="10">
         <v>7980</v>
       </c>
-      <c r="K290" s="15">
+      <c r="K290" s="21">
         <v>45499</v>
       </c>
       <c r="L290" s="9"/>
@@ -14522,7 +14526,7 @@
       <c r="J291" s="10">
         <v>7880</v>
       </c>
-      <c r="K291" s="15">
+      <c r="K291" s="21">
         <v>45499</v>
       </c>
       <c r="L291" s="9"/>
@@ -14561,7 +14565,7 @@
       <c r="J292" s="10">
         <v>8617</v>
       </c>
-      <c r="K292" s="15">
+      <c r="K292" s="21">
         <v>45505</v>
       </c>
       <c r="L292" s="9"/>
@@ -14600,7 +14604,7 @@
       <c r="J293" s="10">
         <v>7480</v>
       </c>
-      <c r="K293" s="15">
+      <c r="K293" s="21">
         <v>45499</v>
       </c>
       <c r="L293" s="9"/>
@@ -14639,7 +14643,7 @@
       <c r="J294" s="10">
         <v>7560</v>
       </c>
-      <c r="K294" s="15">
+      <c r="K294" s="21">
         <v>45497</v>
       </c>
       <c r="L294" s="9"/>
@@ -14678,7 +14682,7 @@
       <c r="J295" s="10">
         <v>6180</v>
       </c>
-      <c r="K295" s="15">
+      <c r="K295" s="21">
         <v>45497</v>
       </c>
       <c r="L295" s="9"/>
@@ -14717,7 +14721,7 @@
       <c r="J296" s="10">
         <v>8410</v>
       </c>
-      <c r="K296" s="15">
+      <c r="K296" s="21">
         <v>45499</v>
       </c>
       <c r="L296" s="9"/>
@@ -14756,7 +14760,7 @@
       <c r="J297" s="10">
         <v>9020</v>
       </c>
-      <c r="K297" s="15">
+      <c r="K297" s="21">
         <v>45499</v>
       </c>
       <c r="L297" s="9"/>
@@ -14795,7 +14799,7 @@
       <c r="J298" s="10">
         <v>7550</v>
       </c>
-      <c r="K298" s="15">
+      <c r="K298" s="21">
         <v>45497</v>
       </c>
       <c r="L298" s="9"/>
@@ -14834,7 +14838,7 @@
       <c r="J299" s="10">
         <v>6580</v>
       </c>
-      <c r="K299" s="15">
+      <c r="K299" s="21">
         <v>45499</v>
       </c>
       <c r="L299" s="9"/>
@@ -14873,7 +14877,7 @@
       <c r="J300" s="10">
         <v>7650</v>
       </c>
-      <c r="K300" s="15">
+      <c r="K300" s="21">
         <v>45498</v>
       </c>
       <c r="L300" s="9"/>
@@ -14912,7 +14916,7 @@
       <c r="J301" s="10">
         <v>7680</v>
       </c>
-      <c r="K301" s="15">
+      <c r="K301" s="21">
         <v>45499</v>
       </c>
       <c r="L301" s="9"/>
@@ -14951,7 +14955,7 @@
       <c r="J302" s="10">
         <v>7390</v>
       </c>
-      <c r="K302" s="15">
+      <c r="K302" s="21">
         <v>45497</v>
       </c>
       <c r="L302" s="9"/>
@@ -14990,7 +14994,7 @@
       <c r="J303" s="10">
         <v>7640</v>
       </c>
-      <c r="K303" s="15">
+      <c r="K303" s="21">
         <v>45498</v>
       </c>
       <c r="L303" s="9"/>
@@ -15029,7 +15033,7 @@
       <c r="J304" s="10">
         <v>7060</v>
       </c>
-      <c r="K304" s="15">
+      <c r="K304" s="21">
         <v>45497</v>
       </c>
       <c r="L304" s="9"/>
@@ -15068,7 +15072,7 @@
       <c r="J305" s="10">
         <v>7800</v>
       </c>
-      <c r="K305" s="15">
+      <c r="K305" s="21">
         <v>45495</v>
       </c>
       <c r="L305" s="9"/>
@@ -15107,7 +15111,7 @@
       <c r="J306" s="10">
         <v>7800</v>
       </c>
-      <c r="K306" s="15">
+      <c r="K306" s="21">
         <v>45497</v>
       </c>
       <c r="L306" s="9"/>
@@ -15146,7 +15150,7 @@
       <c r="J307" s="10">
         <v>7380</v>
       </c>
-      <c r="K307" s="15">
+      <c r="K307" s="21">
         <v>45499</v>
       </c>
       <c r="L307" s="9"/>
@@ -15185,7 +15189,7 @@
       <c r="J308" s="10">
         <v>7700</v>
       </c>
-      <c r="K308" s="15">
+      <c r="K308" s="21">
         <v>45498</v>
       </c>
       <c r="L308" s="9"/>
@@ -15224,7 +15228,7 @@
       <c r="J309" s="10">
         <v>7250</v>
       </c>
-      <c r="K309" s="15">
+      <c r="K309" s="21">
         <v>45499</v>
       </c>
       <c r="L309" s="9"/>
@@ -15263,7 +15267,7 @@
       <c r="J310" s="10">
         <v>7240</v>
       </c>
-      <c r="K310" s="15">
+      <c r="K310" s="21">
         <v>45498</v>
       </c>
       <c r="L310" s="9"/>
@@ -15302,7 +15306,7 @@
       <c r="J311" s="10">
         <v>8307</v>
       </c>
-      <c r="K311" s="15">
+      <c r="K311" s="21">
         <v>45521</v>
       </c>
       <c r="L311" s="9"/>
@@ -15341,7 +15345,7 @@
       <c r="J312" s="10">
         <v>9660</v>
       </c>
-      <c r="K312" s="15">
+      <c r="K312" s="21">
         <v>45497</v>
       </c>
       <c r="L312" s="9"/>
@@ -15380,7 +15384,7 @@
       <c r="J313" s="10">
         <v>8940</v>
       </c>
-      <c r="K313" s="15">
+      <c r="K313" s="21">
         <v>45497</v>
       </c>
       <c r="L313" s="9"/>
@@ -15419,7 +15423,7 @@
       <c r="J314" s="10">
         <v>9360</v>
       </c>
-      <c r="K314" s="15">
+      <c r="K314" s="21">
         <v>45498</v>
       </c>
       <c r="L314" s="9"/>
@@ -15458,7 +15462,7 @@
       <c r="J315" s="10">
         <v>7820</v>
       </c>
-      <c r="K315" s="15">
+      <c r="K315" s="21">
         <v>45497</v>
       </c>
       <c r="L315" s="9"/>
@@ -15497,7 +15501,7 @@
       <c r="J316" s="10">
         <v>9700</v>
       </c>
-      <c r="K316" s="15">
+      <c r="K316" s="21">
         <v>45497</v>
       </c>
       <c r="L316" s="9"/>
@@ -15536,7 +15540,7 @@
       <c r="J317" s="10">
         <v>8930</v>
       </c>
-      <c r="K317" s="15">
+      <c r="K317" s="21">
         <v>45495</v>
       </c>
       <c r="L317" s="9"/>
@@ -15575,7 +15579,7 @@
       <c r="J318" s="10">
         <v>9390</v>
       </c>
-      <c r="K318" s="15">
+      <c r="K318" s="21">
         <v>45495</v>
       </c>
       <c r="L318" s="9"/>
@@ -15614,7 +15618,7 @@
       <c r="J319" s="10">
         <v>8840</v>
       </c>
-      <c r="K319" s="15">
+      <c r="K319" s="21">
         <v>45497</v>
       </c>
       <c r="L319" s="9"/>
@@ -15653,7 +15657,7 @@
       <c r="J320" s="10">
         <v>9260</v>
       </c>
-      <c r="K320" s="15">
+      <c r="K320" s="21">
         <v>45495</v>
       </c>
       <c r="L320" s="9"/>
@@ -15692,7 +15696,7 @@
       <c r="J321" s="10">
         <v>9080</v>
       </c>
-      <c r="K321" s="15">
+      <c r="K321" s="21">
         <v>45499</v>
       </c>
       <c r="L321" s="9"/>
@@ -15731,7 +15735,7 @@
       <c r="J322" s="10">
         <v>7706</v>
       </c>
-      <c r="K322" s="15">
+      <c r="K322" s="21">
         <v>45505</v>
       </c>
       <c r="L322" s="9"/>
@@ -15770,7 +15774,7 @@
       <c r="J323" s="10">
         <v>7148</v>
       </c>
-      <c r="K323" s="15">
+      <c r="K323" s="21">
         <v>45505</v>
       </c>
       <c r="L323" s="9"/>
@@ -15809,7 +15813,7 @@
       <c r="J324" s="10">
         <v>9560</v>
       </c>
-      <c r="K324" s="15">
+      <c r="K324" s="21">
         <v>45500</v>
       </c>
       <c r="L324" s="9"/>
@@ -15848,7 +15852,7 @@
       <c r="J325" s="10">
         <v>9760</v>
       </c>
-      <c r="K325" s="15">
+      <c r="K325" s="21">
         <v>45499</v>
       </c>
       <c r="L325" s="9"/>
@@ -15887,7 +15891,7 @@
       <c r="J326" s="10">
         <v>9040</v>
       </c>
-      <c r="K326" s="15">
+      <c r="K326" s="21">
         <v>45499</v>
       </c>
       <c r="L326" s="9"/>
@@ -15926,7 +15930,7 @@
       <c r="J327" s="10">
         <v>9820</v>
       </c>
-      <c r="K327" s="15">
+      <c r="K327" s="21">
         <v>45498</v>
       </c>
       <c r="L327" s="9"/>
@@ -15965,7 +15969,7 @@
       <c r="J328" s="10">
         <v>9920</v>
       </c>
-      <c r="K328" s="15">
+      <c r="K328" s="21">
         <v>45497</v>
       </c>
       <c r="L328" s="9"/>
@@ -16004,7 +16008,7 @@
       <c r="J329" s="10">
         <v>9520</v>
       </c>
-      <c r="K329" s="15">
+      <c r="K329" s="21">
         <v>45495</v>
       </c>
       <c r="L329" s="9"/>
@@ -16043,7 +16047,7 @@
       <c r="J330" s="10">
         <v>10100</v>
       </c>
-      <c r="K330" s="15">
+      <c r="K330" s="21">
         <v>45495</v>
       </c>
       <c r="L330" s="9"/>
@@ -16082,7 +16086,7 @@
       <c r="J331" s="10">
         <v>9440</v>
       </c>
-      <c r="K331" s="15">
+      <c r="K331" s="21">
         <v>45500</v>
       </c>
       <c r="L331" s="9"/>
@@ -16121,7 +16125,7 @@
       <c r="J332" s="10">
         <v>9440</v>
       </c>
-      <c r="K332" s="15">
+      <c r="K332" s="21">
         <v>45495</v>
       </c>
       <c r="L332" s="9"/>
@@ -16160,7 +16164,7 @@
       <c r="J333" s="10">
         <v>10000</v>
       </c>
-      <c r="K333" s="15">
+      <c r="K333" s="21">
         <v>45495</v>
       </c>
       <c r="L333" s="9"/>
@@ -16199,7 +16203,7 @@
       <c r="J334" s="10">
         <v>10380</v>
       </c>
-      <c r="K334" s="15">
+      <c r="K334" s="21">
         <v>45495</v>
       </c>
       <c r="L334" s="9"/>
@@ -16238,7 +16242,7 @@
       <c r="J335" s="10">
         <v>9680</v>
       </c>
-      <c r="K335" s="15">
+      <c r="K335" s="21">
         <v>45495</v>
       </c>
       <c r="L335" s="9"/>
@@ -16277,7 +16281,7 @@
       <c r="J336" s="10">
         <v>9910</v>
       </c>
-      <c r="K336" s="15">
+      <c r="K336" s="21">
         <v>45495</v>
       </c>
       <c r="L336" s="9"/>
@@ -16316,7 +16320,7 @@
       <c r="J337" s="10">
         <v>9520</v>
       </c>
-      <c r="K337" s="15">
+      <c r="K337" s="21">
         <v>45495</v>
       </c>
       <c r="L337" s="9"/>
@@ -16355,7 +16359,7 @@
       <c r="J338" s="10">
         <v>9810</v>
       </c>
-      <c r="K338" s="15">
+      <c r="K338" s="21">
         <v>45500</v>
       </c>
       <c r="L338" s="9"/>
@@ -16394,7 +16398,7 @@
       <c r="J339" s="10">
         <v>9450</v>
       </c>
-      <c r="K339" s="15">
+      <c r="K339" s="21">
         <v>45495</v>
       </c>
       <c r="L339" s="9"/>
@@ -16433,7 +16437,7 @@
       <c r="J340" s="10">
         <v>9490</v>
       </c>
-      <c r="K340" s="15">
+      <c r="K340" s="21">
         <v>45499</v>
       </c>
       <c r="L340" s="9"/>
@@ -16472,7 +16476,7 @@
       <c r="J341" s="10">
         <v>9410</v>
       </c>
-      <c r="K341" s="15">
+      <c r="K341" s="21">
         <v>45497</v>
       </c>
       <c r="L341" s="9"/>
@@ -16511,7 +16515,7 @@
       <c r="J342" s="10">
         <v>9040</v>
       </c>
-      <c r="K342" s="15">
+      <c r="K342" s="21">
         <v>45497</v>
       </c>
       <c r="L342" s="9"/>
@@ -16550,7 +16554,7 @@
       <c r="J343" s="10">
         <v>10040</v>
       </c>
-      <c r="K343" s="15">
+      <c r="K343" s="21">
         <v>45497</v>
       </c>
       <c r="L343" s="9"/>
@@ -16589,7 +16593,7 @@
       <c r="J344" s="10">
         <v>10060</v>
       </c>
-      <c r="K344" s="15">
+      <c r="K344" s="21">
         <v>45495</v>
       </c>
       <c r="L344" s="9"/>
@@ -16628,7 +16632,7 @@
       <c r="J345" s="10">
         <v>8880</v>
       </c>
-      <c r="K345" s="15">
+      <c r="K345" s="21">
         <v>45495</v>
       </c>
       <c r="L345" s="9"/>
@@ -16667,7 +16671,7 @@
       <c r="J346" s="10">
         <v>9120</v>
       </c>
-      <c r="K346" s="15">
+      <c r="K346" s="21">
         <v>45499</v>
       </c>
       <c r="L346" s="9"/>
@@ -16706,7 +16710,7 @@
       <c r="J347" s="10">
         <v>9725</v>
       </c>
-      <c r="K347" s="15">
+      <c r="K347" s="21">
         <v>45496</v>
       </c>
       <c r="L347" s="9"/>
@@ -16745,7 +16749,7 @@
       <c r="J348" s="10">
         <v>8260</v>
       </c>
-      <c r="K348" s="15">
+      <c r="K348" s="21">
         <v>45499</v>
       </c>
       <c r="L348" s="9"/>
@@ -16784,7 +16788,7 @@
       <c r="J349" s="10">
         <v>9390</v>
       </c>
-      <c r="K349" s="15">
+      <c r="K349" s="21">
         <v>45497</v>
       </c>
       <c r="L349" s="9"/>
@@ -16823,7 +16827,7 @@
       <c r="J350" s="10">
         <v>8670</v>
       </c>
-      <c r="K350" s="15">
+      <c r="K350" s="21">
         <v>45497</v>
       </c>
       <c r="L350" s="9"/>
@@ -16862,7 +16866,7 @@
       <c r="J351" s="10">
         <v>9400</v>
       </c>
-      <c r="K351" s="15">
+      <c r="K351" s="21">
         <v>45497</v>
       </c>
       <c r="L351" s="9"/>
@@ -16901,7 +16905,7 @@
       <c r="J352" s="10">
         <v>9960</v>
       </c>
-      <c r="K352" s="15">
+      <c r="K352" s="21">
         <v>45495</v>
       </c>
       <c r="L352" s="9"/>
@@ -16940,7 +16944,7 @@
       <c r="J353" s="10">
         <v>9980</v>
       </c>
-      <c r="K353" s="15">
+      <c r="K353" s="21">
         <v>45497</v>
       </c>
       <c r="L353" s="9"/>
@@ -16979,7 +16983,7 @@
       <c r="J354" s="10">
         <v>9680</v>
       </c>
-      <c r="K354" s="15">
+      <c r="K354" s="21">
         <v>45499</v>
       </c>
       <c r="L354" s="9"/>
@@ -17018,7 +17022,7 @@
       <c r="J355" s="10">
         <v>10000</v>
       </c>
-      <c r="K355" s="15">
+      <c r="K355" s="21">
         <v>45497</v>
       </c>
       <c r="L355" s="9"/>
@@ -17057,7 +17061,7 @@
       <c r="J356" s="10">
         <v>9950</v>
       </c>
-      <c r="K356" s="15">
+      <c r="K356" s="21">
         <v>45497</v>
       </c>
       <c r="L356" s="9"/>
@@ -17096,7 +17100,7 @@
       <c r="J357" s="10">
         <v>9220</v>
       </c>
-      <c r="K357" s="15">
+      <c r="K357" s="21">
         <v>45498</v>
       </c>
       <c r="L357" s="9"/>
@@ -17135,7 +17139,7 @@
       <c r="J358" s="10">
         <v>9380</v>
       </c>
-      <c r="K358" s="15">
+      <c r="K358" s="21">
         <v>45495</v>
       </c>
       <c r="L358" s="9"/>
@@ -17174,7 +17178,7 @@
       <c r="J359" s="10">
         <v>9420</v>
       </c>
-      <c r="K359" s="15">
+      <c r="K359" s="21">
         <v>45495</v>
       </c>
       <c r="L359" s="9"/>
@@ -17213,7 +17217,7 @@
       <c r="J360" s="10">
         <v>8220</v>
       </c>
-      <c r="K360" s="15">
+      <c r="K360" s="21">
         <v>45497</v>
       </c>
       <c r="L360" s="9"/>
@@ -17252,7 +17256,7 @@
       <c r="J361" s="10">
         <v>8360</v>
       </c>
-      <c r="K361" s="15">
+      <c r="K361" s="21">
         <v>45499</v>
       </c>
       <c r="L361" s="9"/>
@@ -17291,7 +17295,7 @@
       <c r="J362" s="10">
         <v>8740</v>
       </c>
-      <c r="K362" s="15">
+      <c r="K362" s="21">
         <v>45499</v>
       </c>
       <c r="L362" s="9"/>
@@ -17330,7 +17334,7 @@
       <c r="J363" s="10">
         <v>7920</v>
       </c>
-      <c r="K363" s="15">
+      <c r="K363" s="21">
         <v>45499</v>
       </c>
       <c r="L363" s="9"/>
@@ -17369,7 +17373,7 @@
       <c r="J364" s="10">
         <v>8290</v>
       </c>
-      <c r="K364" s="15">
+      <c r="K364" s="21">
         <v>45499</v>
       </c>
       <c r="L364" s="9"/>
@@ -17408,7 +17412,7 @@
       <c r="J365" s="10">
         <v>7920</v>
       </c>
-      <c r="K365" s="15">
+      <c r="K365" s="21">
         <v>45499</v>
       </c>
       <c r="L365" s="9"/>
@@ -17447,7 +17451,7 @@
       <c r="J366" s="10">
         <v>8840</v>
       </c>
-      <c r="K366" s="15">
+      <c r="K366" s="21">
         <v>45499</v>
       </c>
       <c r="L366" s="9"/>
@@ -17486,7 +17490,7 @@
       <c r="J367" s="10">
         <v>9550</v>
       </c>
-      <c r="K367" s="15">
+      <c r="K367" s="21">
         <v>45499</v>
       </c>
       <c r="L367" s="9"/>
@@ -17525,7 +17529,7 @@
       <c r="J368" s="10">
         <v>9510</v>
       </c>
-      <c r="K368" s="15">
+      <c r="K368" s="21">
         <v>45499</v>
       </c>
       <c r="L368" s="9"/>
@@ -17564,7 +17568,7 @@
       <c r="J369" s="10">
         <v>6660</v>
       </c>
-      <c r="K369" s="15">
+      <c r="K369" s="21">
         <v>45500</v>
       </c>
       <c r="L369" s="9"/>
@@ -17603,7 +17607,7 @@
       <c r="J370" s="10">
         <v>10110</v>
       </c>
-      <c r="K370" s="15">
+      <c r="K370" s="21">
         <v>45498</v>
       </c>
       <c r="L370" s="9"/>
@@ -17642,7 +17646,7 @@
       <c r="J371" s="10">
         <v>9810</v>
       </c>
-      <c r="K371" s="15">
+      <c r="K371" s="21">
         <v>45497</v>
       </c>
       <c r="L371" s="9"/>
@@ -17681,7 +17685,7 @@
       <c r="J372" s="10">
         <v>10110</v>
       </c>
-      <c r="K372" s="15">
+      <c r="K372" s="21">
         <v>45497</v>
       </c>
       <c r="L372" s="9"/>
@@ -17720,7 +17724,7 @@
       <c r="J373" s="10">
         <v>8240</v>
       </c>
-      <c r="K373" s="15">
+      <c r="K373" s="21">
         <v>45499</v>
       </c>
       <c r="L373" s="9"/>
@@ -17759,7 +17763,7 @@
       <c r="J374" s="10">
         <v>7020</v>
       </c>
-      <c r="K374" s="15">
+      <c r="K374" s="21">
         <v>45498</v>
       </c>
       <c r="L374" s="9"/>
@@ -17798,7 +17802,7 @@
       <c r="J375" s="10">
         <v>7710</v>
       </c>
-      <c r="K375" s="15">
+      <c r="K375" s="21">
         <v>45499</v>
       </c>
       <c r="L375" s="9"/>
@@ -17837,7 +17841,7 @@
       <c r="J376" s="10">
         <v>7660</v>
       </c>
-      <c r="K376" s="15">
+      <c r="K376" s="21">
         <v>45499</v>
       </c>
       <c r="L376" s="9"/>
@@ -17876,7 +17880,7 @@
       <c r="J377" s="10">
         <v>9060</v>
       </c>
-      <c r="K377" s="15">
+      <c r="K377" s="21">
         <v>45499</v>
       </c>
       <c r="L377" s="9"/>
@@ -17915,7 +17919,7 @@
       <c r="J378" s="10">
         <v>9050</v>
       </c>
-      <c r="K378" s="15">
+      <c r="K378" s="21">
         <v>45499</v>
       </c>
       <c r="L378" s="9"/>
@@ -17954,7 +17958,7 @@
       <c r="J379" s="10">
         <v>10070</v>
       </c>
-      <c r="K379" s="15">
+      <c r="K379" s="21">
         <v>45497</v>
       </c>
       <c r="L379" s="9"/>
@@ -17993,7 +17997,7 @@
       <c r="J380" s="10">
         <v>9110</v>
       </c>
-      <c r="K380" s="15">
+      <c r="K380" s="21">
         <v>45495</v>
       </c>
       <c r="L380" s="9"/>
@@ -18032,7 +18036,7 @@
       <c r="J381" s="10">
         <v>8810</v>
       </c>
-      <c r="K381" s="15">
+      <c r="K381" s="21">
         <v>45497</v>
       </c>
       <c r="L381" s="9"/>
@@ -18071,7 +18075,7 @@
       <c r="J382" s="10">
         <v>9640</v>
       </c>
-      <c r="K382" s="15">
+      <c r="K382" s="21">
         <v>45495</v>
       </c>
       <c r="L382" s="9"/>
@@ -18110,7 +18114,7 @@
       <c r="J383" s="10">
         <v>10120</v>
       </c>
-      <c r="K383" s="15">
+      <c r="K383" s="21">
         <v>45495</v>
       </c>
       <c r="L383" s="9"/>
@@ -18149,7 +18153,7 @@
       <c r="J384" s="10">
         <v>8420</v>
       </c>
-      <c r="K384" s="15">
+      <c r="K384" s="21">
         <v>45497</v>
       </c>
       <c r="L384" s="9"/>
@@ -18188,7 +18192,7 @@
       <c r="J385" s="10">
         <v>9400</v>
       </c>
-      <c r="K385" s="15">
+      <c r="K385" s="21">
         <v>45497</v>
       </c>
       <c r="L385" s="9"/>
@@ -18227,7 +18231,7 @@
       <c r="J386" s="10">
         <v>9720</v>
       </c>
-      <c r="K386" s="15">
+      <c r="K386" s="21">
         <v>45495</v>
       </c>
       <c r="L386" s="9"/>
@@ -18266,7 +18270,7 @@
       <c r="J387" s="10">
         <v>10100</v>
       </c>
-      <c r="K387" s="15">
+      <c r="K387" s="21">
         <v>45495</v>
       </c>
       <c r="L387" s="9"/>
@@ -18305,7 +18309,7 @@
       <c r="J388" s="10">
         <v>9680</v>
       </c>
-      <c r="K388" s="15">
+      <c r="K388" s="21">
         <v>45500</v>
       </c>
       <c r="L388" s="9"/>
@@ -18344,7 +18348,7 @@
       <c r="J389" s="10">
         <v>8900</v>
       </c>
-      <c r="K389" s="15">
+      <c r="K389" s="21">
         <v>45495</v>
       </c>
       <c r="L389" s="9"/>
@@ -18383,7 +18387,7 @@
       <c r="J390" s="10">
         <v>9680</v>
       </c>
-      <c r="K390" s="15">
+      <c r="K390" s="21">
         <v>45497</v>
       </c>
       <c r="L390" s="9"/>
@@ -18422,7 +18426,7 @@
       <c r="J391" s="10">
         <v>9480</v>
       </c>
-      <c r="K391" s="15">
+      <c r="K391" s="21">
         <v>45495</v>
       </c>
       <c r="L391" s="9"/>
@@ -18461,7 +18465,7 @@
       <c r="J392" s="10">
         <v>8400</v>
       </c>
-      <c r="K392" s="15">
+      <c r="K392" s="21">
         <v>45499</v>
       </c>
       <c r="L392" s="9"/>
@@ -18500,7 +18504,7 @@
       <c r="J393" s="10">
         <v>8680</v>
       </c>
-      <c r="K393" s="15">
+      <c r="K393" s="21">
         <v>45495</v>
       </c>
       <c r="L393" s="9"/>
@@ -18539,7 +18543,7 @@
       <c r="J394" s="10">
         <v>9660</v>
       </c>
-      <c r="K394" s="15">
+      <c r="K394" s="21">
         <v>45499</v>
       </c>
       <c r="L394" s="9"/>
@@ -18578,7 +18582,7 @@
       <c r="J395" s="10">
         <v>9490</v>
       </c>
-      <c r="K395" s="15">
+      <c r="K395" s="21">
         <v>45495</v>
       </c>
       <c r="L395" s="9"/>
@@ -18617,7 +18621,7 @@
       <c r="J396" s="10">
         <v>9490</v>
       </c>
-      <c r="K396" s="15">
+      <c r="K396" s="21">
         <v>45497</v>
       </c>
       <c r="L396" s="9"/>
@@ -18656,7 +18660,7 @@
       <c r="J397" s="10">
         <v>9460</v>
       </c>
-      <c r="K397" s="15">
+      <c r="K397" s="21">
         <v>45495</v>
       </c>
       <c r="L397" s="9"/>
@@ -18695,7 +18699,7 @@
       <c r="J398" s="10">
         <v>9490</v>
       </c>
-      <c r="K398" s="15">
+      <c r="K398" s="21">
         <v>45500</v>
       </c>
       <c r="L398" s="9"/>
@@ -18734,7 +18738,7 @@
       <c r="J399" s="10">
         <v>8190</v>
       </c>
-      <c r="K399" s="15">
+      <c r="K399" s="21">
         <v>45497</v>
       </c>
       <c r="L399" s="9"/>
@@ -18773,7 +18777,7 @@
       <c r="J400" s="10">
         <v>9400</v>
       </c>
-      <c r="K400" s="15">
+      <c r="K400" s="21">
         <v>45499</v>
       </c>
       <c r="L400" s="9"/>
@@ -18812,7 +18816,7 @@
       <c r="J401" s="10">
         <v>9920</v>
       </c>
-      <c r="K401" s="15">
+      <c r="K401" s="21">
         <v>45495</v>
       </c>
       <c r="L401" s="9"/>
@@ -18851,7 +18855,7 @@
       <c r="J402" s="10">
         <v>9450</v>
       </c>
-      <c r="K402" s="15">
+      <c r="K402" s="21">
         <v>45497</v>
       </c>
       <c r="L402" s="9"/>
@@ -18890,7 +18894,7 @@
       <c r="J403" s="10">
         <v>9120</v>
       </c>
-      <c r="K403" s="15">
+      <c r="K403" s="21">
         <v>45498</v>
       </c>
       <c r="L403" s="9"/>
@@ -18929,7 +18933,7 @@
       <c r="J404" s="10">
         <v>7170</v>
       </c>
-      <c r="K404" s="15">
+      <c r="K404" s="21">
         <v>45497</v>
       </c>
       <c r="L404" s="9"/>
@@ -18968,7 +18972,7 @@
       <c r="J405" s="10">
         <v>9520</v>
       </c>
-      <c r="K405" s="15">
+      <c r="K405" s="21">
         <v>45497</v>
       </c>
       <c r="L405" s="9"/>
@@ -19007,7 +19011,7 @@
       <c r="J406" s="10">
         <v>9270</v>
       </c>
-      <c r="K406" s="15">
+      <c r="K406" s="21">
         <v>45499</v>
       </c>
       <c r="L406" s="9"/>
@@ -19046,7 +19050,7 @@
       <c r="J407" s="10">
         <v>9050</v>
       </c>
-      <c r="K407" s="15">
+      <c r="K407" s="21">
         <v>45499</v>
       </c>
       <c r="L407" s="9"/>
@@ -19085,7 +19089,7 @@
       <c r="J408" s="10">
         <v>9610</v>
       </c>
-      <c r="K408" s="15">
+      <c r="K408" s="21">
         <v>45500</v>
       </c>
       <c r="L408" s="9"/>
@@ -19124,7 +19128,7 @@
       <c r="J409" s="10">
         <v>9040</v>
       </c>
-      <c r="K409" s="15">
+      <c r="K409" s="21">
         <v>45495</v>
       </c>
       <c r="L409" s="9"/>
@@ -19163,7 +19167,7 @@
       <c r="J410" s="10">
         <v>9050</v>
       </c>
-      <c r="K410" s="15">
+      <c r="K410" s="21">
         <v>45497</v>
       </c>
       <c r="L410" s="9"/>
@@ -19202,7 +19206,7 @@
       <c r="J411" s="10">
         <v>8560</v>
       </c>
-      <c r="K411" s="15">
+      <c r="K411" s="21">
         <v>45497</v>
       </c>
       <c r="L411" s="9"/>
@@ -19241,7 +19245,7 @@
       <c r="J412" s="10">
         <v>9380</v>
       </c>
-      <c r="K412" s="15">
+      <c r="K412" s="21">
         <v>45499</v>
       </c>
       <c r="L412" s="9"/>
@@ -19280,7 +19284,7 @@
       <c r="J413" s="10">
         <v>9100</v>
       </c>
-      <c r="K413" s="15">
+      <c r="K413" s="21">
         <v>45495</v>
       </c>
       <c r="L413" s="9"/>
@@ -19319,7 +19323,7 @@
       <c r="J414" s="10">
         <v>9480</v>
       </c>
-      <c r="K414" s="15">
+      <c r="K414" s="21">
         <v>45497</v>
       </c>
       <c r="L414" s="9"/>
@@ -19358,7 +19362,7 @@
       <c r="J415" s="10">
         <v>13060</v>
       </c>
-      <c r="K415" s="15">
+      <c r="K415" s="21">
         <v>45495</v>
       </c>
       <c r="L415" s="9"/>
@@ -19397,7 +19401,7 @@
       <c r="J416" s="10">
         <v>13020</v>
       </c>
-      <c r="K416" s="15">
+      <c r="K416" s="21">
         <v>45495</v>
       </c>
       <c r="L416" s="9"/>
@@ -19436,7 +19440,7 @@
       <c r="J417" s="10">
         <v>9850</v>
       </c>
-      <c r="K417" s="15">
+      <c r="K417" s="21">
         <v>45495</v>
       </c>
       <c r="L417" s="9"/>
@@ -19475,7 +19479,7 @@
       <c r="J418" s="10">
         <v>8520</v>
       </c>
-      <c r="K418" s="15">
+      <c r="K418" s="21">
         <v>45497</v>
       </c>
       <c r="L418" s="9"/>
@@ -19514,7 +19518,7 @@
       <c r="J419" s="10">
         <v>9020</v>
       </c>
-      <c r="K419" s="15">
+      <c r="K419" s="21">
         <v>45497</v>
       </c>
       <c r="L419" s="9"/>
@@ -19553,7 +19557,7 @@
       <c r="J420" s="10">
         <v>8860</v>
       </c>
-      <c r="K420" s="15">
+      <c r="K420" s="21">
         <v>45499</v>
       </c>
       <c r="L420" s="9"/>
@@ -19592,7 +19596,7 @@
       <c r="J421" s="10">
         <v>8840</v>
       </c>
-      <c r="K421" s="15">
+      <c r="K421" s="21">
         <v>45499</v>
       </c>
       <c r="L421" s="9"/>
@@ -19631,7 +19635,7 @@
       <c r="J422" s="10">
         <v>8890</v>
       </c>
-      <c r="K422" s="15">
+      <c r="K422" s="21">
         <v>45499</v>
       </c>
       <c r="L422" s="9"/>
@@ -19670,7 +19674,7 @@
       <c r="J423" s="10">
         <v>8410</v>
       </c>
-      <c r="K423" s="15">
+      <c r="K423" s="21">
         <v>45499</v>
       </c>
       <c r="L423" s="9"/>
@@ -19709,7 +19713,7 @@
       <c r="J424" s="10">
         <v>8400</v>
       </c>
-      <c r="K424" s="15">
+      <c r="K424" s="21">
         <v>45499</v>
       </c>
       <c r="L424" s="9"/>
@@ -19748,7 +19752,7 @@
       <c r="J425" s="10">
         <v>6860</v>
       </c>
-      <c r="K425" s="15">
+      <c r="K425" s="21">
         <v>45497</v>
       </c>
       <c r="L425" s="9"/>
@@ -19787,7 +19791,7 @@
       <c r="J426" s="10">
         <v>6865</v>
       </c>
-      <c r="K426" s="15">
+      <c r="K426" s="21">
         <v>45497</v>
       </c>
       <c r="L426" s="9"/>
@@ -19826,7 +19830,7 @@
       <c r="J427" s="10">
         <v>6475</v>
       </c>
-      <c r="K427" s="15">
+      <c r="K427" s="21">
         <v>45497</v>
       </c>
       <c r="L427" s="9"/>
@@ -19865,7 +19869,7 @@
       <c r="J428" s="10">
         <v>5198</v>
       </c>
-      <c r="K428" s="15">
+      <c r="K428" s="21">
         <v>45519</v>
       </c>
       <c r="L428" s="9"/>
@@ -19904,7 +19908,7 @@
       <c r="J429" s="10">
         <v>10910</v>
       </c>
-      <c r="K429" s="15">
+      <c r="K429" s="21">
         <v>45500</v>
       </c>
       <c r="L429" s="9"/>
@@ -19943,7 +19947,7 @@
       <c r="J430" s="10">
         <v>10955</v>
       </c>
-      <c r="K430" s="15">
+      <c r="K430" s="21">
         <v>45502</v>
       </c>
       <c r="L430" s="9"/>
@@ -19982,7 +19986,7 @@
       <c r="J431" s="10">
         <v>5720</v>
       </c>
-      <c r="K431" s="15">
+      <c r="K431" s="21">
         <v>45516</v>
       </c>
       <c r="L431" s="9"/>
@@ -20021,7 +20025,7 @@
       <c r="J432" s="10">
         <v>11125</v>
       </c>
-      <c r="K432" s="15">
+      <c r="K432" s="21">
         <v>45500</v>
       </c>
       <c r="L432" s="9"/>
@@ -20060,7 +20064,7 @@
       <c r="J433" s="10">
         <v>6387</v>
       </c>
-      <c r="K433" s="15">
+      <c r="K433" s="21">
         <v>45518</v>
       </c>
       <c r="L433" s="9"/>
@@ -20099,7 +20103,7 @@
       <c r="J434" s="10">
         <v>8370</v>
       </c>
-      <c r="K434" s="15">
+      <c r="K434" s="21">
         <v>45500</v>
       </c>
       <c r="L434" s="9"/>
@@ -20138,7 +20142,7 @@
       <c r="J435" s="10">
         <v>11505</v>
       </c>
-      <c r="K435" s="15">
+      <c r="K435" s="21">
         <v>45499</v>
       </c>
       <c r="L435" s="9"/>
@@ -20177,7 +20181,7 @@
       <c r="J436" s="10">
         <v>11345</v>
       </c>
-      <c r="K436" s="15">
+      <c r="K436" s="21">
         <v>45502</v>
       </c>
       <c r="L436" s="9"/>
@@ -20216,7 +20220,7 @@
       <c r="J437" s="10">
         <v>10585</v>
       </c>
-      <c r="K437" s="15">
+      <c r="K437" s="21">
         <v>45506</v>
       </c>
       <c r="L437" s="9"/>
@@ -20255,7 +20259,7 @@
       <c r="J438" s="10">
         <v>11630</v>
       </c>
-      <c r="K438" s="15">
+      <c r="K438" s="21">
         <v>45500</v>
       </c>
       <c r="L438" s="9"/>
@@ -20294,7 +20298,7 @@
       <c r="J439" s="10">
         <v>11395</v>
       </c>
-      <c r="K439" s="15">
+      <c r="K439" s="21">
         <v>45500</v>
       </c>
       <c r="L439" s="9"/>
@@ -20333,7 +20337,7 @@
       <c r="J440" s="10">
         <v>11055</v>
       </c>
-      <c r="K440" s="15">
+      <c r="K440" s="21">
         <v>45500</v>
       </c>
       <c r="L440" s="9"/>
@@ -20372,7 +20376,7 @@
       <c r="J441" s="10">
         <v>8990</v>
       </c>
-      <c r="K441" s="15">
+      <c r="K441" s="21">
         <v>45499</v>
       </c>
       <c r="L441" s="9"/>
@@ -20411,7 +20415,7 @@
       <c r="J442" s="10">
         <v>2151</v>
       </c>
-      <c r="K442" s="15">
+      <c r="K442" s="21">
         <v>45516</v>
       </c>
       <c r="L442" s="9"/>
@@ -20450,7 +20454,7 @@
       <c r="J443" s="10">
         <v>4088</v>
       </c>
-      <c r="K443" s="15">
+      <c r="K443" s="21">
         <v>45505</v>
       </c>
       <c r="L443" s="9"/>
@@ -20489,7 +20493,7 @@
       <c r="J444" s="10">
         <v>9269</v>
       </c>
-      <c r="K444" s="15">
+      <c r="K444" s="21">
         <v>45502</v>
       </c>
       <c r="L444" s="9"/>
@@ -20528,7 +20532,7 @@
       <c r="J445" s="10">
         <v>8358</v>
       </c>
-      <c r="K445" s="15">
+      <c r="K445" s="21">
         <v>45502</v>
       </c>
       <c r="L445" s="9"/>
@@ -20567,7 +20571,7 @@
       <c r="J446" s="10">
         <v>8193</v>
       </c>
-      <c r="K446" s="15">
+      <c r="K446" s="21">
         <v>45502</v>
       </c>
       <c r="L446" s="9"/>
@@ -20606,7 +20610,7 @@
       <c r="J447" s="10">
         <v>8377</v>
       </c>
-      <c r="K447" s="15">
+      <c r="K447" s="21">
         <v>45502</v>
       </c>
       <c r="L447" s="9"/>
@@ -20645,7 +20649,7 @@
       <c r="J448" s="10">
         <v>8885</v>
       </c>
-      <c r="K448" s="15">
+      <c r="K448" s="21">
         <v>45502</v>
       </c>
       <c r="L448" s="9"/>
@@ -20684,7 +20688,7 @@
       <c r="J449" s="10">
         <v>8766</v>
       </c>
-      <c r="K449" s="15">
+      <c r="K449" s="21">
         <v>45502</v>
       </c>
       <c r="L449" s="9"/>
@@ -20723,7 +20727,7 @@
       <c r="J450" s="10">
         <v>3300</v>
       </c>
-      <c r="K450" s="15">
+      <c r="K450" s="21">
         <v>45514</v>
       </c>
       <c r="L450" s="9"/>
@@ -20762,7 +20766,7 @@
       <c r="J451" s="10">
         <v>9081</v>
       </c>
-      <c r="K451" s="15">
+      <c r="K451" s="21">
         <v>45500</v>
       </c>
       <c r="L451" s="9"/>
@@ -20801,7 +20805,7 @@
       <c r="J452" s="10">
         <v>8078</v>
       </c>
-      <c r="K452" s="15">
+      <c r="K452" s="21">
         <v>45500</v>
       </c>
       <c r="L452" s="9"/>
@@ -20840,7 +20844,7 @@
       <c r="J453" s="10">
         <v>8747</v>
       </c>
-      <c r="K453" s="15">
+      <c r="K453" s="21">
         <v>45502</v>
       </c>
       <c r="L453" s="9"/>
@@ -20879,7 +20883,7 @@
       <c r="J454" s="10">
         <v>8333</v>
       </c>
-      <c r="K454" s="15">
+      <c r="K454" s="21">
         <v>45500</v>
       </c>
       <c r="L454" s="9"/>
@@ -20918,7 +20922,7 @@
       <c r="J455" s="10">
         <v>4650</v>
       </c>
-      <c r="K455" s="15">
+      <c r="K455" s="21">
         <v>45507</v>
       </c>
       <c r="L455" s="9"/>
@@ -20957,7 +20961,7 @@
       <c r="J456" s="10">
         <v>8800</v>
       </c>
-      <c r="K456" s="15">
+      <c r="K456" s="21">
         <v>45502</v>
       </c>
       <c r="L456" s="9"/>
@@ -20996,7 +21000,7 @@
       <c r="J457" s="10">
         <v>8710</v>
       </c>
-      <c r="K457" s="15">
+      <c r="K457" s="21">
         <v>45502</v>
       </c>
       <c r="L457" s="9"/>
@@ -21035,7 +21039,7 @@
       <c r="J458" s="10">
         <v>9260</v>
       </c>
-      <c r="K458" s="15">
+      <c r="K458" s="21">
         <v>45502</v>
       </c>
       <c r="L458" s="9"/>
@@ -21074,7 +21078,7 @@
       <c r="J459" s="10">
         <v>8740</v>
       </c>
-      <c r="K459" s="15">
+      <c r="K459" s="21">
         <v>45502</v>
       </c>
       <c r="L459" s="9"/>
@@ -21113,7 +21117,7 @@
       <c r="J460" s="10">
         <v>8780</v>
       </c>
-      <c r="K460" s="15">
+      <c r="K460" s="21">
         <v>45502</v>
       </c>
       <c r="L460" s="9"/>
@@ -21152,7 +21156,7 @@
       <c r="J461" s="10">
         <v>9660</v>
       </c>
-      <c r="K461" s="15">
+      <c r="K461" s="21">
         <v>45503</v>
       </c>
       <c r="L461" s="9"/>
@@ -21191,7 +21195,7 @@
       <c r="J462" s="10">
         <v>9810</v>
       </c>
-      <c r="K462" s="15">
+      <c r="K462" s="21">
         <v>45503</v>
       </c>
       <c r="L462" s="9"/>
@@ -21230,7 +21234,7 @@
       <c r="J463" s="10">
         <v>10100</v>
       </c>
-      <c r="K463" s="15">
+      <c r="K463" s="21">
         <v>45503</v>
       </c>
       <c r="L463" s="9"/>
@@ -21269,7 +21273,7 @@
       <c r="J464" s="10">
         <v>10130</v>
       </c>
-      <c r="K464" s="15">
+      <c r="K464" s="21">
         <v>45503</v>
       </c>
       <c r="L464" s="9"/>
@@ -21308,7 +21312,7 @@
       <c r="J465" s="10">
         <v>8200</v>
       </c>
-      <c r="K465" s="15">
+      <c r="K465" s="21">
         <v>45502</v>
       </c>
       <c r="L465" s="9"/>
@@ -21347,7 +21351,7 @@
       <c r="J466" s="10">
         <v>8250</v>
       </c>
-      <c r="K466" s="15">
+      <c r="K466" s="21">
         <v>45502</v>
       </c>
       <c r="L466" s="9"/>
@@ -21386,7 +21390,7 @@
       <c r="J467" s="10">
         <v>9110</v>
       </c>
-      <c r="K467" s="15">
+      <c r="K467" s="21">
         <v>45502</v>
       </c>
       <c r="L467" s="9"/>
@@ -21425,7 +21429,7 @@
       <c r="J468" s="10">
         <v>9630</v>
       </c>
-      <c r="K468" s="15">
+      <c r="K468" s="21">
         <v>45502</v>
       </c>
       <c r="L468" s="9"/>
@@ -21464,7 +21468,7 @@
       <c r="J469" s="10">
         <v>10700</v>
       </c>
-      <c r="K469" s="15">
+      <c r="K469" s="21">
         <v>45502</v>
       </c>
       <c r="L469" s="9"/>
@@ -21503,7 +21507,7 @@
       <c r="J470" s="10">
         <v>9040</v>
       </c>
-      <c r="K470" s="15">
+      <c r="K470" s="21">
         <v>45502</v>
       </c>
       <c r="L470" s="9"/>
@@ -21542,7 +21546,7 @@
       <c r="J471" s="10">
         <v>8970</v>
       </c>
-      <c r="K471" s="15">
+      <c r="K471" s="21">
         <v>45502</v>
       </c>
       <c r="L471" s="9"/>
@@ -21581,7 +21585,7 @@
       <c r="J472" s="10">
         <v>6192</v>
       </c>
-      <c r="K472" s="15">
+      <c r="K472" s="21">
         <v>45520</v>
       </c>
       <c r="L472" s="9"/>
@@ -21620,7 +21624,7 @@
       <c r="J473" s="10">
         <v>9550</v>
       </c>
-      <c r="K473" s="15">
+      <c r="K473" s="21">
         <v>45502</v>
       </c>
       <c r="L473" s="9"/>
@@ -21659,7 +21663,7 @@
       <c r="J474" s="10">
         <v>9380</v>
       </c>
-      <c r="K474" s="15">
+      <c r="K474" s="21">
         <v>45502</v>
       </c>
       <c r="L474" s="9"/>
@@ -21698,7 +21702,7 @@
       <c r="J475" s="10">
         <v>9530</v>
       </c>
-      <c r="K475" s="15">
+      <c r="K475" s="21">
         <v>45502</v>
       </c>
       <c r="L475" s="9"/>
@@ -21737,7 +21741,7 @@
       <c r="J476" s="10">
         <v>5000</v>
       </c>
-      <c r="K476" s="15">
+      <c r="K476" s="21">
         <v>45503</v>
       </c>
       <c r="L476" s="9"/>
@@ -21776,7 +21780,7 @@
       <c r="J477" s="10">
         <v>8320</v>
       </c>
-      <c r="K477" s="15">
+      <c r="K477" s="21">
         <v>45502</v>
       </c>
       <c r="L477" s="9"/>
@@ -21815,7 +21819,7 @@
       <c r="J478" s="10">
         <v>8310</v>
       </c>
-      <c r="K478" s="15">
+      <c r="K478" s="21">
         <v>45502</v>
       </c>
       <c r="L478" s="9"/>
@@ -21854,7 +21858,7 @@
       <c r="J479" s="10">
         <v>8280</v>
       </c>
-      <c r="K479" s="15">
+      <c r="K479" s="21">
         <v>45502</v>
       </c>
       <c r="L479" s="9"/>
@@ -21893,7 +21897,7 @@
       <c r="J480" s="10">
         <v>10150</v>
       </c>
-      <c r="K480" s="15">
+      <c r="K480" s="21">
         <v>45502</v>
       </c>
       <c r="L480" s="9"/>
@@ -21932,7 +21936,7 @@
       <c r="J481" s="10">
         <v>9820</v>
       </c>
-      <c r="K481" s="15">
+      <c r="K481" s="21">
         <v>45502</v>
       </c>
       <c r="L481" s="9"/>
@@ -21971,7 +21975,7 @@
       <c r="J482" s="10">
         <v>10090</v>
       </c>
-      <c r="K482" s="15">
+      <c r="K482" s="21">
         <v>45502</v>
       </c>
       <c r="L482" s="9"/>
@@ -22010,7 +22014,7 @@
       <c r="J483" s="10">
         <v>10060</v>
       </c>
-      <c r="K483" s="15">
+      <c r="K483" s="21">
         <v>45502</v>
       </c>
       <c r="L483" s="9"/>
@@ -22049,7 +22053,7 @@
       <c r="J484" s="10">
         <v>10180</v>
       </c>
-      <c r="K484" s="15">
+      <c r="K484" s="21">
         <v>45502</v>
       </c>
       <c r="L484" s="9"/>
@@ -22088,7 +22092,7 @@
       <c r="J485" s="10">
         <v>10140</v>
       </c>
-      <c r="K485" s="15">
+      <c r="K485" s="21">
         <v>45502</v>
       </c>
       <c r="L485" s="9"/>
@@ -22127,7 +22131,7 @@
       <c r="J486" s="10">
         <v>9240</v>
       </c>
-      <c r="K486" s="15">
+      <c r="K486" s="21">
         <v>45502</v>
       </c>
       <c r="L486" s="9"/>
@@ -22166,7 +22170,7 @@
       <c r="J487" s="10">
         <v>9260</v>
       </c>
-      <c r="K487" s="15">
+      <c r="K487" s="21">
         <v>45503</v>
       </c>
       <c r="L487" s="9"/>
@@ -22205,7 +22209,7 @@
       <c r="J488" s="10">
         <v>8920</v>
       </c>
-      <c r="K488" s="15">
+      <c r="K488" s="21">
         <v>45502</v>
       </c>
       <c r="L488" s="9"/>
@@ -22244,7 +22248,7 @@
       <c r="J489" s="10">
         <v>8740</v>
       </c>
-      <c r="K489" s="15">
+      <c r="K489" s="21">
         <v>45502</v>
       </c>
       <c r="L489" s="9"/>
@@ -22283,7 +22287,7 @@
       <c r="J490" s="10">
         <v>9250</v>
       </c>
-      <c r="K490" s="15">
+      <c r="K490" s="21">
         <v>45502</v>
       </c>
       <c r="L490" s="9"/>
@@ -22322,7 +22326,7 @@
       <c r="J491" s="10">
         <v>8260</v>
       </c>
-      <c r="K491" s="15">
+      <c r="K491" s="21">
         <v>45502</v>
       </c>
       <c r="L491" s="9"/>
@@ -22361,7 +22365,7 @@
       <c r="J492" s="10">
         <v>8970</v>
       </c>
-      <c r="K492" s="15">
+      <c r="K492" s="21">
         <v>45503</v>
       </c>
       <c r="L492" s="9"/>
@@ -22400,7 +22404,7 @@
       <c r="J493" s="10">
         <v>8960</v>
       </c>
-      <c r="K493" s="15">
+      <c r="K493" s="21">
         <v>45502</v>
       </c>
       <c r="L493" s="9"/>
@@ -22439,7 +22443,7 @@
       <c r="J494" s="10">
         <v>9060</v>
       </c>
-      <c r="K494" s="15">
+      <c r="K494" s="21">
         <v>45502</v>
       </c>
       <c r="L494" s="9"/>
@@ -22478,7 +22482,7 @@
       <c r="J495" s="10">
         <v>8560</v>
       </c>
-      <c r="K495" s="15">
+      <c r="K495" s="21">
         <v>45502</v>
       </c>
       <c r="L495" s="9"/>
@@ -22517,7 +22521,7 @@
       <c r="J496" s="10">
         <v>8140</v>
       </c>
-      <c r="K496" s="15">
+      <c r="K496" s="21">
         <v>45502</v>
       </c>
       <c r="L496" s="9"/>
@@ -22556,7 +22560,7 @@
       <c r="J497" s="10">
         <v>9290</v>
       </c>
-      <c r="K497" s="15">
+      <c r="K497" s="21">
         <v>45502</v>
       </c>
       <c r="L497" s="9"/>
@@ -22595,7 +22599,7 @@
       <c r="J498" s="10">
         <v>8890</v>
       </c>
-      <c r="K498" s="15">
+      <c r="K498" s="21">
         <v>45502</v>
       </c>
       <c r="L498" s="9"/>
@@ -22634,7 +22638,7 @@
       <c r="J499" s="10">
         <v>8740</v>
       </c>
-      <c r="K499" s="15">
+      <c r="K499" s="21">
         <v>45502</v>
       </c>
       <c r="L499" s="9"/>
@@ -22673,7 +22677,7 @@
       <c r="J500" s="10">
         <v>8760</v>
       </c>
-      <c r="K500" s="15">
+      <c r="K500" s="21">
         <v>45502</v>
       </c>
       <c r="L500" s="9"/>
@@ -22712,7 +22716,7 @@
       <c r="J501" s="10">
         <v>8550</v>
       </c>
-      <c r="K501" s="15">
+      <c r="K501" s="21">
         <v>45502</v>
       </c>
       <c r="L501" s="9"/>
@@ -22751,7 +22755,7 @@
       <c r="J502" s="10">
         <v>8900</v>
       </c>
-      <c r="K502" s="15">
+      <c r="K502" s="21">
         <v>45502</v>
       </c>
       <c r="L502" s="9"/>
@@ -22790,7 +22794,7 @@
       <c r="J503" s="10">
         <v>9270</v>
       </c>
-      <c r="K503" s="15">
+      <c r="K503" s="21">
         <v>45502</v>
       </c>
       <c r="L503" s="9"/>
@@ -22829,7 +22833,7 @@
       <c r="J504" s="10">
         <v>9270</v>
       </c>
-      <c r="K504" s="15">
+      <c r="K504" s="21">
         <v>45502</v>
       </c>
       <c r="L504" s="9"/>
@@ -22868,7 +22872,7 @@
       <c r="J505" s="10">
         <v>9110</v>
       </c>
-      <c r="K505" s="15">
+      <c r="K505" s="21">
         <v>45502</v>
       </c>
       <c r="L505" s="9"/>
@@ -22907,7 +22911,7 @@
       <c r="J506" s="10">
         <v>9300</v>
       </c>
-      <c r="K506" s="15">
+      <c r="K506" s="21">
         <v>45502</v>
       </c>
       <c r="L506" s="9"/>
@@ -22946,7 +22950,7 @@
       <c r="J507" s="10">
         <v>9250</v>
       </c>
-      <c r="K507" s="15">
+      <c r="K507" s="21">
         <v>45502</v>
       </c>
       <c r="L507" s="9"/>
@@ -22985,7 +22989,7 @@
       <c r="J508" s="10">
         <v>8420</v>
       </c>
-      <c r="K508" s="15">
+      <c r="K508" s="21">
         <v>45502</v>
       </c>
       <c r="L508" s="9"/>
@@ -23024,7 +23028,7 @@
       <c r="J509" s="10">
         <v>8580</v>
       </c>
-      <c r="K509" s="15">
+      <c r="K509" s="21">
         <v>45502</v>
       </c>
       <c r="L509" s="9"/>
@@ -23063,7 +23067,7 @@
       <c r="J510" s="10">
         <v>9580</v>
       </c>
-      <c r="K510" s="15">
+      <c r="K510" s="21">
         <v>45503</v>
       </c>
       <c r="L510" s="9"/>
@@ -23102,7 +23106,7 @@
       <c r="J511" s="10">
         <v>10110</v>
       </c>
-      <c r="K511" s="15">
+      <c r="K511" s="21">
         <v>45502</v>
       </c>
       <c r="L511" s="9"/>
@@ -23141,7 +23145,7 @@
       <c r="J512" s="10">
         <v>8720</v>
       </c>
-      <c r="K512" s="15">
+      <c r="K512" s="21">
         <v>45502</v>
       </c>
       <c r="L512" s="9"/>
@@ -23180,7 +23184,7 @@
       <c r="J513" s="10">
         <v>8750</v>
       </c>
-      <c r="K513" s="15">
+      <c r="K513" s="21">
         <v>45502</v>
       </c>
       <c r="L513" s="9"/>
@@ -23219,7 +23223,7 @@
       <c r="J514" s="10">
         <v>8770</v>
       </c>
-      <c r="K514" s="15">
+      <c r="K514" s="21">
         <v>45502</v>
       </c>
       <c r="L514" s="9"/>
@@ -23258,7 +23262,7 @@
       <c r="J515" s="10">
         <v>8700</v>
       </c>
-      <c r="K515" s="15">
+      <c r="K515" s="21">
         <v>45502</v>
       </c>
       <c r="L515" s="9"/>
@@ -23297,7 +23301,7 @@
       <c r="J516" s="10">
         <v>8510</v>
       </c>
-      <c r="K516" s="15">
+      <c r="K516" s="21">
         <v>45502</v>
       </c>
       <c r="L516" s="9"/>
@@ -23336,7 +23340,7 @@
       <c r="J517" s="10">
         <v>9910</v>
       </c>
-      <c r="K517" s="15">
+      <c r="K517" s="21">
         <v>45503</v>
       </c>
       <c r="L517" s="9"/>
@@ -23375,7 +23379,7 @@
       <c r="J518" s="10">
         <v>9850</v>
       </c>
-      <c r="K518" s="15">
+      <c r="K518" s="21">
         <v>45503</v>
       </c>
       <c r="L518" s="9"/>
@@ -23414,7 +23418,7 @@
       <c r="J519" s="10">
         <v>9790</v>
       </c>
-      <c r="K519" s="15">
+      <c r="K519" s="21">
         <v>45503</v>
       </c>
       <c r="L519" s="9"/>
@@ -23453,7 +23457,7 @@
       <c r="J520" s="10">
         <v>8990</v>
       </c>
-      <c r="K520" s="15">
+      <c r="K520" s="21">
         <v>45502</v>
       </c>
       <c r="L520" s="9"/>
@@ -23492,7 +23496,7 @@
       <c r="J521" s="10">
         <v>8910</v>
       </c>
-      <c r="K521" s="15">
+      <c r="K521" s="21">
         <v>45502</v>
       </c>
       <c r="L521" s="9"/>
@@ -23531,7 +23535,7 @@
       <c r="J522" s="10">
         <v>9640</v>
       </c>
-      <c r="K522" s="15">
+      <c r="K522" s="21">
         <v>45502</v>
       </c>
       <c r="L522" s="9"/>
@@ -23570,7 +23574,7 @@
       <c r="J523" s="10">
         <v>9140</v>
       </c>
-      <c r="K523" s="15">
+      <c r="K523" s="21">
         <v>45502</v>
       </c>
       <c r="L523" s="9"/>
@@ -23609,7 +23613,7 @@
       <c r="J524" s="10">
         <v>8760</v>
       </c>
-      <c r="K524" s="15">
+      <c r="K524" s="21">
         <v>45502</v>
       </c>
       <c r="L524" s="9"/>
@@ -23648,7 +23652,7 @@
       <c r="J525" s="10">
         <v>8750</v>
       </c>
-      <c r="K525" s="15">
+      <c r="K525" s="21">
         <v>45502</v>
       </c>
       <c r="L525" s="9"/>
@@ -23687,7 +23691,7 @@
       <c r="J526" s="10">
         <v>8540</v>
       </c>
-      <c r="K526" s="15">
+      <c r="K526" s="21">
         <v>45502</v>
       </c>
       <c r="L526" s="9"/>
@@ -23726,7 +23730,7 @@
       <c r="J527" s="10">
         <v>8260</v>
       </c>
-      <c r="K527" s="15">
+      <c r="K527" s="21">
         <v>45502</v>
       </c>
       <c r="L527" s="9"/>
@@ -23765,7 +23769,7 @@
       <c r="J528" s="10">
         <v>8620</v>
       </c>
-      <c r="K528" s="15">
+      <c r="K528" s="21">
         <v>45502</v>
       </c>
       <c r="L528" s="9"/>
@@ -23804,7 +23808,7 @@
       <c r="J529" s="10">
         <v>8090</v>
       </c>
-      <c r="K529" s="15">
+      <c r="K529" s="21">
         <v>45502</v>
       </c>
       <c r="L529" s="9"/>
@@ -23843,7 +23847,7 @@
       <c r="J530" s="10">
         <v>8260</v>
       </c>
-      <c r="K530" s="15">
+      <c r="K530" s="21">
         <v>45502</v>
       </c>
       <c r="L530" s="9"/>
@@ -23882,7 +23886,7 @@
       <c r="J531" s="10">
         <v>8510</v>
       </c>
-      <c r="K531" s="15">
+      <c r="K531" s="21">
         <v>45502</v>
       </c>
       <c r="L531" s="9"/>
@@ -23921,7 +23925,7 @@
       <c r="J532" s="10">
         <v>9180</v>
       </c>
-      <c r="K532" s="15">
+      <c r="K532" s="21">
         <v>45502</v>
       </c>
       <c r="L532" s="9"/>
@@ -23960,7 +23964,7 @@
       <c r="J533" s="10">
         <v>10130</v>
       </c>
-      <c r="K533" s="15">
+      <c r="K533" s="21">
         <v>45502</v>
       </c>
       <c r="L533" s="9"/>
@@ -23999,7 +24003,7 @@
       <c r="J534" s="10">
         <v>10130</v>
       </c>
-      <c r="K534" s="15">
+      <c r="K534" s="21">
         <v>45502</v>
       </c>
       <c r="L534" s="9"/>
@@ -24038,7 +24042,7 @@
       <c r="J535" s="10">
         <v>9400</v>
       </c>
-      <c r="K535" s="15">
+      <c r="K535" s="21">
         <v>45503</v>
       </c>
       <c r="L535" s="9"/>
@@ -24077,7 +24081,7 @@
       <c r="J536" s="10">
         <v>9060</v>
       </c>
-      <c r="K536" s="15">
+      <c r="K536" s="21">
         <v>45503</v>
       </c>
       <c r="L536" s="9"/>
@@ -24116,7 +24120,7 @@
       <c r="J537" s="10">
         <v>8966</v>
       </c>
-      <c r="K537" s="15">
+      <c r="K537" s="21">
         <v>45504</v>
       </c>
       <c r="L537" s="9"/>
@@ -24155,7 +24159,7 @@
       <c r="J538" s="10">
         <v>8794</v>
       </c>
-      <c r="K538" s="15">
+      <c r="K538" s="21">
         <v>45504</v>
       </c>
       <c r="L538" s="9"/>
@@ -24194,7 +24198,7 @@
       <c r="J539" s="10">
         <v>4860</v>
       </c>
-      <c r="K539" s="15">
+      <c r="K539" s="21">
         <v>45518</v>
       </c>
       <c r="L539" s="9"/>
@@ -24233,7 +24237,7 @@
       <c r="J540" s="10">
         <v>3814</v>
       </c>
-      <c r="K540" s="15">
+      <c r="K540" s="21">
         <v>45506</v>
       </c>
       <c r="L540" s="9"/>
@@ -24272,7 +24276,7 @@
       <c r="J541" s="10">
         <v>8776</v>
       </c>
-      <c r="K541" s="15">
+      <c r="K541" s="21">
         <v>45504</v>
       </c>
       <c r="L541" s="9"/>
@@ -24311,7 +24315,7 @@
       <c r="J542" s="10">
         <v>8741</v>
       </c>
-      <c r="K542" s="15">
+      <c r="K542" s="21">
         <v>45504</v>
       </c>
       <c r="L542" s="9"/>
@@ -24350,7 +24354,7 @@
       <c r="J543" s="10">
         <v>7571</v>
       </c>
-      <c r="K543" s="15">
+      <c r="K543" s="21">
         <v>45504</v>
       </c>
       <c r="L543" s="9"/>
@@ -24389,7 +24393,7 @@
       <c r="J544" s="10">
         <v>8537</v>
       </c>
-      <c r="K544" s="15">
+      <c r="K544" s="21">
         <v>45504</v>
       </c>
       <c r="L544" s="9"/>
@@ -24428,7 +24432,7 @@
       <c r="J545" s="10">
         <v>8537</v>
       </c>
-      <c r="K545" s="15">
+      <c r="K545" s="21">
         <v>45504</v>
       </c>
       <c r="L545" s="9"/>
@@ -24467,7 +24471,7 @@
       <c r="J546" s="10">
         <v>8396</v>
       </c>
-      <c r="K546" s="15">
+      <c r="K546" s="21">
         <v>45504</v>
       </c>
       <c r="L546" s="9"/>
@@ -24506,7 +24510,7 @@
       <c r="J547" s="10">
         <v>13452</v>
       </c>
-      <c r="K547" s="15">
+      <c r="K547" s="21">
         <v>45504</v>
       </c>
       <c r="L547" s="9"/>
@@ -24545,7 +24549,7 @@
       <c r="J548" s="10">
         <v>8920</v>
       </c>
-      <c r="K548" s="15">
+      <c r="K548" s="21">
         <v>45506</v>
       </c>
       <c r="L548" s="9"/>
@@ -24584,7 +24588,7 @@
       <c r="J549" s="10">
         <v>8430</v>
       </c>
-      <c r="K549" s="15">
+      <c r="K549" s="21">
         <v>45506</v>
       </c>
       <c r="L549" s="9"/>
@@ -24623,7 +24627,7 @@
       <c r="J550" s="10">
         <v>9570</v>
       </c>
-      <c r="K550" s="15">
+      <c r="K550" s="21">
         <v>45506</v>
       </c>
       <c r="L550" s="9"/>
@@ -24662,7 +24666,7 @@
       <c r="J551" s="10">
         <v>8980</v>
       </c>
-      <c r="K551" s="15">
+      <c r="K551" s="21">
         <v>45506</v>
       </c>
       <c r="L551" s="9"/>
@@ -24701,7 +24705,7 @@
       <c r="J552" s="10">
         <v>6050</v>
       </c>
-      <c r="K552" s="15">
+      <c r="K552" s="21">
         <v>45506</v>
       </c>
       <c r="L552" s="9"/>
@@ -24740,7 +24744,7 @@
       <c r="J553" s="10">
         <v>7530</v>
       </c>
-      <c r="K553" s="15">
+      <c r="K553" s="21">
         <v>45506</v>
       </c>
       <c r="L553" s="9"/>
@@ -24779,7 +24783,7 @@
       <c r="J554" s="10">
         <v>9064</v>
       </c>
-      <c r="K554" s="15">
+      <c r="K554" s="21">
         <v>45511</v>
       </c>
       <c r="L554" s="9"/>
@@ -24818,7 +24822,7 @@
       <c r="J555" s="10">
         <v>8925</v>
       </c>
-      <c r="K555" s="15">
+      <c r="K555" s="21">
         <v>45511</v>
       </c>
       <c r="L555" s="9"/>
@@ -24857,7 +24861,7 @@
       <c r="J556" s="10">
         <v>8995</v>
       </c>
-      <c r="K556" s="15">
+      <c r="K556" s="21">
         <v>45511</v>
       </c>
       <c r="L556" s="9"/>
@@ -24896,7 +24900,7 @@
       <c r="J557" s="10">
         <v>9076</v>
       </c>
-      <c r="K557" s="15">
+      <c r="K557" s="21">
         <v>45511</v>
       </c>
       <c r="L557" s="9"/>
@@ -24935,7 +24939,7 @@
       <c r="J558" s="10">
         <v>8831</v>
       </c>
-      <c r="K558" s="15">
+      <c r="K558" s="21">
         <v>45511</v>
       </c>
       <c r="L558" s="9"/>
@@ -24974,7 +24978,7 @@
       <c r="J559" s="10">
         <v>8891</v>
       </c>
-      <c r="K559" s="15">
+      <c r="K559" s="21">
         <v>45511</v>
       </c>
       <c r="L559" s="9"/>
@@ -25013,7 +25017,7 @@
       <c r="J560" s="10">
         <v>8268</v>
       </c>
-      <c r="K560" s="15">
+      <c r="K560" s="21">
         <v>45511</v>
       </c>
       <c r="L560" s="9"/>
@@ -25052,7 +25056,7 @@
       <c r="J561" s="10">
         <v>8218</v>
       </c>
-      <c r="K561" s="15">
+      <c r="K561" s="21">
         <v>45511</v>
       </c>
       <c r="L561" s="9"/>
@@ -25091,7 +25095,7 @@
       <c r="J562" s="10">
         <v>8813</v>
       </c>
-      <c r="K562" s="15">
+      <c r="K562" s="21">
         <v>45511</v>
       </c>
       <c r="L562" s="9"/>
@@ -25130,7 +25134,7 @@
       <c r="J563" s="10">
         <v>8963</v>
       </c>
-      <c r="K563" s="15">
+      <c r="K563" s="21">
         <v>45511</v>
       </c>
       <c r="L563" s="9"/>
@@ -25169,7 +25173,7 @@
       <c r="J564" s="10">
         <v>8545</v>
       </c>
-      <c r="K564" s="15">
+      <c r="K564" s="21">
         <v>45513</v>
       </c>
       <c r="L564" s="9"/>
@@ -25208,7 +25212,7 @@
       <c r="J565" s="10">
         <v>6854</v>
       </c>
-      <c r="K565" s="15">
+      <c r="K565" s="21">
         <v>45520</v>
       </c>
       <c r="L565" s="9"/>
@@ -25247,7 +25251,7 @@
       <c r="J566" s="10">
         <v>11125</v>
       </c>
-      <c r="K566" s="15">
+      <c r="K566" s="21">
         <v>45516</v>
       </c>
       <c r="L566" s="9"/>
@@ -25286,7 +25290,7 @@
       <c r="J567" s="10">
         <v>11240</v>
       </c>
-      <c r="K567" s="15">
+      <c r="K567" s="21">
         <v>45514</v>
       </c>
       <c r="L567" s="9"/>
@@ -25325,7 +25329,7 @@
       <c r="J568" s="10">
         <v>8445</v>
       </c>
-      <c r="K568" s="15">
+      <c r="K568" s="21">
         <v>45514</v>
       </c>
       <c r="L568" s="9"/>
@@ -25364,7 +25368,7 @@
       <c r="J569" s="10">
         <v>8325</v>
       </c>
-      <c r="K569" s="15">
+      <c r="K569" s="21">
         <v>45514</v>
       </c>
       <c r="L569" s="9"/>
@@ -25403,7 +25407,7 @@
       <c r="J570" s="10">
         <v>7920</v>
       </c>
-      <c r="K570" s="15">
+      <c r="K570" s="21">
         <v>45514</v>
       </c>
       <c r="L570" s="9"/>
@@ -25442,7 +25446,7 @@
       <c r="J571" s="10">
         <v>8090</v>
       </c>
-      <c r="K571" s="15">
+      <c r="K571" s="21">
         <v>45514</v>
       </c>
       <c r="L571" s="9"/>
@@ -25481,7 +25485,7 @@
       <c r="J572" s="10">
         <v>8746</v>
       </c>
-      <c r="K572" s="15">
+      <c r="K572" s="21">
         <v>45516</v>
       </c>
       <c r="L572" s="9"/>
@@ -25520,7 +25524,7 @@
       <c r="J573" s="10">
         <v>8208</v>
       </c>
-      <c r="K573" s="15">
+      <c r="K573" s="21">
         <v>45516</v>
       </c>
       <c r="L573" s="9"/>
@@ -25559,7 +25563,7 @@
       <c r="J574" s="10">
         <v>7226</v>
       </c>
-      <c r="K574" s="15">
+      <c r="K574" s="21">
         <v>45516</v>
       </c>
       <c r="L574" s="9"/>
@@ -25598,7 +25602,7 @@
       <c r="J575" s="10">
         <v>8821</v>
       </c>
-      <c r="K575" s="15">
+      <c r="K575" s="21">
         <v>45516</v>
       </c>
       <c r="L575" s="9"/>
@@ -25637,7 +25641,7 @@
       <c r="J576" s="10">
         <v>8273</v>
       </c>
-      <c r="K576" s="15">
+      <c r="K576" s="21">
         <v>45516</v>
       </c>
       <c r="L576" s="9"/>
@@ -25676,7 +25680,7 @@
       <c r="J577" s="10">
         <v>7426</v>
       </c>
-      <c r="K577" s="15">
+      <c r="K577" s="21">
         <v>45516</v>
       </c>
       <c r="L577" s="9"/>
@@ -25715,7 +25719,7 @@
       <c r="J578" s="10">
         <v>8975</v>
       </c>
-      <c r="K578" s="15">
+      <c r="K578" s="21">
         <v>45520</v>
       </c>
       <c r="L578" s="9"/>
@@ -25754,7 +25758,7 @@
       <c r="J579" s="10">
         <v>8915</v>
       </c>
-      <c r="K579" s="15">
+      <c r="K579" s="21">
         <v>45519</v>
       </c>
       <c r="L579" s="9"/>
@@ -25793,7 +25797,7 @@
       <c r="J580" s="10">
         <v>7140</v>
       </c>
-      <c r="K580" s="15">
+      <c r="K580" s="21">
         <v>45520</v>
       </c>
       <c r="L580" s="9"/>
@@ -25832,7 +25836,7 @@
       <c r="J581" s="10">
         <v>6860</v>
       </c>
-      <c r="K581" s="15">
+      <c r="K581" s="21">
         <v>45519</v>
       </c>
       <c r="L581" s="9"/>
@@ -25871,7 +25875,7 @@
       <c r="J582" s="10">
         <v>7335</v>
       </c>
-      <c r="K582" s="15">
+      <c r="K582" s="21">
         <v>45519</v>
       </c>
       <c r="L582" s="9"/>
@@ -25910,7 +25914,7 @@
       <c r="J583" s="10">
         <v>7345</v>
       </c>
-      <c r="K583" s="15">
+      <c r="K583" s="21">
         <v>45520</v>
       </c>
       <c r="L583" s="9"/>
@@ -25949,7 +25953,7 @@
       <c r="J584" s="10">
         <v>6990</v>
       </c>
-      <c r="K584" s="15">
+      <c r="K584" s="21">
         <v>45520</v>
       </c>
       <c r="L584" s="9"/>
@@ -25988,7 +25992,7 @@
       <c r="J585" s="10">
         <v>7640</v>
       </c>
-      <c r="K585" s="15">
+      <c r="K585" s="21">
         <v>45520</v>
       </c>
       <c r="L585" s="9"/>
@@ -26027,7 +26031,7 @@
       <c r="J586" s="10">
         <v>8250</v>
       </c>
-      <c r="K586" s="15">
+      <c r="K586" s="21">
         <v>45520</v>
       </c>
       <c r="L586" s="9"/>
@@ -26066,7 +26070,7 @@
       <c r="J587" s="10">
         <v>8500</v>
       </c>
-      <c r="K587" s="15">
+      <c r="K587" s="21">
         <v>45520</v>
       </c>
       <c r="L587" s="9"/>
@@ -26105,7 +26109,7 @@
       <c r="J588" s="10">
         <v>8995</v>
       </c>
-      <c r="K588" s="15">
+      <c r="K588" s="21">
         <v>45520</v>
       </c>
       <c r="L588" s="9"/>
@@ -26144,7 +26148,7 @@
       <c r="J589" s="10">
         <v>8725</v>
       </c>
-      <c r="K589" s="15">
+      <c r="K589" s="21">
         <v>45520</v>
       </c>
       <c r="L589" s="9"/>
@@ -26183,7 +26187,7 @@
       <c r="J590" s="10">
         <v>7090</v>
       </c>
-      <c r="K590" s="15">
+      <c r="K590" s="21">
         <v>45519</v>
       </c>
       <c r="L590" s="9"/>
@@ -26222,7 +26226,7 @@
       <c r="J591" s="10">
         <v>7090</v>
       </c>
-      <c r="K591" s="15">
+      <c r="K591" s="21">
         <v>45519</v>
       </c>
       <c r="L591" s="9"/>
@@ -26261,7 +26265,7 @@
       <c r="J592" s="10">
         <v>6780</v>
       </c>
-      <c r="K592" s="15">
+      <c r="K592" s="21">
         <v>45520</v>
       </c>
       <c r="L592" s="9"/>
@@ -26300,7 +26304,7 @@
       <c r="J593" s="10">
         <v>9895</v>
       </c>
-      <c r="K593" s="15">
+      <c r="K593" s="21">
         <v>45520</v>
       </c>
       <c r="L593" s="9"/>
@@ -26339,7 +26343,7 @@
       <c r="J594" s="10">
         <v>9800</v>
       </c>
-      <c r="K594" s="15">
+      <c r="K594" s="21">
         <v>45520</v>
       </c>
       <c r="L594" s="9"/>
@@ -26378,7 +26382,7 @@
       <c r="J595" s="10">
         <v>9810</v>
       </c>
-      <c r="K595" s="15">
+      <c r="K595" s="21">
         <v>45519</v>
       </c>
       <c r="L595" s="9"/>
@@ -26417,7 +26421,7 @@
       <c r="J596" s="10">
         <v>9405</v>
       </c>
-      <c r="K596" s="15">
+      <c r="K596" s="21">
         <v>45519</v>
       </c>
       <c r="L596" s="9"/>
@@ -26456,7 +26460,7 @@
       <c r="J597" s="10">
         <v>7660</v>
       </c>
-      <c r="K597" s="15">
+      <c r="K597" s="21">
         <v>45519</v>
       </c>
       <c r="L597" s="9"/>
@@ -26495,7 +26499,7 @@
       <c r="J598" s="10">
         <v>6720</v>
       </c>
-      <c r="K598" s="15">
+      <c r="K598" s="21">
         <v>45520</v>
       </c>
       <c r="L598" s="9"/>
@@ -26534,7 +26538,7 @@
       <c r="J599" s="10">
         <v>6140</v>
       </c>
-      <c r="K599" s="15">
+      <c r="K599" s="21">
         <v>45181</v>
       </c>
       <c r="L599" s="9"/>
@@ -26573,7 +26577,7 @@
       <c r="J600" s="10">
         <v>4454</v>
       </c>
-      <c r="K600" s="15">
+      <c r="K600" s="21">
         <v>45504</v>
       </c>
       <c r="L600" s="9"/>
@@ -26612,7 +26616,7 @@
       <c r="J601" s="10">
         <v>9380</v>
       </c>
-      <c r="K601" s="15">
+      <c r="K601" s="21">
         <v>45253</v>
       </c>
       <c r="L601" s="9"/>
@@ -26651,7 +26655,7 @@
       <c r="J602" s="10">
         <v>2652</v>
       </c>
-      <c r="K602" s="15">
+      <c r="K602" s="21">
         <v>45491</v>
       </c>
       <c r="L602" s="9"/>
@@ -26690,7 +26694,7 @@
       <c r="J603" s="10">
         <v>3222</v>
       </c>
-      <c r="K603" s="15">
+      <c r="K603" s="21">
         <v>45366</v>
       </c>
       <c r="L603" s="9"/>
@@ -26729,11 +26733,11 @@
       <c r="J604" s="10">
         <v>3690</v>
       </c>
-      <c r="K604" s="15">
+      <c r="K604" s="21">
         <v>45505</v>
       </c>
       <c r="L604" s="9"/>
-      <c r="M604" s="20" t="s">
+      <c r="M604" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -26768,11 +26772,11 @@
       <c r="J605" s="10">
         <v>4190</v>
       </c>
-      <c r="K605" s="15">
+      <c r="K605" s="21">
         <v>45512</v>
       </c>
       <c r="L605" s="9"/>
-      <c r="M605" s="20" t="s">
+      <c r="M605" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -26807,11 +26811,11 @@
       <c r="J606" s="10">
         <v>5494</v>
       </c>
-      <c r="K606" s="15">
+      <c r="K606" s="21">
         <v>45518</v>
       </c>
       <c r="L606" s="9"/>
-      <c r="M606" s="20" t="s">
+      <c r="M606" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -26846,11 +26850,11 @@
       <c r="J607" s="10">
         <v>1000</v>
       </c>
-      <c r="K607" s="15">
+      <c r="K607" s="21">
         <v>45367</v>
       </c>
       <c r="L607" s="9"/>
-      <c r="M607" s="20" t="s">
+      <c r="M607" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -26885,7 +26889,7 @@
       <c r="J608" s="10">
         <v>7366</v>
       </c>
-      <c r="K608" s="15">
+      <c r="K608" s="21">
         <v>45496</v>
       </c>
       <c r="L608" s="9"/>
@@ -26924,11 +26928,11 @@
       <c r="J609" s="10">
         <v>2138</v>
       </c>
-      <c r="K609" s="15">
+      <c r="K609" s="21">
         <v>45518</v>
       </c>
       <c r="L609" s="9"/>
-      <c r="M609" s="20" t="s">
+      <c r="M609" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -26963,11 +26967,11 @@
       <c r="J610" s="10">
         <v>4564</v>
       </c>
-      <c r="K610" s="15">
+      <c r="K610" s="21">
         <v>45439</v>
       </c>
       <c r="L610" s="9"/>
-      <c r="M610" s="20" t="s">
+      <c r="M610" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -27002,11 +27006,11 @@
       <c r="J611" s="10">
         <v>2720</v>
       </c>
-      <c r="K611" s="15">
+      <c r="K611" s="21">
         <v>45514</v>
       </c>
       <c r="L611" s="9"/>
-      <c r="M611" s="20" t="s">
+      <c r="M611" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -27041,7 +27045,7 @@
       <c r="J612" s="10">
         <v>3521</v>
       </c>
-      <c r="K612" s="15">
+      <c r="K612" s="21">
         <v>45519</v>
       </c>
       <c r="L612" s="9"/>
@@ -27080,7 +27084,7 @@
       <c r="J613" s="10">
         <v>3286</v>
       </c>
-      <c r="K613" s="15">
+      <c r="K613" s="21">
         <v>45133</v>
       </c>
       <c r="L613" s="9"/>
@@ -27119,7 +27123,7 @@
       <c r="J614" s="10">
         <v>3278</v>
       </c>
-      <c r="K614" s="15">
+      <c r="K614" s="21">
         <v>45133</v>
       </c>
       <c r="L614" s="9"/>
@@ -27158,7 +27162,7 @@
       <c r="J615" s="10">
         <v>4026</v>
       </c>
-      <c r="K615" s="15">
+      <c r="K615" s="21">
         <v>45134</v>
       </c>
       <c r="L615" s="9"/>
@@ -27197,7 +27201,7 @@
       <c r="J616" s="10">
         <v>4028</v>
       </c>
-      <c r="K616" s="15">
+      <c r="K616" s="21">
         <v>45134</v>
       </c>
       <c r="L616" s="9"/>
@@ -27234,7 +27238,7 @@
       <c r="J617" s="10">
         <v>9915</v>
       </c>
-      <c r="K617" s="15">
+      <c r="K617" s="21">
         <v>45533</v>
       </c>
       <c r="L617" s="9"/>
@@ -27271,7 +27275,7 @@
       <c r="J618" s="10">
         <v>8985</v>
       </c>
-      <c r="K618" s="15">
+      <c r="K618" s="21">
         <v>45533</v>
       </c>
       <c r="L618" s="9"/>
@@ -27308,7 +27312,7 @@
       <c r="J619" s="10">
         <v>8565</v>
       </c>
-      <c r="K619" s="15">
+      <c r="K619" s="21">
         <v>45533</v>
       </c>
       <c r="L619" s="9"/>
@@ -27345,7 +27349,7 @@
       <c r="J620" s="10">
         <v>8575</v>
       </c>
-      <c r="K620" s="15">
+      <c r="K620" s="21">
         <v>45533</v>
       </c>
       <c r="L620" s="9"/>
@@ -27382,7 +27386,7 @@
       <c r="J621" s="10">
         <v>8320</v>
       </c>
-      <c r="K621" s="15">
+      <c r="K621" s="21">
         <v>45533</v>
       </c>
       <c r="L621" s="9"/>
@@ -27419,7 +27423,7 @@
       <c r="J622" s="10">
         <v>7840</v>
       </c>
-      <c r="K622" s="15">
+      <c r="K622" s="21">
         <v>45533</v>
       </c>
       <c r="L622" s="9"/>
@@ -27456,7 +27460,7 @@
       <c r="J623" s="10">
         <v>8210</v>
       </c>
-      <c r="K623" s="15">
+      <c r="K623" s="21">
         <v>45533</v>
       </c>
       <c r="L623" s="9"/>
@@ -27493,7 +27497,7 @@
       <c r="J624" s="10">
         <v>8109.9999999999991</v>
       </c>
-      <c r="K624" s="15">
+      <c r="K624" s="21">
         <v>45533</v>
       </c>
       <c r="L624" s="9"/>
@@ -27530,7 +27534,7 @@
       <c r="J625" s="10">
         <v>6905</v>
       </c>
-      <c r="K625" s="15">
+      <c r="K625" s="21">
         <v>45533</v>
       </c>
       <c r="L625" s="9"/>
@@ -27567,7 +27571,7 @@
       <c r="J626" s="10">
         <v>6610</v>
       </c>
-      <c r="K626" s="15">
+      <c r="K626" s="21">
         <v>45533</v>
       </c>
       <c r="L626" s="9"/>
@@ -27604,7 +27608,7 @@
       <c r="J627" s="10">
         <v>8990</v>
       </c>
-      <c r="K627" s="15">
+      <c r="K627" s="21">
         <v>45533</v>
       </c>
       <c r="L627" s="9"/>
@@ -27641,7 +27645,7 @@
       <c r="J628" s="10">
         <v>8485</v>
       </c>
-      <c r="K628" s="15">
+      <c r="K628" s="21">
         <v>45533</v>
       </c>
       <c r="L628" s="9"/>
@@ -27678,7 +27682,7 @@
       <c r="J629" s="10">
         <v>7985</v>
       </c>
-      <c r="K629" s="15">
+      <c r="K629" s="21">
         <v>45533</v>
       </c>
       <c r="L629" s="9"/>
@@ -27715,7 +27719,7 @@
       <c r="J630" s="10">
         <v>7650</v>
       </c>
-      <c r="K630" s="15">
+      <c r="K630" s="21">
         <v>45533</v>
       </c>
       <c r="L630" s="9"/>
@@ -27752,7 +27756,7 @@
       <c r="J631" s="10">
         <v>8710</v>
       </c>
-      <c r="K631" s="15">
+      <c r="K631" s="21">
         <v>45533</v>
       </c>
       <c r="L631" s="9"/>
@@ -27789,7 +27793,7 @@
       <c r="J632" s="10">
         <v>8435</v>
       </c>
-      <c r="K632" s="15">
+      <c r="K632" s="21">
         <v>45533</v>
       </c>
       <c r="L632" s="9"/>
@@ -27826,7 +27830,7 @@
       <c r="J633" s="10">
         <v>8910</v>
       </c>
-      <c r="K633" s="15">
+      <c r="K633" s="21">
         <v>45533</v>
       </c>
       <c r="L633" s="9"/>
@@ -27863,7 +27867,7 @@
       <c r="J634" s="10">
         <v>8590</v>
       </c>
-      <c r="K634" s="15">
+      <c r="K634" s="21">
         <v>45533</v>
       </c>
       <c r="L634" s="9"/>
@@ -27900,7 +27904,7 @@
       <c r="J635" s="10">
         <v>8950</v>
       </c>
-      <c r="K635" s="15">
+      <c r="K635" s="21">
         <v>45533</v>
       </c>
       <c r="L635" s="9"/>
@@ -27937,7 +27941,7 @@
       <c r="J636" s="10">
         <v>8665</v>
       </c>
-      <c r="K636" s="15">
+      <c r="K636" s="21">
         <v>45533</v>
       </c>
       <c r="L636" s="9"/>
@@ -27974,7 +27978,7 @@
       <c r="J637" s="10">
         <v>8680</v>
       </c>
-      <c r="K637" s="15">
+      <c r="K637" s="21">
         <v>45533</v>
       </c>
       <c r="L637" s="9"/>
@@ -28011,7 +28015,7 @@
       <c r="J638" s="10">
         <v>8870</v>
       </c>
-      <c r="K638" s="15">
+      <c r="K638" s="21">
         <v>45533</v>
       </c>
       <c r="L638" s="9"/>
@@ -28048,7 +28052,7 @@
       <c r="J639" s="10">
         <v>8555</v>
       </c>
-      <c r="K639" s="15">
+      <c r="K639" s="21">
         <v>45533</v>
       </c>
       <c r="L639" s="9"/>
@@ -28085,7 +28089,7 @@
       <c r="J640" s="10">
         <v>8580</v>
       </c>
-      <c r="K640" s="15">
+      <c r="K640" s="21">
         <v>45533</v>
       </c>
       <c r="L640" s="9"/>
@@ -28122,7 +28126,7 @@
       <c r="J641" s="10">
         <v>8220</v>
       </c>
-      <c r="K641" s="15">
+      <c r="K641" s="21">
         <v>45533</v>
       </c>
       <c r="L641" s="9"/>
@@ -28161,7 +28165,7 @@
       <c r="J642" s="10">
         <v>10000</v>
       </c>
-      <c r="K642" s="15">
+      <c r="K642" s="21">
         <v>45514</v>
       </c>
       <c r="L642" s="9"/>
@@ -28200,7 +28204,7 @@
       <c r="J643" s="10">
         <v>8500</v>
       </c>
-      <c r="K643" s="15">
+      <c r="K643" s="21">
         <v>45514</v>
       </c>
       <c r="L643" s="9"/>
@@ -28239,7 +28243,7 @@
       <c r="J644" s="10">
         <v>9000</v>
       </c>
-      <c r="K644" s="15">
+      <c r="K644" s="21">
         <v>45511</v>
       </c>
       <c r="L644" s="9"/>
@@ -28278,7 +28282,7 @@
       <c r="J645" s="10">
         <v>8500</v>
       </c>
-      <c r="K645" s="15">
+      <c r="K645" s="21">
         <v>45511</v>
       </c>
       <c r="L645" s="9"/>
@@ -28317,7 +28321,7 @@
       <c r="J646" s="10">
         <v>8700</v>
       </c>
-      <c r="K646" s="15">
+      <c r="K646" s="21">
         <v>45511</v>
       </c>
       <c r="L646" s="9"/>
@@ -28356,7 +28360,7 @@
       <c r="J647" s="10">
         <v>9100</v>
       </c>
-      <c r="K647" s="15">
+      <c r="K647" s="21">
         <v>45511</v>
       </c>
       <c r="L647" s="9"/>
@@ -28395,7 +28399,7 @@
       <c r="J648" s="10">
         <v>10000</v>
       </c>
-      <c r="K648" s="15">
+      <c r="K648" s="21">
         <v>45511</v>
       </c>
       <c r="L648" s="9"/>
